--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2433"/>
+  <dimension ref="A1:C2439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23654,7 +23654,7 @@
         <v>7</v>
       </c>
       <c r="C2113">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
@@ -24930,7 +24930,7 @@
         <v>6</v>
       </c>
       <c r="C2229">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2230" spans="1:3">
@@ -24974,7 +24974,7 @@
         <v>5</v>
       </c>
       <c r="C2233">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
@@ -25337,7 +25337,7 @@
         <v>7</v>
       </c>
       <c r="C2266">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -25389,10 +25389,10 @@
         <v>44455</v>
       </c>
       <c r="B2271" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2271">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
@@ -25400,7 +25400,7 @@
         <v>44455</v>
       </c>
       <c r="B2272" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2272">
         <v>7</v>
@@ -25411,10 +25411,10 @@
         <v>44455</v>
       </c>
       <c r="B2273" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2273">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
@@ -25422,21 +25422,21 @@
         <v>44455</v>
       </c>
       <c r="B2274" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2274">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
       <c r="A2275" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B2275" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2275">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
@@ -25444,10 +25444,10 @@
         <v>44456</v>
       </c>
       <c r="B2276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2276">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
@@ -25455,10 +25455,10 @@
         <v>44456</v>
       </c>
       <c r="B2277" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2277">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
@@ -25466,10 +25466,10 @@
         <v>44456</v>
       </c>
       <c r="B2278" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2278">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
@@ -25477,21 +25477,21 @@
         <v>44456</v>
       </c>
       <c r="B2279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2279">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
       <c r="A2280" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B2280" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2280">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
@@ -25499,10 +25499,10 @@
         <v>44457</v>
       </c>
       <c r="B2281" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
@@ -25510,10 +25510,10 @@
         <v>44457</v>
       </c>
       <c r="B2282" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2282">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
@@ -25521,10 +25521,10 @@
         <v>44457</v>
       </c>
       <c r="B2283" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2283">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
@@ -25532,10 +25532,10 @@
         <v>44457</v>
       </c>
       <c r="B2284" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2284">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
@@ -25543,7 +25543,7 @@
         <v>44457</v>
       </c>
       <c r="B2285" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2285">
         <v>7</v>
@@ -25551,13 +25551,13 @@
     </row>
     <row r="2286" spans="1:3">
       <c r="A2286" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B2286" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2286">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -25565,10 +25565,10 @@
         <v>44458</v>
       </c>
       <c r="B2287" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2287">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -25576,10 +25576,10 @@
         <v>44458</v>
       </c>
       <c r="B2288" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2288">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
@@ -25587,10 +25587,10 @@
         <v>44458</v>
       </c>
       <c r="B2289" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2289">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
@@ -25598,10 +25598,10 @@
         <v>44458</v>
       </c>
       <c r="B2290" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2290">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
@@ -25609,21 +25609,21 @@
         <v>44458</v>
       </c>
       <c r="B2291" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2291">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
       <c r="A2292" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B2292" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2292">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
@@ -25631,10 +25631,10 @@
         <v>44459</v>
       </c>
       <c r="B2293" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2293">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
@@ -25642,10 +25642,10 @@
         <v>44459</v>
       </c>
       <c r="B2294" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2294">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
@@ -25653,10 +25653,10 @@
         <v>44459</v>
       </c>
       <c r="B2295" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2295">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
@@ -25664,10 +25664,10 @@
         <v>44459</v>
       </c>
       <c r="B2296" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2296">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
@@ -25675,21 +25675,21 @@
         <v>44459</v>
       </c>
       <c r="B2297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2297">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
       <c r="A2298" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B2298" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2298">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
@@ -25697,10 +25697,10 @@
         <v>44460</v>
       </c>
       <c r="B2299" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2299">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
@@ -25708,10 +25708,10 @@
         <v>44460</v>
       </c>
       <c r="B2300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2300">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
@@ -25719,10 +25719,10 @@
         <v>44460</v>
       </c>
       <c r="B2301" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2301">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
@@ -25730,7 +25730,7 @@
         <v>44460</v>
       </c>
       <c r="B2302" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2302">
         <v>10</v>
@@ -25741,21 +25741,21 @@
         <v>44460</v>
       </c>
       <c r="B2303" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2303">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
       <c r="A2304" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B2304" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2304">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
@@ -25763,10 +25763,10 @@
         <v>44461</v>
       </c>
       <c r="B2305" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2305">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2306" spans="1:3">
@@ -25774,7 +25774,7 @@
         <v>44461</v>
       </c>
       <c r="B2306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2306">
         <v>3</v>
@@ -25785,10 +25785,10 @@
         <v>44461</v>
       </c>
       <c r="B2307" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2307">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2308" spans="1:3">
@@ -25796,10 +25796,10 @@
         <v>44461</v>
       </c>
       <c r="B2308" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2308">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
@@ -25807,21 +25807,21 @@
         <v>44461</v>
       </c>
       <c r="B2309" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2309">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
       <c r="A2310" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B2310" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2310">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2311" spans="1:3">
@@ -25829,10 +25829,10 @@
         <v>44462</v>
       </c>
       <c r="B2311" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2311">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
@@ -25840,10 +25840,10 @@
         <v>44462</v>
       </c>
       <c r="B2312" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2312">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
@@ -25851,10 +25851,10 @@
         <v>44462</v>
       </c>
       <c r="B2313" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2313">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
@@ -25862,10 +25862,10 @@
         <v>44462</v>
       </c>
       <c r="B2314" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2314">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -25873,21 +25873,21 @@
         <v>44462</v>
       </c>
       <c r="B2315" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2315">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
       <c r="A2316" s="2">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="B2316" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2316">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
@@ -25895,7 +25895,7 @@
         <v>44463</v>
       </c>
       <c r="B2317" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2317">
         <v>1</v>
@@ -25906,10 +25906,10 @@
         <v>44463</v>
       </c>
       <c r="B2318" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2318">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
@@ -25917,10 +25917,10 @@
         <v>44463</v>
       </c>
       <c r="B2319" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2319">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
@@ -25928,7 +25928,7 @@
         <v>44463</v>
       </c>
       <c r="B2320" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2320">
         <v>9</v>
@@ -25939,21 +25939,21 @@
         <v>44463</v>
       </c>
       <c r="B2321" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2321">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2322" spans="1:3">
       <c r="A2322" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B2322" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2322">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
@@ -25961,7 +25961,7 @@
         <v>44464</v>
       </c>
       <c r="B2323" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2323">
         <v>1</v>
@@ -25972,10 +25972,10 @@
         <v>44464</v>
       </c>
       <c r="B2324" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2324">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
@@ -25983,7 +25983,7 @@
         <v>44464</v>
       </c>
       <c r="B2325" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2325">
         <v>4</v>
@@ -25994,10 +25994,10 @@
         <v>44464</v>
       </c>
       <c r="B2326" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2326">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
@@ -26005,10 +26005,10 @@
         <v>44464</v>
       </c>
       <c r="B2327" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2327">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
@@ -26016,21 +26016,21 @@
         <v>44464</v>
       </c>
       <c r="B2328" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2328">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
       <c r="A2329" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B2329" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2329">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
@@ -26038,10 +26038,10 @@
         <v>44465</v>
       </c>
       <c r="B2330" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2330">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
@@ -26049,10 +26049,10 @@
         <v>44465</v>
       </c>
       <c r="B2331" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2331">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
@@ -26060,10 +26060,10 @@
         <v>44465</v>
       </c>
       <c r="B2332" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2332">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
@@ -26071,10 +26071,10 @@
         <v>44465</v>
       </c>
       <c r="B2333" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2333">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -26082,21 +26082,21 @@
         <v>44465</v>
       </c>
       <c r="B2334" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2334">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
       <c r="A2335" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B2335" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2335">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
@@ -26104,10 +26104,10 @@
         <v>44466</v>
       </c>
       <c r="B2336" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2336">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
@@ -26115,10 +26115,10 @@
         <v>44466</v>
       </c>
       <c r="B2337" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2337">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
@@ -26126,10 +26126,10 @@
         <v>44466</v>
       </c>
       <c r="B2338" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2338">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
@@ -26137,10 +26137,10 @@
         <v>44466</v>
       </c>
       <c r="B2339" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2339">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -26148,21 +26148,21 @@
         <v>44466</v>
       </c>
       <c r="B2340" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2340">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
       <c r="A2341" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B2341" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2341">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -26170,10 +26170,10 @@
         <v>44467</v>
       </c>
       <c r="B2342" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2342">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -26181,10 +26181,10 @@
         <v>44467</v>
       </c>
       <c r="B2343" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2343">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
@@ -26192,10 +26192,10 @@
         <v>44467</v>
       </c>
       <c r="B2344" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2344">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -26203,10 +26203,10 @@
         <v>44467</v>
       </c>
       <c r="B2345" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2345">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -26214,21 +26214,21 @@
         <v>44467</v>
       </c>
       <c r="B2346" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2346">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
       <c r="A2347" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B2347" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2347">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -26236,10 +26236,10 @@
         <v>44468</v>
       </c>
       <c r="B2348" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2348">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -26247,10 +26247,10 @@
         <v>44468</v>
       </c>
       <c r="B2349" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2349">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -26258,10 +26258,10 @@
         <v>44468</v>
       </c>
       <c r="B2350" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2350">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -26269,10 +26269,10 @@
         <v>44468</v>
       </c>
       <c r="B2351" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2351">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -26280,10 +26280,10 @@
         <v>44468</v>
       </c>
       <c r="B2352" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2352">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -26291,21 +26291,21 @@
         <v>44468</v>
       </c>
       <c r="B2353" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2353">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
       <c r="A2354" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B2354" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2354">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -26313,10 +26313,10 @@
         <v>44469</v>
       </c>
       <c r="B2355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2355">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
@@ -26324,10 +26324,10 @@
         <v>44469</v>
       </c>
       <c r="B2356" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2356">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
@@ -26335,10 +26335,10 @@
         <v>44469</v>
       </c>
       <c r="B2357" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2357">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -26346,21 +26346,21 @@
         <v>44469</v>
       </c>
       <c r="B2358" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2358">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
       <c r="A2359" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B2359" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2359">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -26368,10 +26368,10 @@
         <v>44470</v>
       </c>
       <c r="B2360" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2360">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -26379,10 +26379,10 @@
         <v>44470</v>
       </c>
       <c r="B2361" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2361">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -26390,10 +26390,10 @@
         <v>44470</v>
       </c>
       <c r="B2362" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2362">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
@@ -26401,21 +26401,21 @@
         <v>44470</v>
       </c>
       <c r="B2363" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2363">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
       <c r="A2364" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B2364" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2364">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
@@ -26423,10 +26423,10 @@
         <v>44471</v>
       </c>
       <c r="B2365" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2365">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -26434,10 +26434,10 @@
         <v>44471</v>
       </c>
       <c r="B2366" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2366">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -26445,10 +26445,10 @@
         <v>44471</v>
       </c>
       <c r="B2367" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2367">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -26456,21 +26456,21 @@
         <v>44471</v>
       </c>
       <c r="B2368" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2368">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
       <c r="A2369" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B2369" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2369">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -26478,10 +26478,10 @@
         <v>44472</v>
       </c>
       <c r="B2370" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2370">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
@@ -26489,10 +26489,10 @@
         <v>44472</v>
       </c>
       <c r="B2371" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2371">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
@@ -26500,10 +26500,10 @@
         <v>44472</v>
       </c>
       <c r="B2372" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2372">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
@@ -26511,21 +26511,21 @@
         <v>44472</v>
       </c>
       <c r="B2373" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2373">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
       <c r="A2374" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B2374" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2374">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
@@ -26533,7 +26533,7 @@
         <v>44473</v>
       </c>
       <c r="B2375" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2375">
         <v>1</v>
@@ -26544,10 +26544,10 @@
         <v>44473</v>
       </c>
       <c r="B2376" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2376">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
@@ -26555,10 +26555,10 @@
         <v>44473</v>
       </c>
       <c r="B2377" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2377">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -26566,10 +26566,10 @@
         <v>44473</v>
       </c>
       <c r="B2378" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2378">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -26577,21 +26577,21 @@
         <v>44473</v>
       </c>
       <c r="B2379" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2379">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
       <c r="A2380" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B2380" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2380">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
@@ -26599,10 +26599,10 @@
         <v>44474</v>
       </c>
       <c r="B2381" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2381">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
@@ -26610,10 +26610,10 @@
         <v>44474</v>
       </c>
       <c r="B2382" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2382">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
@@ -26621,10 +26621,10 @@
         <v>44474</v>
       </c>
       <c r="B2383" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2383">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
@@ -26632,10 +26632,10 @@
         <v>44474</v>
       </c>
       <c r="B2384" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2384">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
@@ -26643,21 +26643,21 @@
         <v>44474</v>
       </c>
       <c r="B2385" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2385">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
       <c r="A2386" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B2386" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2386">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -26665,7 +26665,7 @@
         <v>44475</v>
       </c>
       <c r="B2387" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2387">
         <v>1</v>
@@ -26676,10 +26676,10 @@
         <v>44475</v>
       </c>
       <c r="B2388" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2388">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -26687,10 +26687,10 @@
         <v>44475</v>
       </c>
       <c r="B2389" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2389">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -26698,10 +26698,10 @@
         <v>44475</v>
       </c>
       <c r="B2390" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2390">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -26709,10 +26709,10 @@
         <v>44475</v>
       </c>
       <c r="B2391" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2391">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -26720,21 +26720,21 @@
         <v>44475</v>
       </c>
       <c r="B2392" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2392">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
       <c r="A2393" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B2393" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2393">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -26742,10 +26742,10 @@
         <v>44476</v>
       </c>
       <c r="B2394" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2394">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -26753,10 +26753,10 @@
         <v>44476</v>
       </c>
       <c r="B2395" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2395">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -26764,10 +26764,10 @@
         <v>44476</v>
       </c>
       <c r="B2396" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2396">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -26775,10 +26775,10 @@
         <v>44476</v>
       </c>
       <c r="B2397" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2397">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -26786,21 +26786,21 @@
         <v>44476</v>
       </c>
       <c r="B2398" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2398">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
       <c r="A2399" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B2399" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2399">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -26808,10 +26808,10 @@
         <v>44477</v>
       </c>
       <c r="B2400" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -26819,10 +26819,10 @@
         <v>44477</v>
       </c>
       <c r="B2401" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2401">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -26830,10 +26830,10 @@
         <v>44477</v>
       </c>
       <c r="B2402" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2402">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -26841,21 +26841,21 @@
         <v>44477</v>
       </c>
       <c r="B2403" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2403">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
       <c r="A2404" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B2404" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2404">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
@@ -26863,10 +26863,10 @@
         <v>44478</v>
       </c>
       <c r="B2405" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2405">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -26874,10 +26874,10 @@
         <v>44478</v>
       </c>
       <c r="B2406" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2406">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -26885,10 +26885,10 @@
         <v>44478</v>
       </c>
       <c r="B2407" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2407">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
@@ -26896,21 +26896,21 @@
         <v>44478</v>
       </c>
       <c r="B2408" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2408">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
       <c r="A2409" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B2409" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2409">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
@@ -26918,10 +26918,10 @@
         <v>44479</v>
       </c>
       <c r="B2410" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
@@ -26929,10 +26929,10 @@
         <v>44479</v>
       </c>
       <c r="B2411" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
@@ -26940,10 +26940,10 @@
         <v>44479</v>
       </c>
       <c r="B2412" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2412">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
@@ -26951,10 +26951,10 @@
         <v>44479</v>
       </c>
       <c r="B2413" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2413">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
@@ -26962,21 +26962,21 @@
         <v>44479</v>
       </c>
       <c r="B2414" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2414">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
       <c r="A2415" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B2415" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2415">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -26984,10 +26984,10 @@
         <v>44480</v>
       </c>
       <c r="B2416" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
@@ -26995,10 +26995,10 @@
         <v>44480</v>
       </c>
       <c r="B2417" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2417">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
@@ -27006,10 +27006,10 @@
         <v>44480</v>
       </c>
       <c r="B2418" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2418">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -27017,10 +27017,10 @@
         <v>44480</v>
       </c>
       <c r="B2419" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2419">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -27028,21 +27028,21 @@
         <v>44480</v>
       </c>
       <c r="B2420" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2420">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
       <c r="A2421" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2421">
         <v>9</v>
-      </c>
-      <c r="C2421">
-        <v>1</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27050,10 +27050,10 @@
         <v>44481</v>
       </c>
       <c r="B2422" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2422">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27061,10 +27061,10 @@
         <v>44481</v>
       </c>
       <c r="B2423" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2423">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
@@ -27072,7 +27072,7 @@
         <v>44481</v>
       </c>
       <c r="B2424" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2424">
         <v>3</v>
@@ -27083,10 +27083,10 @@
         <v>44481</v>
       </c>
       <c r="B2425" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2425">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -27094,21 +27094,21 @@
         <v>44481</v>
       </c>
       <c r="B2426" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2426">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
       <c r="A2427" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2427" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2427">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -27116,10 +27116,10 @@
         <v>44482</v>
       </c>
       <c r="B2428" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2428">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -27127,7 +27127,7 @@
         <v>44482</v>
       </c>
       <c r="B2429" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2429">
         <v>2</v>
@@ -27138,29 +27138,29 @@
         <v>44482</v>
       </c>
       <c r="B2430" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2430">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
       <c r="A2431" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2431" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2431">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
       <c r="A2432" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2432" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2432">
         <v>5</v>
@@ -27171,10 +27171,76 @@
         <v>44483</v>
       </c>
       <c r="B2433" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2433">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:3">
+      <c r="A2434" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B2434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:3">
+      <c r="A2435" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B2435" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2435">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:3">
+      <c r="A2436" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2436">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:3">
+      <c r="A2437" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2437">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:3">
+      <c r="A2438" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:3">
+      <c r="A2439" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B2439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2439">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2439"/>
+  <dimension ref="A1:C2457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13600,7 +13600,7 @@
         <v>5</v>
       </c>
       <c r="C1199">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -26008,7 +26008,7 @@
         <v>3</v>
       </c>
       <c r="C2327">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
@@ -26976,7 +26976,7 @@
         <v>5</v>
       </c>
       <c r="C2415">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -27009,7 +27009,7 @@
         <v>7</v>
       </c>
       <c r="C2418">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -27075,7 +27075,7 @@
         <v>7</v>
       </c>
       <c r="C2424">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
@@ -27097,7 +27097,7 @@
         <v>4</v>
       </c>
       <c r="C2426">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -27226,7 +27226,7 @@
         <v>44484</v>
       </c>
       <c r="B2438" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2438">
         <v>1</v>
@@ -27237,9 +27237,207 @@
         <v>44484</v>
       </c>
       <c r="B2439" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:3">
+      <c r="A2440" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B2440" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2440">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:3">
+      <c r="A2441" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B2441" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:3">
+      <c r="A2442" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B2442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2442">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:3">
+      <c r="A2443" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B2443" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:3">
+      <c r="A2444" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2444">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:3">
+      <c r="A2445" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:3">
+      <c r="A2446" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2446">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:3">
+      <c r="A2447" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:3">
+      <c r="A2448" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2448">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:3">
+      <c r="A2449" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:3">
+      <c r="A2450" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:3">
+      <c r="A2451" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B2451" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:3">
+      <c r="A2452" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B2452" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2452">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:3">
+      <c r="A2453" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:3">
+      <c r="A2454" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2454">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:3">
+      <c r="A2455" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:3">
+      <c r="A2456" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:3">
+      <c r="A2457" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2457">
         <v>2</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2457"/>
+  <dimension ref="A1:C2462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25191,7 +25191,7 @@
         <v>44452</v>
       </c>
       <c r="B2253" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2253">
         <v>1</v>
@@ -25202,7 +25202,7 @@
         <v>44452</v>
       </c>
       <c r="B2254" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2254">
         <v>1</v>
@@ -25213,10 +25213,10 @@
         <v>44452</v>
       </c>
       <c r="B2255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2255">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2256" spans="1:3">
@@ -25224,10 +25224,10 @@
         <v>44452</v>
       </c>
       <c r="B2256" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2256">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2257" spans="1:3">
@@ -25235,10 +25235,10 @@
         <v>44452</v>
       </c>
       <c r="B2257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2257">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2258" spans="1:3">
@@ -25246,21 +25246,21 @@
         <v>44452</v>
       </c>
       <c r="B2258" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2258">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2259" spans="1:3">
       <c r="A2259" s="2">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B2259" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2259">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2260" spans="1:3">
@@ -25268,10 +25268,10 @@
         <v>44453</v>
       </c>
       <c r="B2260" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2261" spans="1:3">
@@ -25279,10 +25279,10 @@
         <v>44453</v>
       </c>
       <c r="B2261" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2261">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2262" spans="1:3">
@@ -25290,10 +25290,10 @@
         <v>44453</v>
       </c>
       <c r="B2262" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2262">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2263" spans="1:3">
@@ -25301,10 +25301,10 @@
         <v>44453</v>
       </c>
       <c r="B2263" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2263">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2264" spans="1:3">
@@ -25312,21 +25312,21 @@
         <v>44453</v>
       </c>
       <c r="B2264" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2264">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2265" spans="1:3">
       <c r="A2265" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B2265" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2265">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2266" spans="1:3">
@@ -25334,10 +25334,10 @@
         <v>44454</v>
       </c>
       <c r="B2266" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2266">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -25345,10 +25345,10 @@
         <v>44454</v>
       </c>
       <c r="B2267" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2267">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -25356,10 +25356,10 @@
         <v>44454</v>
       </c>
       <c r="B2268" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2268">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2269" spans="1:3">
@@ -25367,21 +25367,21 @@
         <v>44454</v>
       </c>
       <c r="B2269" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2269">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
       <c r="A2270" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B2270" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2270">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
@@ -25389,7 +25389,7 @@
         <v>44455</v>
       </c>
       <c r="B2271" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2271">
         <v>1</v>
@@ -25400,10 +25400,10 @@
         <v>44455</v>
       </c>
       <c r="B2272" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2272">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
@@ -25411,7 +25411,7 @@
         <v>44455</v>
       </c>
       <c r="B2273" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2273">
         <v>7</v>
@@ -25422,10 +25422,10 @@
         <v>44455</v>
       </c>
       <c r="B2274" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2274">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
@@ -25433,21 +25433,21 @@
         <v>44455</v>
       </c>
       <c r="B2275" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2275">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
       <c r="A2276" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B2276" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2276">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
@@ -25455,10 +25455,10 @@
         <v>44456</v>
       </c>
       <c r="B2277" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2277">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
@@ -25466,10 +25466,10 @@
         <v>44456</v>
       </c>
       <c r="B2278" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2278">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
@@ -25477,10 +25477,10 @@
         <v>44456</v>
       </c>
       <c r="B2279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2279">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
@@ -25488,21 +25488,21 @@
         <v>44456</v>
       </c>
       <c r="B2280" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2280">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
       <c r="A2281" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B2281" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2281">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
@@ -25510,10 +25510,10 @@
         <v>44457</v>
       </c>
       <c r="B2282" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2282">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
@@ -25521,10 +25521,10 @@
         <v>44457</v>
       </c>
       <c r="B2283" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2283">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
@@ -25532,10 +25532,10 @@
         <v>44457</v>
       </c>
       <c r="B2284" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2284">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
@@ -25543,10 +25543,10 @@
         <v>44457</v>
       </c>
       <c r="B2285" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2285">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
@@ -25554,7 +25554,7 @@
         <v>44457</v>
       </c>
       <c r="B2286" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2286">
         <v>7</v>
@@ -25562,13 +25562,13 @@
     </row>
     <row r="2287" spans="1:3">
       <c r="A2287" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B2287" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2287">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -25576,10 +25576,10 @@
         <v>44458</v>
       </c>
       <c r="B2288" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2288">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
@@ -25587,10 +25587,10 @@
         <v>44458</v>
       </c>
       <c r="B2289" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2289">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
@@ -25598,10 +25598,10 @@
         <v>44458</v>
       </c>
       <c r="B2290" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2290">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
@@ -25609,10 +25609,10 @@
         <v>44458</v>
       </c>
       <c r="B2291" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2291">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
@@ -25620,21 +25620,21 @@
         <v>44458</v>
       </c>
       <c r="B2292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2292">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
       <c r="A2293" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B2293" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2293">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
@@ -25642,10 +25642,10 @@
         <v>44459</v>
       </c>
       <c r="B2294" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2294">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
@@ -25653,10 +25653,10 @@
         <v>44459</v>
       </c>
       <c r="B2295" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2295">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
@@ -25664,10 +25664,10 @@
         <v>44459</v>
       </c>
       <c r="B2296" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2296">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
@@ -25675,10 +25675,10 @@
         <v>44459</v>
       </c>
       <c r="B2297" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2297">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
@@ -25686,21 +25686,21 @@
         <v>44459</v>
       </c>
       <c r="B2298" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2298">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
       <c r="A2299" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B2299" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2299">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
@@ -25708,10 +25708,10 @@
         <v>44460</v>
       </c>
       <c r="B2300" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2300">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
@@ -25719,10 +25719,10 @@
         <v>44460</v>
       </c>
       <c r="B2301" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2301">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
@@ -25730,10 +25730,10 @@
         <v>44460</v>
       </c>
       <c r="B2302" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2302">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
@@ -25741,7 +25741,7 @@
         <v>44460</v>
       </c>
       <c r="B2303" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2303">
         <v>10</v>
@@ -25752,7 +25752,7 @@
         <v>44460</v>
       </c>
       <c r="B2304" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2304">
         <v>10</v>
@@ -25760,13 +25760,13 @@
     </row>
     <row r="2305" spans="1:3">
       <c r="A2305" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B2305" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2305">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2306" spans="1:3">
@@ -25774,10 +25774,10 @@
         <v>44461</v>
       </c>
       <c r="B2306" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2306">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2307" spans="1:3">
@@ -25785,7 +25785,7 @@
         <v>44461</v>
       </c>
       <c r="B2307" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2307">
         <v>3</v>
@@ -25796,10 +25796,10 @@
         <v>44461</v>
       </c>
       <c r="B2308" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2308">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
@@ -25807,10 +25807,10 @@
         <v>44461</v>
       </c>
       <c r="B2309" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2309">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
@@ -25818,21 +25818,21 @@
         <v>44461</v>
       </c>
       <c r="B2310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2310">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2311" spans="1:3">
       <c r="A2311" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B2311" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2311">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
@@ -25840,10 +25840,10 @@
         <v>44462</v>
       </c>
       <c r="B2312" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2312">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
@@ -25851,10 +25851,10 @@
         <v>44462</v>
       </c>
       <c r="B2313" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2313">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
@@ -25862,10 +25862,10 @@
         <v>44462</v>
       </c>
       <c r="B2314" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2314">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -25873,10 +25873,10 @@
         <v>44462</v>
       </c>
       <c r="B2315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2315">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
@@ -25884,21 +25884,21 @@
         <v>44462</v>
       </c>
       <c r="B2316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2316">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
       <c r="A2317" s="2">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="B2317" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2317">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2318" spans="1:3">
@@ -25906,7 +25906,7 @@
         <v>44463</v>
       </c>
       <c r="B2318" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2318">
         <v>1</v>
@@ -25917,10 +25917,10 @@
         <v>44463</v>
       </c>
       <c r="B2319" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2319">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
@@ -25928,10 +25928,10 @@
         <v>44463</v>
       </c>
       <c r="B2320" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2320">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2321" spans="1:3">
@@ -25939,7 +25939,7 @@
         <v>44463</v>
       </c>
       <c r="B2321" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2321">
         <v>9</v>
@@ -25950,21 +25950,21 @@
         <v>44463</v>
       </c>
       <c r="B2322" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2322">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
       <c r="A2323" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B2323" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2323">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
@@ -25972,7 +25972,7 @@
         <v>44464</v>
       </c>
       <c r="B2324" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2324">
         <v>1</v>
@@ -25983,10 +25983,10 @@
         <v>44464</v>
       </c>
       <c r="B2325" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2325">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
@@ -25994,7 +25994,7 @@
         <v>44464</v>
       </c>
       <c r="B2326" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2326">
         <v>4</v>
@@ -26005,10 +26005,10 @@
         <v>44464</v>
       </c>
       <c r="B2327" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2327">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
@@ -26016,10 +26016,10 @@
         <v>44464</v>
       </c>
       <c r="B2328" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2328">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
@@ -26027,21 +26027,21 @@
         <v>44464</v>
       </c>
       <c r="B2329" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2329">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
       <c r="A2330" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B2330" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2330">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
@@ -26049,10 +26049,10 @@
         <v>44465</v>
       </c>
       <c r="B2331" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2331">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
@@ -26060,10 +26060,10 @@
         <v>44465</v>
       </c>
       <c r="B2332" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2332">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
@@ -26071,10 +26071,10 @@
         <v>44465</v>
       </c>
       <c r="B2333" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2333">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -26082,10 +26082,10 @@
         <v>44465</v>
       </c>
       <c r="B2334" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2334">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
@@ -26093,21 +26093,21 @@
         <v>44465</v>
       </c>
       <c r="B2335" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2335">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
       <c r="A2336" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B2336" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2336">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
@@ -26115,10 +26115,10 @@
         <v>44466</v>
       </c>
       <c r="B2337" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2337">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
@@ -26126,10 +26126,10 @@
         <v>44466</v>
       </c>
       <c r="B2338" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2338">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
@@ -26137,10 +26137,10 @@
         <v>44466</v>
       </c>
       <c r="B2339" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2339">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -26148,10 +26148,10 @@
         <v>44466</v>
       </c>
       <c r="B2340" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2340">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -26159,21 +26159,21 @@
         <v>44466</v>
       </c>
       <c r="B2341" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2341">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
       <c r="A2342" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B2342" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2342">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -26181,10 +26181,10 @@
         <v>44467</v>
       </c>
       <c r="B2343" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2343">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
@@ -26192,10 +26192,10 @@
         <v>44467</v>
       </c>
       <c r="B2344" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2344">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -26203,10 +26203,10 @@
         <v>44467</v>
       </c>
       <c r="B2345" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2345">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -26214,10 +26214,10 @@
         <v>44467</v>
       </c>
       <c r="B2346" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2346">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -26225,21 +26225,21 @@
         <v>44467</v>
       </c>
       <c r="B2347" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2347">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
       <c r="A2348" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B2348" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2348">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -26247,10 +26247,10 @@
         <v>44468</v>
       </c>
       <c r="B2349" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2349">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -26258,10 +26258,10 @@
         <v>44468</v>
       </c>
       <c r="B2350" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2350">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -26269,10 +26269,10 @@
         <v>44468</v>
       </c>
       <c r="B2351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2351">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -26280,10 +26280,10 @@
         <v>44468</v>
       </c>
       <c r="B2352" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2352">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -26291,10 +26291,10 @@
         <v>44468</v>
       </c>
       <c r="B2353" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2353">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -26302,21 +26302,21 @@
         <v>44468</v>
       </c>
       <c r="B2354" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2354">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
       <c r="A2355" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B2355" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2355">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
@@ -26324,10 +26324,10 @@
         <v>44469</v>
       </c>
       <c r="B2356" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2356">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
@@ -26335,10 +26335,10 @@
         <v>44469</v>
       </c>
       <c r="B2357" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2357">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -26346,10 +26346,10 @@
         <v>44469</v>
       </c>
       <c r="B2358" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2358">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
@@ -26357,21 +26357,21 @@
         <v>44469</v>
       </c>
       <c r="B2359" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2359">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
       <c r="A2360" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B2360" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2360">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -26379,10 +26379,10 @@
         <v>44470</v>
       </c>
       <c r="B2361" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2361">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -26390,10 +26390,10 @@
         <v>44470</v>
       </c>
       <c r="B2362" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2362">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
@@ -26401,10 +26401,10 @@
         <v>44470</v>
       </c>
       <c r="B2363" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2363">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
@@ -26412,21 +26412,21 @@
         <v>44470</v>
       </c>
       <c r="B2364" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2364">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
       <c r="A2365" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B2365" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2365">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -26434,10 +26434,10 @@
         <v>44471</v>
       </c>
       <c r="B2366" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2366">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -26445,10 +26445,10 @@
         <v>44471</v>
       </c>
       <c r="B2367" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2367">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -26456,10 +26456,10 @@
         <v>44471</v>
       </c>
       <c r="B2368" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2368">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
@@ -26467,21 +26467,21 @@
         <v>44471</v>
       </c>
       <c r="B2369" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2369">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
       <c r="A2370" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B2370" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2370">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
@@ -26489,10 +26489,10 @@
         <v>44472</v>
       </c>
       <c r="B2371" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2371">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
@@ -26500,10 +26500,10 @@
         <v>44472</v>
       </c>
       <c r="B2372" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2372">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
@@ -26511,10 +26511,10 @@
         <v>44472</v>
       </c>
       <c r="B2373" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2373">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
@@ -26522,21 +26522,21 @@
         <v>44472</v>
       </c>
       <c r="B2374" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2374">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
       <c r="A2375" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B2375" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2375">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
@@ -26544,7 +26544,7 @@
         <v>44473</v>
       </c>
       <c r="B2376" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2376">
         <v>1</v>
@@ -26555,10 +26555,10 @@
         <v>44473</v>
       </c>
       <c r="B2377" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2377">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -26566,10 +26566,10 @@
         <v>44473</v>
       </c>
       <c r="B2378" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2378">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -26577,10 +26577,10 @@
         <v>44473</v>
       </c>
       <c r="B2379" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2379">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
@@ -26588,21 +26588,21 @@
         <v>44473</v>
       </c>
       <c r="B2380" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2380">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
       <c r="A2381" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B2381" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2381">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
@@ -26610,10 +26610,10 @@
         <v>44474</v>
       </c>
       <c r="B2382" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2382">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
@@ -26621,10 +26621,10 @@
         <v>44474</v>
       </c>
       <c r="B2383" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2383">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
@@ -26632,10 +26632,10 @@
         <v>44474</v>
       </c>
       <c r="B2384" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2384">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
@@ -26643,10 +26643,10 @@
         <v>44474</v>
       </c>
       <c r="B2385" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2385">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
@@ -26654,21 +26654,21 @@
         <v>44474</v>
       </c>
       <c r="B2386" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2386">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
       <c r="A2387" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B2387" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2387">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
@@ -26676,10 +26676,10 @@
         <v>44475</v>
       </c>
       <c r="B2388" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -26687,10 +26687,10 @@
         <v>44475</v>
       </c>
       <c r="B2389" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2389">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -26698,10 +26698,10 @@
         <v>44475</v>
       </c>
       <c r="B2390" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2390">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -26709,10 +26709,10 @@
         <v>44475</v>
       </c>
       <c r="B2391" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2391">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -26720,10 +26720,10 @@
         <v>44475</v>
       </c>
       <c r="B2392" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2392">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -26731,21 +26731,21 @@
         <v>44475</v>
       </c>
       <c r="B2393" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2393">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
       <c r="A2394" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B2394" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2394">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -26753,10 +26753,10 @@
         <v>44476</v>
       </c>
       <c r="B2395" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2395">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -26764,10 +26764,10 @@
         <v>44476</v>
       </c>
       <c r="B2396" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2396">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -26775,10 +26775,10 @@
         <v>44476</v>
       </c>
       <c r="B2397" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2397">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -26786,10 +26786,10 @@
         <v>44476</v>
       </c>
       <c r="B2398" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2398">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
@@ -26797,21 +26797,21 @@
         <v>44476</v>
       </c>
       <c r="B2399" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2399">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
       <c r="A2400" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B2400" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2400">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -26819,10 +26819,10 @@
         <v>44477</v>
       </c>
       <c r="B2401" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2401">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -26830,10 +26830,10 @@
         <v>44477</v>
       </c>
       <c r="B2402" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2402">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -26841,10 +26841,10 @@
         <v>44477</v>
       </c>
       <c r="B2403" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2403">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
@@ -26852,21 +26852,21 @@
         <v>44477</v>
       </c>
       <c r="B2404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2404">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
       <c r="A2405" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B2405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2405">
         <v>6</v>
-      </c>
-      <c r="C2405">
-        <v>2</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -26874,10 +26874,10 @@
         <v>44478</v>
       </c>
       <c r="B2406" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2406">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -26885,10 +26885,10 @@
         <v>44478</v>
       </c>
       <c r="B2407" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2407">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
@@ -26896,7 +26896,7 @@
         <v>44478</v>
       </c>
       <c r="B2408" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2408">
         <v>6</v>
@@ -26907,32 +26907,32 @@
         <v>44478</v>
       </c>
       <c r="B2409" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2409">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
       <c r="A2410" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B2410" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2410">
         <v>6</v>
-      </c>
-      <c r="C2410">
-        <v>1</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
       <c r="A2411" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B2411" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2411">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
@@ -26940,7 +26940,7 @@
         <v>44479</v>
       </c>
       <c r="B2412" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2412">
         <v>1</v>
@@ -26951,10 +26951,10 @@
         <v>44479</v>
       </c>
       <c r="B2413" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2413">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
@@ -26962,10 +26962,10 @@
         <v>44479</v>
       </c>
       <c r="B2414" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2414">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
@@ -26973,32 +26973,32 @@
         <v>44479</v>
       </c>
       <c r="B2415" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2415">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
       <c r="A2416" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B2416" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2416">
         <v>9</v>
-      </c>
-      <c r="C2416">
-        <v>1</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
       <c r="A2417" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B2417" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2417">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
@@ -27006,10 +27006,10 @@
         <v>44480</v>
       </c>
       <c r="B2418" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2418">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -27017,10 +27017,10 @@
         <v>44480</v>
       </c>
       <c r="B2419" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2419">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -27028,10 +27028,10 @@
         <v>44480</v>
       </c>
       <c r="B2420" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2420">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -27039,32 +27039,32 @@
         <v>44480</v>
       </c>
       <c r="B2421" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2421">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
       <c r="A2422" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2422" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2422">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
       <c r="A2423" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2423" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2423">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
@@ -27072,10 +27072,10 @@
         <v>44481</v>
       </c>
       <c r="B2424" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2424">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
@@ -27083,10 +27083,10 @@
         <v>44481</v>
       </c>
       <c r="B2425" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2425">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -27094,10 +27094,10 @@
         <v>44481</v>
       </c>
       <c r="B2426" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2426">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -27105,32 +27105,32 @@
         <v>44481</v>
       </c>
       <c r="B2427" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2427">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
       <c r="A2428" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2428" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2428">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
       <c r="A2429" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2429" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2429">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -27138,10 +27138,10 @@
         <v>44482</v>
       </c>
       <c r="B2430" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2430">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
@@ -27149,10 +27149,10 @@
         <v>44482</v>
       </c>
       <c r="B2431" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2431">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -27160,32 +27160,32 @@
         <v>44482</v>
       </c>
       <c r="B2432" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2432">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
       <c r="A2433" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2433" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2433">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
       <c r="A2434" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2434" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2434">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -27193,10 +27193,10 @@
         <v>44483</v>
       </c>
       <c r="B2435" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2435">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
@@ -27204,10 +27204,10 @@
         <v>44483</v>
       </c>
       <c r="B2436" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2436">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -27215,32 +27215,32 @@
         <v>44483</v>
       </c>
       <c r="B2437" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2437">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
       <c r="A2438" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B2438" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2438">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
       <c r="A2439" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B2439" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2439">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -27248,10 +27248,10 @@
         <v>44484</v>
       </c>
       <c r="B2440" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2440">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
@@ -27259,10 +27259,10 @@
         <v>44484</v>
       </c>
       <c r="B2441" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2441">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27270,32 +27270,32 @@
         <v>44484</v>
       </c>
       <c r="B2442" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2442">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
       <c r="A2443" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2443" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2443">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
       <c r="A2444" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2444" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2444">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
@@ -27303,7 +27303,7 @@
         <v>44485</v>
       </c>
       <c r="B2445" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2445">
         <v>1</v>
@@ -27314,10 +27314,10 @@
         <v>44485</v>
       </c>
       <c r="B2446" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2446">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -27325,7 +27325,7 @@
         <v>44485</v>
       </c>
       <c r="B2447" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2447">
         <v>1</v>
@@ -27336,32 +27336,32 @@
         <v>44485</v>
       </c>
       <c r="B2448" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2448">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
       <c r="A2449" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2449" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2449">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
       <c r="A2450" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2450" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2450">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
@@ -27369,10 +27369,10 @@
         <v>44486</v>
       </c>
       <c r="B2451" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2451">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -27380,10 +27380,10 @@
         <v>44486</v>
       </c>
       <c r="B2452" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2452">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -27391,10 +27391,10 @@
         <v>44486</v>
       </c>
       <c r="B2453" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2453">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -27402,29 +27402,29 @@
         <v>44486</v>
       </c>
       <c r="B2454" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2454">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
       <c r="A2455" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2455" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2455">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
       <c r="A2456" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2456" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2456">
         <v>3</v>
@@ -27435,10 +27435,65 @@
         <v>44487</v>
       </c>
       <c r="B2457" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2457">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:3">
+      <c r="A2458" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B2458" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:3">
+      <c r="A2459" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2459">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:3">
+      <c r="A2460" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:3">
+      <c r="A2461" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:3">
+      <c r="A2462" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2462">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2462"/>
+  <dimension ref="A1:C2471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27361,7 +27361,7 @@
         <v>5</v>
       </c>
       <c r="C2450">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
@@ -27435,10 +27435,10 @@
         <v>44487</v>
       </c>
       <c r="B2457" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2457">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -27446,10 +27446,10 @@
         <v>44487</v>
       </c>
       <c r="B2458" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2458">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -27457,10 +27457,10 @@
         <v>44487</v>
       </c>
       <c r="B2459" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2459">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
@@ -27468,21 +27468,21 @@
         <v>44487</v>
       </c>
       <c r="B2460" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2460">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
       <c r="A2461" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B2461" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2461">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -27490,10 +27490,109 @@
         <v>44488</v>
       </c>
       <c r="B2462" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2462">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:3">
+      <c r="A2463" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:3">
+      <c r="A2464" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B2464" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:3">
+      <c r="A2465" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B2465" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2465">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:3">
+      <c r="A2466" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2466">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:3">
+      <c r="A2467" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:3">
+      <c r="A2468" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:3">
+      <c r="A2469" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:3">
+      <c r="A2470" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:3">
+      <c r="A2471" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2471">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2471"/>
+  <dimension ref="A1:C2476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27273,7 +27273,7 @@
         <v>3</v>
       </c>
       <c r="C2442">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -27460,7 +27460,7 @@
         <v>3</v>
       </c>
       <c r="C2459">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
@@ -27526,7 +27526,7 @@
         <v>3</v>
       </c>
       <c r="C2465">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
@@ -27542,13 +27542,13 @@
     </row>
     <row r="2467" spans="1:3">
       <c r="A2467" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B2467" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2467">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
@@ -27556,10 +27556,10 @@
         <v>44489</v>
       </c>
       <c r="B2468" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2468">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
@@ -27567,10 +27567,10 @@
         <v>44489</v>
       </c>
       <c r="B2469" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2469">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -27578,7 +27578,7 @@
         <v>44489</v>
       </c>
       <c r="B2470" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2470">
         <v>3</v>
@@ -27589,10 +27589,65 @@
         <v>44489</v>
       </c>
       <c r="B2471" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2471">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:3">
+      <c r="A2472" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2472">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:3">
+      <c r="A2473" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:3">
+      <c r="A2474" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:3">
+      <c r="A2475" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:3">
+      <c r="A2476" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2476">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2476"/>
+  <dimension ref="A1:C2481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22419,7 +22419,7 @@
         <v>44402</v>
       </c>
       <c r="B2001" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2001">
         <v>1</v>
@@ -22430,7 +22430,7 @@
         <v>44402</v>
       </c>
       <c r="B2002" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2002">
         <v>1</v>
@@ -22441,21 +22441,21 @@
         <v>44402</v>
       </c>
       <c r="B2003" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2003">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2004" spans="1:3">
       <c r="A2004" s="2">
-        <v>44403</v>
+        <v>44402</v>
       </c>
       <c r="B2004" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2004">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2005" spans="1:3">
@@ -22463,7 +22463,7 @@
         <v>44403</v>
       </c>
       <c r="B2005" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2005">
         <v>1</v>
@@ -22474,7 +22474,7 @@
         <v>44403</v>
       </c>
       <c r="B2006" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2006">
         <v>1</v>
@@ -22485,21 +22485,21 @@
         <v>44403</v>
       </c>
       <c r="B2007" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2007">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2008" spans="1:3">
       <c r="A2008" s="2">
-        <v>44404</v>
+        <v>44403</v>
       </c>
       <c r="B2008" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2008">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2009" spans="1:3">
@@ -22507,10 +22507,10 @@
         <v>44404</v>
       </c>
       <c r="B2009" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2009">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2010" spans="1:3">
@@ -22518,10 +22518,10 @@
         <v>44404</v>
       </c>
       <c r="B2010" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2010">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2011" spans="1:3">
@@ -22529,21 +22529,21 @@
         <v>44404</v>
       </c>
       <c r="B2011" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2011">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2012" spans="1:3">
       <c r="A2012" s="2">
-        <v>44405</v>
+        <v>44404</v>
       </c>
       <c r="B2012" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2012">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2013" spans="1:3">
@@ -22551,10 +22551,10 @@
         <v>44405</v>
       </c>
       <c r="B2013" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2013">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2014" spans="1:3">
@@ -22562,21 +22562,21 @@
         <v>44405</v>
       </c>
       <c r="B2014" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2014">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2015" spans="1:3">
       <c r="A2015" s="2">
-        <v>44406</v>
+        <v>44405</v>
       </c>
       <c r="B2015" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2015">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2016" spans="1:3">
@@ -22584,10 +22584,10 @@
         <v>44406</v>
       </c>
       <c r="B2016" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2016">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2017" spans="1:3">
@@ -22595,10 +22595,10 @@
         <v>44406</v>
       </c>
       <c r="B2017" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2017">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2018" spans="1:3">
@@ -22606,7 +22606,7 @@
         <v>44406</v>
       </c>
       <c r="B2018" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2018">
         <v>1</v>
@@ -22617,21 +22617,21 @@
         <v>44406</v>
       </c>
       <c r="B2019" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2019">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2020" spans="1:3">
       <c r="A2020" s="2">
-        <v>44407</v>
+        <v>44406</v>
       </c>
       <c r="B2020" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2020">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2021" spans="1:3">
@@ -22639,10 +22639,10 @@
         <v>44407</v>
       </c>
       <c r="B2021" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2021">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2022" spans="1:3">
@@ -22650,21 +22650,21 @@
         <v>44407</v>
       </c>
       <c r="B2022" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2022">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2023" spans="1:3">
       <c r="A2023" s="2">
-        <v>44408</v>
+        <v>44407</v>
       </c>
       <c r="B2023" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2023">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2024" spans="1:3">
@@ -22672,7 +22672,7 @@
         <v>44408</v>
       </c>
       <c r="B2024" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2024">
         <v>3</v>
@@ -22683,7 +22683,7 @@
         <v>44408</v>
       </c>
       <c r="B2025" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2025">
         <v>3</v>
@@ -22691,13 +22691,13 @@
     </row>
     <row r="2026" spans="1:3">
       <c r="A2026" s="2">
-        <v>44409</v>
+        <v>44408</v>
       </c>
       <c r="B2026" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2026">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2027" spans="1:3">
@@ -22705,7 +22705,7 @@
         <v>44409</v>
       </c>
       <c r="B2027" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2027">
         <v>1</v>
@@ -22716,10 +22716,10 @@
         <v>44409</v>
       </c>
       <c r="B2028" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2028">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2029" spans="1:3">
@@ -22727,7 +22727,7 @@
         <v>44409</v>
       </c>
       <c r="B2029" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2029">
         <v>2</v>
@@ -22738,10 +22738,10 @@
         <v>44409</v>
       </c>
       <c r="B2030" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2030">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2031" spans="1:3">
@@ -22749,21 +22749,21 @@
         <v>44409</v>
       </c>
       <c r="B2031" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2031">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2032" spans="1:3">
       <c r="A2032" s="2">
-        <v>44410</v>
+        <v>44409</v>
       </c>
       <c r="B2032" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2032">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2033" spans="1:3">
@@ -22771,10 +22771,10 @@
         <v>44410</v>
       </c>
       <c r="B2033" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2033">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2034" spans="1:3">
@@ -22782,10 +22782,10 @@
         <v>44410</v>
       </c>
       <c r="B2034" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2034">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2035" spans="1:3">
@@ -22793,10 +22793,10 @@
         <v>44410</v>
       </c>
       <c r="B2035" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2035">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2036" spans="1:3">
@@ -22804,21 +22804,21 @@
         <v>44410</v>
       </c>
       <c r="B2036" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2036">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2037" spans="1:3">
       <c r="A2037" s="2">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="B2037" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2037">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2038" spans="1:3">
@@ -22826,10 +22826,10 @@
         <v>44411</v>
       </c>
       <c r="B2038" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2038">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2039" spans="1:3">
@@ -22837,7 +22837,7 @@
         <v>44411</v>
       </c>
       <c r="B2039" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2039">
         <v>2</v>
@@ -22848,21 +22848,21 @@
         <v>44411</v>
       </c>
       <c r="B2040" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2040">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2041" spans="1:3">
       <c r="A2041" s="2">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="B2041" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2041">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2042" spans="1:3">
@@ -22870,7 +22870,7 @@
         <v>44412</v>
       </c>
       <c r="B2042" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2042">
         <v>1</v>
@@ -22881,21 +22881,21 @@
         <v>44412</v>
       </c>
       <c r="B2043" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2043">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2044" spans="1:3">
       <c r="A2044" s="2">
-        <v>44413</v>
+        <v>44412</v>
       </c>
       <c r="B2044" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2044">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2045" spans="1:3">
@@ -22903,10 +22903,10 @@
         <v>44413</v>
       </c>
       <c r="B2045" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2045">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2046" spans="1:3">
@@ -22914,10 +22914,10 @@
         <v>44413</v>
       </c>
       <c r="B2046" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2046">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2047" spans="1:3">
@@ -22925,7 +22925,7 @@
         <v>44413</v>
       </c>
       <c r="B2047" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2047">
         <v>1</v>
@@ -22936,21 +22936,21 @@
         <v>44413</v>
       </c>
       <c r="B2048" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2048">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2049" spans="1:3">
       <c r="A2049" s="2">
-        <v>44414</v>
+        <v>44413</v>
       </c>
       <c r="B2049" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2049">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2050" spans="1:3">
@@ -22958,10 +22958,10 @@
         <v>44414</v>
       </c>
       <c r="B2050" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2050">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2051" spans="1:3">
@@ -22969,10 +22969,10 @@
         <v>44414</v>
       </c>
       <c r="B2051" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2051">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2052" spans="1:3">
@@ -22980,7 +22980,7 @@
         <v>44414</v>
       </c>
       <c r="B2052" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2052">
         <v>4</v>
@@ -22988,13 +22988,13 @@
     </row>
     <row r="2053" spans="1:3">
       <c r="A2053" s="2">
-        <v>44415</v>
+        <v>44414</v>
       </c>
       <c r="B2053" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2053">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2054" spans="1:3">
@@ -23002,10 +23002,10 @@
         <v>44415</v>
       </c>
       <c r="B2054" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2054">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2055" spans="1:3">
@@ -23013,21 +23013,21 @@
         <v>44415</v>
       </c>
       <c r="B2055" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2055">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2056" spans="1:3">
       <c r="A2056" s="2">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="B2056" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2056">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2057" spans="1:3">
@@ -23035,7 +23035,7 @@
         <v>44416</v>
       </c>
       <c r="B2057" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2057">
         <v>1</v>
@@ -23046,10 +23046,10 @@
         <v>44416</v>
       </c>
       <c r="B2058" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2058">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2059" spans="1:3">
@@ -23057,10 +23057,10 @@
         <v>44416</v>
       </c>
       <c r="B2059" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2059">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
@@ -23068,10 +23068,10 @@
         <v>44416</v>
       </c>
       <c r="B2060" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2060">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2061" spans="1:3">
@@ -23079,10 +23079,10 @@
         <v>44416</v>
       </c>
       <c r="B2061" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2061">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
@@ -23090,18 +23090,18 @@
         <v>44416</v>
       </c>
       <c r="B2062" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2062">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2063" spans="1:3">
       <c r="A2063" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B2063" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2063">
         <v>2</v>
@@ -23112,10 +23112,10 @@
         <v>44417</v>
       </c>
       <c r="B2064" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2064">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2065" spans="1:3">
@@ -23123,10 +23123,10 @@
         <v>44417</v>
       </c>
       <c r="B2065" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2065">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2066" spans="1:3">
@@ -23134,21 +23134,21 @@
         <v>44417</v>
       </c>
       <c r="B2066" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2066">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2067" spans="1:3">
       <c r="A2067" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B2067" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2067">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
@@ -23156,10 +23156,10 @@
         <v>44418</v>
       </c>
       <c r="B2068" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2068">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2069" spans="1:3">
@@ -23167,10 +23167,10 @@
         <v>44418</v>
       </c>
       <c r="B2069" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2069">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2070" spans="1:3">
@@ -23178,10 +23178,10 @@
         <v>44418</v>
       </c>
       <c r="B2070" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2070">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2071" spans="1:3">
@@ -23189,21 +23189,21 @@
         <v>44418</v>
       </c>
       <c r="B2071" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2071">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2072" spans="1:3">
       <c r="A2072" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B2072" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2072">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2073" spans="1:3">
@@ -23211,7 +23211,7 @@
         <v>44419</v>
       </c>
       <c r="B2073" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2073">
         <v>2</v>
@@ -23222,10 +23222,10 @@
         <v>44419</v>
       </c>
       <c r="B2074" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2074">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2075" spans="1:3">
@@ -23233,18 +23233,18 @@
         <v>44419</v>
       </c>
       <c r="B2075" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2075">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
       <c r="A2076" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B2076" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2076">
         <v>3</v>
@@ -23255,10 +23255,10 @@
         <v>44420</v>
       </c>
       <c r="B2077" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2077">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2078" spans="1:3">
@@ -23266,10 +23266,10 @@
         <v>44420</v>
       </c>
       <c r="B2078" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2078">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
@@ -23277,7 +23277,7 @@
         <v>44420</v>
       </c>
       <c r="B2079" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2079">
         <v>3</v>
@@ -23285,13 +23285,13 @@
     </row>
     <row r="2080" spans="1:3">
       <c r="A2080" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B2080" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2080">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2081" spans="1:3">
@@ -23299,7 +23299,7 @@
         <v>44421</v>
       </c>
       <c r="B2081" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2081">
         <v>1</v>
@@ -23310,10 +23310,10 @@
         <v>44421</v>
       </c>
       <c r="B2082" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2082">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2083" spans="1:3">
@@ -23321,10 +23321,10 @@
         <v>44421</v>
       </c>
       <c r="B2083" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2083">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2084" spans="1:3">
@@ -23332,21 +23332,21 @@
         <v>44421</v>
       </c>
       <c r="B2084" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2084">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
       <c r="A2085" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="B2085" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2085">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2086" spans="1:3">
@@ -23354,10 +23354,10 @@
         <v>44422</v>
       </c>
       <c r="B2086" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2086">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2087" spans="1:3">
@@ -23365,10 +23365,10 @@
         <v>44422</v>
       </c>
       <c r="B2087" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2087">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2088" spans="1:3">
@@ -23376,21 +23376,21 @@
         <v>44422</v>
       </c>
       <c r="B2088" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2088">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
       <c r="A2089" s="2">
-        <v>44423</v>
+        <v>44422</v>
       </c>
       <c r="B2089" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2089">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2090" spans="1:3">
@@ -23398,7 +23398,7 @@
         <v>44423</v>
       </c>
       <c r="B2090" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2090">
         <v>1</v>
@@ -23409,10 +23409,10 @@
         <v>44423</v>
       </c>
       <c r="B2091" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2091">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2092" spans="1:3">
@@ -23420,10 +23420,10 @@
         <v>44423</v>
       </c>
       <c r="B2092" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2092">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2093" spans="1:3">
@@ -23431,10 +23431,10 @@
         <v>44423</v>
       </c>
       <c r="B2093" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2093">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2094" spans="1:3">
@@ -23442,21 +23442,21 @@
         <v>44423</v>
       </c>
       <c r="B2094" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2094">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2095" spans="1:3">
       <c r="A2095" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B2095" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2095">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2096" spans="1:3">
@@ -23464,10 +23464,10 @@
         <v>44424</v>
       </c>
       <c r="B2096" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2096">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2097" spans="1:3">
@@ -23475,10 +23475,10 @@
         <v>44424</v>
       </c>
       <c r="B2097" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2097">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2098" spans="1:3">
@@ -23486,10 +23486,10 @@
         <v>44424</v>
       </c>
       <c r="B2098" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2098">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2099" spans="1:3">
@@ -23497,10 +23497,10 @@
         <v>44424</v>
       </c>
       <c r="B2099" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2099">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2100" spans="1:3">
@@ -23508,21 +23508,21 @@
         <v>44424</v>
       </c>
       <c r="B2100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2100">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2101" spans="1:3">
       <c r="A2101" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B2101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2101">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2102" spans="1:3">
@@ -23530,10 +23530,10 @@
         <v>44425</v>
       </c>
       <c r="B2102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2103" spans="1:3">
@@ -23541,10 +23541,10 @@
         <v>44425</v>
       </c>
       <c r="B2103" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2103">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2104" spans="1:3">
@@ -23552,10 +23552,10 @@
         <v>44425</v>
       </c>
       <c r="B2104" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2104">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2105" spans="1:3">
@@ -23563,21 +23563,21 @@
         <v>44425</v>
       </c>
       <c r="B2105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2105">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2106" spans="1:3">
       <c r="A2106" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B2106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2107" spans="1:3">
@@ -23585,7 +23585,7 @@
         <v>44426</v>
       </c>
       <c r="B2107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2107">
         <v>1</v>
@@ -23596,10 +23596,10 @@
         <v>44426</v>
       </c>
       <c r="B2108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2109" spans="1:3">
@@ -23607,10 +23607,10 @@
         <v>44426</v>
       </c>
       <c r="B2109" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2109">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2110" spans="1:3">
@@ -23618,10 +23618,10 @@
         <v>44426</v>
       </c>
       <c r="B2110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2111" spans="1:3">
@@ -23629,21 +23629,21 @@
         <v>44426</v>
       </c>
       <c r="B2111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2111">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2112" spans="1:3">
       <c r="A2112" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B2112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2112">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2113" spans="1:3">
@@ -23651,10 +23651,10 @@
         <v>44427</v>
       </c>
       <c r="B2113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2113">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
@@ -23662,10 +23662,10 @@
         <v>44427</v>
       </c>
       <c r="B2114" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2115" spans="1:3">
@@ -23673,10 +23673,10 @@
         <v>44427</v>
       </c>
       <c r="B2115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2115">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2116" spans="1:3">
@@ -23684,21 +23684,21 @@
         <v>44427</v>
       </c>
       <c r="B2116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2116">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2117" spans="1:3">
       <c r="A2117" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B2117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2117">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2118" spans="1:3">
@@ -23706,10 +23706,10 @@
         <v>44428</v>
       </c>
       <c r="B2118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2119" spans="1:3">
@@ -23717,10 +23717,10 @@
         <v>44428</v>
       </c>
       <c r="B2119" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2119">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2120" spans="1:3">
@@ -23728,10 +23728,10 @@
         <v>44428</v>
       </c>
       <c r="B2120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2120">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2121" spans="1:3">
@@ -23739,21 +23739,21 @@
         <v>44428</v>
       </c>
       <c r="B2121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2121">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2122" spans="1:3">
       <c r="A2122" s="2">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B2122" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2122">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2123" spans="1:3">
@@ -23761,7 +23761,7 @@
         <v>44429</v>
       </c>
       <c r="B2123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2123">
         <v>1</v>
@@ -23772,10 +23772,10 @@
         <v>44429</v>
       </c>
       <c r="B2124" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2125" spans="1:3">
@@ -23783,7 +23783,7 @@
         <v>44429</v>
       </c>
       <c r="B2125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2125">
         <v>2</v>
@@ -23794,7 +23794,7 @@
         <v>44429</v>
       </c>
       <c r="B2126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2126">
         <v>2</v>
@@ -23805,10 +23805,10 @@
         <v>44429</v>
       </c>
       <c r="B2127" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2127">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2128" spans="1:3">
@@ -23816,10 +23816,10 @@
         <v>44429</v>
       </c>
       <c r="B2128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2128">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2129" spans="1:3">
@@ -23827,21 +23827,21 @@
         <v>44429</v>
       </c>
       <c r="B2129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2129">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2130" spans="1:3">
       <c r="A2130" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B2130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2130">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2131" spans="1:3">
@@ -23849,10 +23849,10 @@
         <v>44430</v>
       </c>
       <c r="B2131" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2131">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2132" spans="1:3">
@@ -23860,10 +23860,10 @@
         <v>44430</v>
       </c>
       <c r="B2132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2132">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2133" spans="1:3">
@@ -23871,21 +23871,21 @@
         <v>44430</v>
       </c>
       <c r="B2133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2133">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2134" spans="1:3">
       <c r="A2134" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B2134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2134">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2135" spans="1:3">
@@ -23893,10 +23893,10 @@
         <v>44431</v>
       </c>
       <c r="B2135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
@@ -23904,10 +23904,10 @@
         <v>44431</v>
       </c>
       <c r="B2136" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2136">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2137" spans="1:3">
@@ -23915,10 +23915,10 @@
         <v>44431</v>
       </c>
       <c r="B2137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2137">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2138" spans="1:3">
@@ -23926,21 +23926,21 @@
         <v>44431</v>
       </c>
       <c r="B2138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2138">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2139" spans="1:3">
       <c r="A2139" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B2139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2139">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2140" spans="1:3">
@@ -23948,7 +23948,7 @@
         <v>44432</v>
       </c>
       <c r="B2140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2140">
         <v>2</v>
@@ -23959,10 +23959,10 @@
         <v>44432</v>
       </c>
       <c r="B2141" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2141">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2142" spans="1:3">
@@ -23970,7 +23970,7 @@
         <v>44432</v>
       </c>
       <c r="B2142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2142">
         <v>5</v>
@@ -23981,21 +23981,21 @@
         <v>44432</v>
       </c>
       <c r="B2143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2143">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2144" spans="1:3">
       <c r="A2144" s="2">
-        <v>44433</v>
+        <v>44432</v>
       </c>
       <c r="B2144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2145" spans="1:3">
@@ -24003,10 +24003,10 @@
         <v>44433</v>
       </c>
       <c r="B2145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2146" spans="1:3">
@@ -24014,10 +24014,10 @@
         <v>44433</v>
       </c>
       <c r="B2146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2147" spans="1:3">
@@ -24025,10 +24025,10 @@
         <v>44433</v>
       </c>
       <c r="B2147" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2147">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2148" spans="1:3">
@@ -24036,10 +24036,10 @@
         <v>44433</v>
       </c>
       <c r="B2148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2148">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2149" spans="1:3">
@@ -24047,21 +24047,21 @@
         <v>44433</v>
       </c>
       <c r="B2149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2149">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2150" spans="1:3">
       <c r="A2150" s="2">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B2150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2150">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2151" spans="1:3">
@@ -24069,10 +24069,10 @@
         <v>44434</v>
       </c>
       <c r="B2151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2151">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2152" spans="1:3">
@@ -24080,10 +24080,10 @@
         <v>44434</v>
       </c>
       <c r="B2152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2152">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2153" spans="1:3">
@@ -24091,10 +24091,10 @@
         <v>44434</v>
       </c>
       <c r="B2153" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2153">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
@@ -24102,10 +24102,10 @@
         <v>44434</v>
       </c>
       <c r="B2154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2154">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2155" spans="1:3">
@@ -24113,7 +24113,7 @@
         <v>44434</v>
       </c>
       <c r="B2155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2155">
         <v>7</v>
@@ -24121,13 +24121,13 @@
     </row>
     <row r="2156" spans="1:3">
       <c r="A2156" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B2156" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2156">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2157" spans="1:3">
@@ -24135,10 +24135,10 @@
         <v>44435</v>
       </c>
       <c r="B2157" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2158" spans="1:3">
@@ -24146,7 +24146,7 @@
         <v>44435</v>
       </c>
       <c r="B2158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2158">
         <v>2</v>
@@ -24157,10 +24157,10 @@
         <v>44435</v>
       </c>
       <c r="B2159" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2159">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2160" spans="1:3">
@@ -24168,10 +24168,10 @@
         <v>44435</v>
       </c>
       <c r="B2160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2160">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
@@ -24179,21 +24179,21 @@
         <v>44435</v>
       </c>
       <c r="B2161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2161">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2162" spans="1:3">
       <c r="A2162" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B2162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2162">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
@@ -24201,7 +24201,7 @@
         <v>44436</v>
       </c>
       <c r="B2163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2163">
         <v>1</v>
@@ -24212,10 +24212,10 @@
         <v>44436</v>
       </c>
       <c r="B2164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2164">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2165" spans="1:3">
@@ -24223,7 +24223,7 @@
         <v>44436</v>
       </c>
       <c r="B2165" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2165">
         <v>4</v>
@@ -24234,10 +24234,10 @@
         <v>44436</v>
       </c>
       <c r="B2166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2166">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2167" spans="1:3">
@@ -24245,21 +24245,21 @@
         <v>44436</v>
       </c>
       <c r="B2167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2167">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2168" spans="1:3">
       <c r="A2168" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B2168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2168">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2169" spans="1:3">
@@ -24267,10 +24267,10 @@
         <v>44437</v>
       </c>
       <c r="B2169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2170" spans="1:3">
@@ -24278,10 +24278,10 @@
         <v>44437</v>
       </c>
       <c r="B2170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2171" spans="1:3">
@@ -24289,10 +24289,10 @@
         <v>44437</v>
       </c>
       <c r="B2171" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2171">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2172" spans="1:3">
@@ -24300,10 +24300,10 @@
         <v>44437</v>
       </c>
       <c r="B2172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2172">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2173" spans="1:3">
@@ -24311,21 +24311,21 @@
         <v>44437</v>
       </c>
       <c r="B2173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2173">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2174" spans="1:3">
       <c r="A2174" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B2174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2174">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2175" spans="1:3">
@@ -24333,10 +24333,10 @@
         <v>44438</v>
       </c>
       <c r="B2175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2175">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
@@ -24344,10 +24344,10 @@
         <v>44438</v>
       </c>
       <c r="B2176" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2176">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2177" spans="1:3">
@@ -24355,10 +24355,10 @@
         <v>44438</v>
       </c>
       <c r="B2177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2177">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
@@ -24366,21 +24366,21 @@
         <v>44438</v>
       </c>
       <c r="B2178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2178">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2179" spans="1:3">
       <c r="A2179" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B2179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2179">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
@@ -24388,7 +24388,7 @@
         <v>44439</v>
       </c>
       <c r="B2180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2180">
         <v>2</v>
@@ -24399,10 +24399,10 @@
         <v>44439</v>
       </c>
       <c r="B2181" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2181">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2182" spans="1:3">
@@ -24410,7 +24410,7 @@
         <v>44439</v>
       </c>
       <c r="B2182" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2182">
         <v>6</v>
@@ -24421,21 +24421,21 @@
         <v>44439</v>
       </c>
       <c r="B2183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2183">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2184" spans="1:3">
       <c r="A2184" s="2">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="B2184" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2184">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
@@ -24443,10 +24443,10 @@
         <v>44440</v>
       </c>
       <c r="B2185" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2185">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2186" spans="1:3">
@@ -24454,7 +24454,7 @@
         <v>44440</v>
       </c>
       <c r="B2186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2186">
         <v>3</v>
@@ -24465,10 +24465,10 @@
         <v>44440</v>
       </c>
       <c r="B2187" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2187">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
@@ -24476,10 +24476,10 @@
         <v>44440</v>
       </c>
       <c r="B2188" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2188">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -24487,21 +24487,21 @@
         <v>44440</v>
       </c>
       <c r="B2189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2189">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2190" spans="1:3">
       <c r="A2190" s="2">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B2190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2190">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2191" spans="1:3">
@@ -24509,10 +24509,10 @@
         <v>44441</v>
       </c>
       <c r="B2191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2191">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2192" spans="1:3">
@@ -24520,7 +24520,7 @@
         <v>44441</v>
       </c>
       <c r="B2192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2192">
         <v>4</v>
@@ -24531,10 +24531,10 @@
         <v>44441</v>
       </c>
       <c r="B2193" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2193">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2194" spans="1:3">
@@ -24542,10 +24542,10 @@
         <v>44441</v>
       </c>
       <c r="B2194" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2194">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2195" spans="1:3">
@@ -24553,21 +24553,21 @@
         <v>44441</v>
       </c>
       <c r="B2195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2195">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2196" spans="1:3">
       <c r="A2196" s="2">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="B2196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2196">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2197" spans="1:3">
@@ -24575,10 +24575,10 @@
         <v>44442</v>
       </c>
       <c r="B2197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2198" spans="1:3">
@@ -24586,10 +24586,10 @@
         <v>44442</v>
       </c>
       <c r="B2198" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2198">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2199" spans="1:3">
@@ -24597,10 +24597,10 @@
         <v>44442</v>
       </c>
       <c r="B2199" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2199">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2200" spans="1:3">
@@ -24608,21 +24608,21 @@
         <v>44442</v>
       </c>
       <c r="B2200" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2200">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2201" spans="1:3">
       <c r="A2201" s="2">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="B2201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2201">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2202" spans="1:3">
@@ -24630,10 +24630,10 @@
         <v>44443</v>
       </c>
       <c r="B2202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2202">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2203" spans="1:3">
@@ -24641,10 +24641,10 @@
         <v>44443</v>
       </c>
       <c r="B2203" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2203">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2204" spans="1:3">
@@ -24652,10 +24652,10 @@
         <v>44443</v>
       </c>
       <c r="B2204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2204">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2205" spans="1:3">
@@ -24663,21 +24663,21 @@
         <v>44443</v>
       </c>
       <c r="B2205" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2205">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
       <c r="A2206" s="2">
-        <v>44444</v>
+        <v>44443</v>
       </c>
       <c r="B2206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2206">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2207" spans="1:3">
@@ -24685,10 +24685,10 @@
         <v>44444</v>
       </c>
       <c r="B2207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2207">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2208" spans="1:3">
@@ -24696,7 +24696,7 @@
         <v>44444</v>
       </c>
       <c r="B2208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2208">
         <v>3</v>
@@ -24707,10 +24707,10 @@
         <v>44444</v>
       </c>
       <c r="B2209" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2209">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2210" spans="1:3">
@@ -24718,10 +24718,10 @@
         <v>44444</v>
       </c>
       <c r="B2210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2210">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2211" spans="1:3">
@@ -24729,21 +24729,21 @@
         <v>44444</v>
       </c>
       <c r="B2211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2211">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2212" spans="1:3">
       <c r="A2212" s="2">
-        <v>44445</v>
+        <v>44444</v>
       </c>
       <c r="B2212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2212">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2213" spans="1:3">
@@ -24751,10 +24751,10 @@
         <v>44445</v>
       </c>
       <c r="B2213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2213">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2214" spans="1:3">
@@ -24762,10 +24762,10 @@
         <v>44445</v>
       </c>
       <c r="B2214" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2214">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2215" spans="1:3">
@@ -24773,10 +24773,10 @@
         <v>44445</v>
       </c>
       <c r="B2215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2215">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2216" spans="1:3">
@@ -24784,21 +24784,21 @@
         <v>44445</v>
       </c>
       <c r="B2216" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2216">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2217" spans="1:3">
       <c r="A2217" s="2">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B2217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2217">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2218" spans="1:3">
@@ -24806,10 +24806,10 @@
         <v>44446</v>
       </c>
       <c r="B2218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2218">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2219" spans="1:3">
@@ -24817,10 +24817,10 @@
         <v>44446</v>
       </c>
       <c r="B2219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2219">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2220" spans="1:3">
@@ -24828,7 +24828,7 @@
         <v>44446</v>
       </c>
       <c r="B2220" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2220">
         <v>9</v>
@@ -24839,10 +24839,10 @@
         <v>44446</v>
       </c>
       <c r="B2221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2221">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2222" spans="1:3">
@@ -24850,21 +24850,21 @@
         <v>44446</v>
       </c>
       <c r="B2222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2222">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2223" spans="1:3">
       <c r="A2223" s="2">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B2223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2223">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2224" spans="1:3">
@@ -24872,10 +24872,10 @@
         <v>44447</v>
       </c>
       <c r="B2224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2224">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2225" spans="1:3">
@@ -24883,10 +24883,10 @@
         <v>44447</v>
       </c>
       <c r="B2225" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2225">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2226" spans="1:3">
@@ -24894,7 +24894,7 @@
         <v>44447</v>
       </c>
       <c r="B2226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2226">
         <v>9</v>
@@ -24905,21 +24905,21 @@
         <v>44447</v>
       </c>
       <c r="B2227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2227">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2228" spans="1:3">
       <c r="A2228" s="2">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B2228" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2228">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2229" spans="1:3">
@@ -24927,10 +24927,10 @@
         <v>44448</v>
       </c>
       <c r="B2229" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2229">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2230" spans="1:3">
@@ -24938,10 +24938,10 @@
         <v>44448</v>
       </c>
       <c r="B2230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2230">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2231" spans="1:3">
@@ -24949,10 +24949,10 @@
         <v>44448</v>
       </c>
       <c r="B2231" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2231">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
@@ -24960,10 +24960,10 @@
         <v>44448</v>
       </c>
       <c r="B2232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2232">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2233" spans="1:3">
@@ -24971,21 +24971,21 @@
         <v>44448</v>
       </c>
       <c r="B2233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2233">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
       <c r="A2234" s="2">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B2234" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2234">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2235" spans="1:3">
@@ -24993,7 +24993,7 @@
         <v>44449</v>
       </c>
       <c r="B2235" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2235">
         <v>1</v>
@@ -25004,10 +25004,10 @@
         <v>44449</v>
       </c>
       <c r="B2236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2237" spans="1:3">
@@ -25015,10 +25015,10 @@
         <v>44449</v>
       </c>
       <c r="B2237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2237">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2238" spans="1:3">
@@ -25026,10 +25026,10 @@
         <v>44449</v>
       </c>
       <c r="B2238" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2238">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2239" spans="1:3">
@@ -25037,10 +25037,10 @@
         <v>44449</v>
       </c>
       <c r="B2239" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2239">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2240" spans="1:3">
@@ -25048,7 +25048,7 @@
         <v>44449</v>
       </c>
       <c r="B2240" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2240">
         <v>14</v>
@@ -25056,13 +25056,13 @@
     </row>
     <row r="2241" spans="1:3">
       <c r="A2241" s="2">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="B2241" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2241">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2242" spans="1:3">
@@ -25070,10 +25070,10 @@
         <v>44450</v>
       </c>
       <c r="B2242" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2242">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2243" spans="1:3">
@@ -25081,10 +25081,10 @@
         <v>44450</v>
       </c>
       <c r="B2243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2243">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2244" spans="1:3">
@@ -25092,10 +25092,10 @@
         <v>44450</v>
       </c>
       <c r="B2244" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2244">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2245" spans="1:3">
@@ -25103,10 +25103,10 @@
         <v>44450</v>
       </c>
       <c r="B2245" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2245">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2246" spans="1:3">
@@ -25114,7 +25114,7 @@
         <v>44450</v>
       </c>
       <c r="B2246" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2246">
         <v>10</v>
@@ -25122,13 +25122,13 @@
     </row>
     <row r="2247" spans="1:3">
       <c r="A2247" s="2">
-        <v>44451</v>
+        <v>44450</v>
       </c>
       <c r="B2247" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2247">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2248" spans="1:3">
@@ -25136,10 +25136,10 @@
         <v>44451</v>
       </c>
       <c r="B2248" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2248">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2249" spans="1:3">
@@ -25147,10 +25147,10 @@
         <v>44451</v>
       </c>
       <c r="B2249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2249">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2250" spans="1:3">
@@ -25158,10 +25158,10 @@
         <v>44451</v>
       </c>
       <c r="B2250" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2250">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2251" spans="1:3">
@@ -25169,10 +25169,10 @@
         <v>44451</v>
       </c>
       <c r="B2251" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2251">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2252" spans="1:3">
@@ -25180,21 +25180,21 @@
         <v>44451</v>
       </c>
       <c r="B2252" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2252">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2253" spans="1:3">
       <c r="A2253" s="2">
-        <v>44452</v>
+        <v>44451</v>
       </c>
       <c r="B2253" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2253">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2254" spans="1:3">
@@ -25202,7 +25202,7 @@
         <v>44452</v>
       </c>
       <c r="B2254" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2254">
         <v>1</v>
@@ -25213,7 +25213,7 @@
         <v>44452</v>
       </c>
       <c r="B2255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2255">
         <v>1</v>
@@ -25224,10 +25224,10 @@
         <v>44452</v>
       </c>
       <c r="B2256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2256">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2257" spans="1:3">
@@ -25235,10 +25235,10 @@
         <v>44452</v>
       </c>
       <c r="B2257" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2257">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2258" spans="1:3">
@@ -25246,10 +25246,10 @@
         <v>44452</v>
       </c>
       <c r="B2258" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2258">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2259" spans="1:3">
@@ -25257,21 +25257,21 @@
         <v>44452</v>
       </c>
       <c r="B2259" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2259">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2260" spans="1:3">
       <c r="A2260" s="2">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B2260" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2260">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2261" spans="1:3">
@@ -25279,10 +25279,10 @@
         <v>44453</v>
       </c>
       <c r="B2261" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2262" spans="1:3">
@@ -25290,10 +25290,10 @@
         <v>44453</v>
       </c>
       <c r="B2262" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2262">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2263" spans="1:3">
@@ -25301,10 +25301,10 @@
         <v>44453</v>
       </c>
       <c r="B2263" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2263">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2264" spans="1:3">
@@ -25312,10 +25312,10 @@
         <v>44453</v>
       </c>
       <c r="B2264" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2264">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2265" spans="1:3">
@@ -25323,21 +25323,21 @@
         <v>44453</v>
       </c>
       <c r="B2265" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2265">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2266" spans="1:3">
       <c r="A2266" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B2266" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2266">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -25345,10 +25345,10 @@
         <v>44454</v>
       </c>
       <c r="B2267" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2267">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -25356,7 +25356,7 @@
         <v>44454</v>
       </c>
       <c r="B2268" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2268">
         <v>8</v>
@@ -25367,10 +25367,10 @@
         <v>44454</v>
       </c>
       <c r="B2269" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2269">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
@@ -25378,32 +25378,32 @@
         <v>44454</v>
       </c>
       <c r="B2270" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2270">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
       <c r="A2271" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B2271" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2271">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
       <c r="A2272" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B2272" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2272">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
@@ -25411,10 +25411,10 @@
         <v>44455</v>
       </c>
       <c r="B2273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2273">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
@@ -25422,10 +25422,10 @@
         <v>44455</v>
       </c>
       <c r="B2274" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2274">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
@@ -25433,10 +25433,10 @@
         <v>44455</v>
       </c>
       <c r="B2275" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2275">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
@@ -25444,32 +25444,32 @@
         <v>44455</v>
       </c>
       <c r="B2276" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2276">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
       <c r="A2277" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B2277" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2277">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
       <c r="A2278" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B2278" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2278">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
@@ -25477,10 +25477,10 @@
         <v>44456</v>
       </c>
       <c r="B2279" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2279">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
@@ -25488,7 +25488,7 @@
         <v>44456</v>
       </c>
       <c r="B2280" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2280">
         <v>9</v>
@@ -25499,32 +25499,32 @@
         <v>44456</v>
       </c>
       <c r="B2281" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2281">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
       <c r="A2282" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B2282" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2282">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
       <c r="A2283" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B2283" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2283">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
@@ -25532,10 +25532,10 @@
         <v>44457</v>
       </c>
       <c r="B2284" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2284">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
@@ -25543,10 +25543,10 @@
         <v>44457</v>
       </c>
       <c r="B2285" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2285">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
@@ -25554,10 +25554,10 @@
         <v>44457</v>
       </c>
       <c r="B2286" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2286">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -25565,32 +25565,32 @@
         <v>44457</v>
       </c>
       <c r="B2287" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2287">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
       <c r="A2288" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B2288" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2288">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
       <c r="A2289" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B2289" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2289">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
@@ -25598,10 +25598,10 @@
         <v>44458</v>
       </c>
       <c r="B2290" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2290">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
@@ -25609,10 +25609,10 @@
         <v>44458</v>
       </c>
       <c r="B2291" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2291">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
@@ -25620,10 +25620,10 @@
         <v>44458</v>
       </c>
       <c r="B2292" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2292">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
@@ -25631,32 +25631,32 @@
         <v>44458</v>
       </c>
       <c r="B2293" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2293">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
       <c r="A2294" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B2294" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2294">
         <v>6</v>
-      </c>
-      <c r="C2294">
-        <v>1</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
       <c r="A2295" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B2295" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2295">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
@@ -25664,10 +25664,10 @@
         <v>44459</v>
       </c>
       <c r="B2296" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2296">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
@@ -25675,10 +25675,10 @@
         <v>44459</v>
       </c>
       <c r="B2297" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2297">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
@@ -25686,7 +25686,7 @@
         <v>44459</v>
       </c>
       <c r="B2298" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2298">
         <v>7</v>
@@ -25697,32 +25697,32 @@
         <v>44459</v>
       </c>
       <c r="B2299" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2299">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
       <c r="A2300" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B2300" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2300">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
       <c r="A2301" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B2301" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2301">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
@@ -25730,10 +25730,10 @@
         <v>44460</v>
       </c>
       <c r="B2302" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2302">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
@@ -25741,10 +25741,10 @@
         <v>44460</v>
       </c>
       <c r="B2303" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2303">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
@@ -25752,10 +25752,10 @@
         <v>44460</v>
       </c>
       <c r="B2304" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2304">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
@@ -25763,7 +25763,7 @@
         <v>44460</v>
       </c>
       <c r="B2305" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2305">
         <v>10</v>
@@ -25771,24 +25771,24 @@
     </row>
     <row r="2306" spans="1:3">
       <c r="A2306" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B2306" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2306">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2307" spans="1:3">
       <c r="A2307" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B2307" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2307">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2308" spans="1:3">
@@ -25796,10 +25796,10 @@
         <v>44461</v>
       </c>
       <c r="B2308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2308">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
@@ -25807,10 +25807,10 @@
         <v>44461</v>
       </c>
       <c r="B2309" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2309">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
@@ -25818,10 +25818,10 @@
         <v>44461</v>
       </c>
       <c r="B2310" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2310">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2311" spans="1:3">
@@ -25829,32 +25829,32 @@
         <v>44461</v>
       </c>
       <c r="B2311" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2311">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
       <c r="A2312" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B2312" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2312">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
       <c r="A2313" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B2313" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2313">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
@@ -25862,10 +25862,10 @@
         <v>44462</v>
       </c>
       <c r="B2314" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2314">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -25873,10 +25873,10 @@
         <v>44462</v>
       </c>
       <c r="B2315" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2315">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
@@ -25884,10 +25884,10 @@
         <v>44462</v>
       </c>
       <c r="B2316" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2316">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
@@ -25895,32 +25895,32 @@
         <v>44462</v>
       </c>
       <c r="B2317" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2317">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2318" spans="1:3">
       <c r="A2318" s="2">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="B2318" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2318">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
       <c r="A2319" s="2">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="B2319" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2319">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
@@ -25928,10 +25928,10 @@
         <v>44463</v>
       </c>
       <c r="B2320" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2320">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2321" spans="1:3">
@@ -25939,10 +25939,10 @@
         <v>44463</v>
       </c>
       <c r="B2321" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2321">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2322" spans="1:3">
@@ -25950,10 +25950,10 @@
         <v>44463</v>
       </c>
       <c r="B2322" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2322">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
@@ -25961,32 +25961,32 @@
         <v>44463</v>
       </c>
       <c r="B2323" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2323">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
       <c r="A2324" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B2324" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2324">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
       <c r="A2325" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B2325" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2325">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
@@ -25994,10 +25994,10 @@
         <v>44464</v>
       </c>
       <c r="B2326" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2326">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
@@ -26005,10 +26005,10 @@
         <v>44464</v>
       </c>
       <c r="B2327" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2327">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
@@ -26016,10 +26016,10 @@
         <v>44464</v>
       </c>
       <c r="B2328" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2328">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
@@ -26027,10 +26027,10 @@
         <v>44464</v>
       </c>
       <c r="B2329" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2329">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
@@ -26038,7 +26038,7 @@
         <v>44464</v>
       </c>
       <c r="B2330" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2330">
         <v>10</v>
@@ -26046,24 +26046,24 @@
     </row>
     <row r="2331" spans="1:3">
       <c r="A2331" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B2331" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2331">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
       <c r="A2332" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B2332" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2332">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
@@ -26071,10 +26071,10 @@
         <v>44465</v>
       </c>
       <c r="B2333" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2333">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -26082,10 +26082,10 @@
         <v>44465</v>
       </c>
       <c r="B2334" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2334">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
@@ -26093,10 +26093,10 @@
         <v>44465</v>
       </c>
       <c r="B2335" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2335">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
@@ -26104,32 +26104,32 @@
         <v>44465</v>
       </c>
       <c r="B2336" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2336">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
       <c r="A2337" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B2337" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2337">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
       <c r="A2338" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B2338" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2338">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
@@ -26137,10 +26137,10 @@
         <v>44466</v>
       </c>
       <c r="B2339" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2339">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -26148,10 +26148,10 @@
         <v>44466</v>
       </c>
       <c r="B2340" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2340">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -26159,10 +26159,10 @@
         <v>44466</v>
       </c>
       <c r="B2341" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2341">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -26170,32 +26170,32 @@
         <v>44466</v>
       </c>
       <c r="B2342" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2342">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
       <c r="A2343" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B2343" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2343">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
       <c r="A2344" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B2344" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2344">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -26203,10 +26203,10 @@
         <v>44467</v>
       </c>
       <c r="B2345" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2345">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -26214,10 +26214,10 @@
         <v>44467</v>
       </c>
       <c r="B2346" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2346">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -26225,10 +26225,10 @@
         <v>44467</v>
       </c>
       <c r="B2347" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2347">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -26236,32 +26236,32 @@
         <v>44467</v>
       </c>
       <c r="B2348" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2348">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
       <c r="A2349" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B2349" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2349">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
       <c r="A2350" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B2350" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2350">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -26269,7 +26269,7 @@
         <v>44468</v>
       </c>
       <c r="B2351" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2351">
         <v>1</v>
@@ -26280,10 +26280,10 @@
         <v>44468</v>
       </c>
       <c r="B2352" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2352">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -26291,10 +26291,10 @@
         <v>44468</v>
       </c>
       <c r="B2353" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2353">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -26302,10 +26302,10 @@
         <v>44468</v>
       </c>
       <c r="B2354" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2354">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -26313,29 +26313,29 @@
         <v>44468</v>
       </c>
       <c r="B2355" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2355">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
       <c r="A2356" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B2356" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2356">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
       <c r="A2357" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B2357" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2357">
         <v>8</v>
@@ -26346,10 +26346,10 @@
         <v>44469</v>
       </c>
       <c r="B2358" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2358">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
@@ -26357,10 +26357,10 @@
         <v>44469</v>
       </c>
       <c r="B2359" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2359">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -26368,29 +26368,29 @@
         <v>44469</v>
       </c>
       <c r="B2360" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2360">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
       <c r="A2361" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B2361" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2361">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
       <c r="A2362" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B2362" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2362">
         <v>4</v>
@@ -26401,10 +26401,10 @@
         <v>44470</v>
       </c>
       <c r="B2363" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2363">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
@@ -26412,10 +26412,10 @@
         <v>44470</v>
       </c>
       <c r="B2364" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2364">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
@@ -26423,32 +26423,32 @@
         <v>44470</v>
       </c>
       <c r="B2365" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2365">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
       <c r="A2366" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B2366" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2366">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
       <c r="A2367" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B2367" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2367">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -26456,10 +26456,10 @@
         <v>44471</v>
       </c>
       <c r="B2368" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2368">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
@@ -26467,10 +26467,10 @@
         <v>44471</v>
       </c>
       <c r="B2369" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2369">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -26478,32 +26478,32 @@
         <v>44471</v>
       </c>
       <c r="B2370" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2370">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
       <c r="A2371" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B2371" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2371">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
       <c r="A2372" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B2372" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2372">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
@@ -26511,10 +26511,10 @@
         <v>44472</v>
       </c>
       <c r="B2373" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2373">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
@@ -26522,7 +26522,7 @@
         <v>44472</v>
       </c>
       <c r="B2374" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2374">
         <v>9</v>
@@ -26533,7 +26533,7 @@
         <v>44472</v>
       </c>
       <c r="B2375" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2375">
         <v>14</v>
@@ -26541,24 +26541,24 @@
     </row>
     <row r="2376" spans="1:3">
       <c r="A2376" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B2376" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2376">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
       <c r="A2377" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B2377" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2377">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -26566,10 +26566,10 @@
         <v>44473</v>
       </c>
       <c r="B2378" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2378">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -26577,10 +26577,10 @@
         <v>44473</v>
       </c>
       <c r="B2379" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2379">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
@@ -26588,10 +26588,10 @@
         <v>44473</v>
       </c>
       <c r="B2380" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2380">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
@@ -26599,32 +26599,32 @@
         <v>44473</v>
       </c>
       <c r="B2381" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2381">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
       <c r="A2382" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B2382" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2382">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
       <c r="A2383" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B2383" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2383">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
@@ -26632,10 +26632,10 @@
         <v>44474</v>
       </c>
       <c r="B2384" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2384">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
@@ -26643,10 +26643,10 @@
         <v>44474</v>
       </c>
       <c r="B2385" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2385">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
@@ -26654,10 +26654,10 @@
         <v>44474</v>
       </c>
       <c r="B2386" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2386">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -26665,32 +26665,32 @@
         <v>44474</v>
       </c>
       <c r="B2387" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2387">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
       <c r="A2388" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B2388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2388">
         <v>9</v>
-      </c>
-      <c r="C2388">
-        <v>1</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
       <c r="A2389" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B2389" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2389">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -26698,10 +26698,10 @@
         <v>44475</v>
       </c>
       <c r="B2390" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2390">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -26709,10 +26709,10 @@
         <v>44475</v>
       </c>
       <c r="B2391" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2391">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -26720,10 +26720,10 @@
         <v>44475</v>
       </c>
       <c r="B2392" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2392">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -26731,10 +26731,10 @@
         <v>44475</v>
       </c>
       <c r="B2393" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2393">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -26742,32 +26742,32 @@
         <v>44475</v>
       </c>
       <c r="B2394" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2394">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
       <c r="A2395" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B2395" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2395">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
       <c r="A2396" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B2396" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2396">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -26775,10 +26775,10 @@
         <v>44476</v>
       </c>
       <c r="B2397" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2397">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -26786,10 +26786,10 @@
         <v>44476</v>
       </c>
       <c r="B2398" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2398">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
@@ -26797,10 +26797,10 @@
         <v>44476</v>
       </c>
       <c r="B2399" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2399">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -26808,32 +26808,32 @@
         <v>44476</v>
       </c>
       <c r="B2400" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2400">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
       <c r="A2401" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B2401" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2401">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
       <c r="A2402" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B2402" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2402">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -26841,10 +26841,10 @@
         <v>44477</v>
       </c>
       <c r="B2403" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2403">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
@@ -26852,10 +26852,10 @@
         <v>44477</v>
       </c>
       <c r="B2404" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2404">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
@@ -26863,32 +26863,32 @@
         <v>44477</v>
       </c>
       <c r="B2405" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2405">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
       <c r="A2406" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B2406" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2406">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
       <c r="A2407" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B2407" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2407">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
@@ -26896,10 +26896,10 @@
         <v>44478</v>
       </c>
       <c r="B2408" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2408">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
@@ -26907,10 +26907,10 @@
         <v>44478</v>
       </c>
       <c r="B2409" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2409">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
@@ -26918,7 +26918,7 @@
         <v>44478</v>
       </c>
       <c r="B2410" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2410">
         <v>6</v>
@@ -26929,32 +26929,32 @@
         <v>44478</v>
       </c>
       <c r="B2411" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2411">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
       <c r="A2412" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B2412" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2412">
         <v>6</v>
-      </c>
-      <c r="C2412">
-        <v>1</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
       <c r="A2413" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B2413" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2413">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
@@ -26962,7 +26962,7 @@
         <v>44479</v>
       </c>
       <c r="B2414" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2414">
         <v>1</v>
@@ -26973,10 +26973,10 @@
         <v>44479</v>
       </c>
       <c r="B2415" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2415">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -26984,10 +26984,10 @@
         <v>44479</v>
       </c>
       <c r="B2416" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2416">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
@@ -26995,32 +26995,32 @@
         <v>44479</v>
       </c>
       <c r="B2417" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2417">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
       <c r="A2418" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B2418" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2418">
         <v>9</v>
-      </c>
-      <c r="C2418">
-        <v>1</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
       <c r="A2419" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B2419" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2419">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -27028,10 +27028,10 @@
         <v>44480</v>
       </c>
       <c r="B2420" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2420">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -27039,10 +27039,10 @@
         <v>44480</v>
       </c>
       <c r="B2421" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2421">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27050,10 +27050,10 @@
         <v>44480</v>
       </c>
       <c r="B2422" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2422">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27061,32 +27061,32 @@
         <v>44480</v>
       </c>
       <c r="B2423" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2423">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
       <c r="A2424" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2424" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2424">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
       <c r="A2425" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2425" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2425">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -27094,10 +27094,10 @@
         <v>44481</v>
       </c>
       <c r="B2426" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2426">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -27105,10 +27105,10 @@
         <v>44481</v>
       </c>
       <c r="B2427" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2427">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -27116,10 +27116,10 @@
         <v>44481</v>
       </c>
       <c r="B2428" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2428">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -27127,32 +27127,32 @@
         <v>44481</v>
       </c>
       <c r="B2429" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2429">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
       <c r="A2430" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2430" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2430">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
       <c r="A2431" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2431" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2431">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -27160,10 +27160,10 @@
         <v>44482</v>
       </c>
       <c r="B2432" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2432">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -27171,10 +27171,10 @@
         <v>44482</v>
       </c>
       <c r="B2433" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2433">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -27182,32 +27182,32 @@
         <v>44482</v>
       </c>
       <c r="B2434" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2434">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
       <c r="A2435" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2435" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2435">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
       <c r="A2436" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2436" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2436">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -27215,10 +27215,10 @@
         <v>44483</v>
       </c>
       <c r="B2437" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2437">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
@@ -27226,10 +27226,10 @@
         <v>44483</v>
       </c>
       <c r="B2438" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2438">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -27237,32 +27237,32 @@
         <v>44483</v>
       </c>
       <c r="B2439" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2439">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
       <c r="A2440" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B2440" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2440">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
       <c r="A2441" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B2441" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2441">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27270,10 +27270,10 @@
         <v>44484</v>
       </c>
       <c r="B2442" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2442">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -27281,10 +27281,10 @@
         <v>44484</v>
       </c>
       <c r="B2443" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2443">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -27292,32 +27292,32 @@
         <v>44484</v>
       </c>
       <c r="B2444" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2444">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
       <c r="A2445" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2445" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
       <c r="A2446" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2446" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2446">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -27325,7 +27325,7 @@
         <v>44485</v>
       </c>
       <c r="B2447" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2447">
         <v>1</v>
@@ -27336,10 +27336,10 @@
         <v>44485</v>
       </c>
       <c r="B2448" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2448">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -27347,7 +27347,7 @@
         <v>44485</v>
       </c>
       <c r="B2449" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2449">
         <v>2</v>
@@ -27358,18 +27358,18 @@
         <v>44485</v>
       </c>
       <c r="B2450" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2450">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
       <c r="A2451" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2451" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2451">
         <v>2</v>
@@ -27377,13 +27377,13 @@
     </row>
     <row r="2452" spans="1:3">
       <c r="A2452" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2452" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2452">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -27391,10 +27391,10 @@
         <v>44486</v>
       </c>
       <c r="B2453" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2453">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -27402,10 +27402,10 @@
         <v>44486</v>
       </c>
       <c r="B2454" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2454">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -27413,10 +27413,10 @@
         <v>44486</v>
       </c>
       <c r="B2455" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2455">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -27424,32 +27424,32 @@
         <v>44486</v>
       </c>
       <c r="B2456" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2456">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
       <c r="A2457" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2457" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2457">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
       <c r="A2458" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2458" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2458">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -27457,10 +27457,10 @@
         <v>44487</v>
       </c>
       <c r="B2459" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2459">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
@@ -27468,10 +27468,10 @@
         <v>44487</v>
       </c>
       <c r="B2460" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2460">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
@@ -27479,7 +27479,7 @@
         <v>44487</v>
       </c>
       <c r="B2461" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2461">
         <v>4</v>
@@ -27487,24 +27487,24 @@
     </row>
     <row r="2462" spans="1:3">
       <c r="A2462" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B2462" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2462">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
       <c r="A2463" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B2463" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2463">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -27512,10 +27512,10 @@
         <v>44488</v>
       </c>
       <c r="B2464" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
@@ -27523,10 +27523,10 @@
         <v>44488</v>
       </c>
       <c r="B2465" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2465">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
@@ -27534,10 +27534,10 @@
         <v>44488</v>
       </c>
       <c r="B2466" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2466">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -27545,32 +27545,32 @@
         <v>44488</v>
       </c>
       <c r="B2467" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2467">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
       <c r="A2468" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B2468" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2468">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
       <c r="A2469" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B2469" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2469">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -27578,10 +27578,10 @@
         <v>44489</v>
       </c>
       <c r="B2470" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2470">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -27589,10 +27589,10 @@
         <v>44489</v>
       </c>
       <c r="B2471" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2471">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -27600,7 +27600,7 @@
         <v>44489</v>
       </c>
       <c r="B2472" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2472">
         <v>5</v>
@@ -27608,24 +27608,24 @@
     </row>
     <row r="2473" spans="1:3">
       <c r="A2473" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B2473" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2473">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
       <c r="A2474" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B2474" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2474">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
@@ -27633,7 +27633,7 @@
         <v>44490</v>
       </c>
       <c r="B2475" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2475">
         <v>1</v>
@@ -27644,9 +27644,64 @@
         <v>44490</v>
       </c>
       <c r="B2476" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:3">
+      <c r="A2477" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2477">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:3">
+      <c r="A2478" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2478">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:3">
+      <c r="A2479" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:3">
+      <c r="A2480" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:3">
+      <c r="A2481" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2481">
         <v>2</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2481"/>
+  <dimension ref="A1:C2494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24468,7 +24468,7 @@
         <v>7</v>
       </c>
       <c r="C2187">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
@@ -24798,7 +24798,7 @@
         <v>5</v>
       </c>
       <c r="C2217">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2218" spans="1:3">
@@ -24842,7 +24842,7 @@
         <v>3</v>
       </c>
       <c r="C2221">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2222" spans="1:3">
@@ -24908,7 +24908,7 @@
         <v>4</v>
       </c>
       <c r="C2227">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2228" spans="1:3">
@@ -25117,7 +25117,7 @@
         <v>4</v>
       </c>
       <c r="C2246">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2247" spans="1:3">
@@ -25337,7 +25337,7 @@
         <v>5</v>
       </c>
       <c r="C2266">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
@@ -25843,7 +25843,7 @@
         <v>4</v>
       </c>
       <c r="C2312">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
@@ -25854,7 +25854,7 @@
         <v>5</v>
       </c>
       <c r="C2313">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
@@ -26239,7 +26239,7 @@
         <v>3</v>
       </c>
       <c r="C2348">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -26371,7 +26371,7 @@
         <v>3</v>
       </c>
       <c r="C2360">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -26690,7 +26690,7 @@
         <v>5</v>
       </c>
       <c r="C2389">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -27028,10 +27028,10 @@
         <v>44480</v>
       </c>
       <c r="B2420" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2420">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -27039,10 +27039,10 @@
         <v>44480</v>
       </c>
       <c r="B2421" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2421">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27050,10 +27050,10 @@
         <v>44480</v>
       </c>
       <c r="B2422" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2422">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27061,7 +27061,7 @@
         <v>44480</v>
       </c>
       <c r="B2423" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2423">
         <v>7</v>
@@ -27072,21 +27072,21 @@
         <v>44480</v>
       </c>
       <c r="B2424" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2424">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
       <c r="A2425" s="2">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="B2425" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2425">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -27094,10 +27094,10 @@
         <v>44481</v>
       </c>
       <c r="B2426" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -27105,10 +27105,10 @@
         <v>44481</v>
       </c>
       <c r="B2427" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2427">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -27116,7 +27116,7 @@
         <v>44481</v>
       </c>
       <c r="B2428" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2428">
         <v>5</v>
@@ -27127,10 +27127,10 @@
         <v>44481</v>
       </c>
       <c r="B2429" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2429">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -27138,21 +27138,21 @@
         <v>44481</v>
       </c>
       <c r="B2430" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2430">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
       <c r="A2431" s="2">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="B2431" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2431">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -27160,10 +27160,10 @@
         <v>44482</v>
       </c>
       <c r="B2432" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -27171,10 +27171,10 @@
         <v>44482</v>
       </c>
       <c r="B2433" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2433">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -27182,10 +27182,10 @@
         <v>44482</v>
       </c>
       <c r="B2434" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2434">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -27193,21 +27193,21 @@
         <v>44482</v>
       </c>
       <c r="B2435" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2435">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
       <c r="A2436" s="2">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="B2436" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2436">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -27215,10 +27215,10 @@
         <v>44483</v>
       </c>
       <c r="B2437" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
@@ -27226,10 +27226,10 @@
         <v>44483</v>
       </c>
       <c r="B2438" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2438">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -27237,10 +27237,10 @@
         <v>44483</v>
       </c>
       <c r="B2439" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2439">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -27248,21 +27248,21 @@
         <v>44483</v>
       </c>
       <c r="B2440" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2440">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
       <c r="A2441" s="2">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="B2441" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2441">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27270,10 +27270,10 @@
         <v>44484</v>
       </c>
       <c r="B2442" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2442">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -27281,10 +27281,10 @@
         <v>44484</v>
       </c>
       <c r="B2443" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2443">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -27292,32 +27292,32 @@
         <v>44484</v>
       </c>
       <c r="B2444" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2444">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
       <c r="A2445" s="2">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="B2445" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2445">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
       <c r="A2446" s="2">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="B2446" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2446">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -27325,10 +27325,10 @@
         <v>44485</v>
       </c>
       <c r="B2447" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2447">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
@@ -27336,10 +27336,10 @@
         <v>44485</v>
       </c>
       <c r="B2448" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2448">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -27347,7 +27347,7 @@
         <v>44485</v>
       </c>
       <c r="B2449" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2449">
         <v>2</v>
@@ -27358,18 +27358,18 @@
         <v>44485</v>
       </c>
       <c r="B2450" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2450">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
       <c r="A2451" s="2">
-        <v>44485</v>
+        <v>44486</v>
       </c>
       <c r="B2451" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2451">
         <v>2</v>
@@ -27377,13 +27377,13 @@
     </row>
     <row r="2452" spans="1:3">
       <c r="A2452" s="2">
-        <v>44485</v>
+        <v>44486</v>
       </c>
       <c r="B2452" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2452">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -27391,10 +27391,10 @@
         <v>44486</v>
       </c>
       <c r="B2453" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2453">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -27402,10 +27402,10 @@
         <v>44486</v>
       </c>
       <c r="B2454" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2454">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -27413,10 +27413,10 @@
         <v>44486</v>
       </c>
       <c r="B2455" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2455">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -27424,32 +27424,32 @@
         <v>44486</v>
       </c>
       <c r="B2456" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2456">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
       <c r="A2457" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B2457" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2457">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
       <c r="A2458" s="2">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B2458" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2458">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -27457,10 +27457,10 @@
         <v>44487</v>
       </c>
       <c r="B2459" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2459">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
@@ -27468,10 +27468,10 @@
         <v>44487</v>
       </c>
       <c r="B2460" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2460">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
@@ -27479,7 +27479,7 @@
         <v>44487</v>
       </c>
       <c r="B2461" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2461">
         <v>4</v>
@@ -27487,24 +27487,24 @@
     </row>
     <row r="2462" spans="1:3">
       <c r="A2462" s="2">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="B2462" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2462">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
       <c r="A2463" s="2">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="B2463" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2463">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -27512,10 +27512,10 @@
         <v>44488</v>
       </c>
       <c r="B2464" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2464">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
@@ -27523,10 +27523,10 @@
         <v>44488</v>
       </c>
       <c r="B2465" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2465">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
@@ -27534,10 +27534,10 @@
         <v>44488</v>
       </c>
       <c r="B2466" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2466">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -27545,7 +27545,7 @@
         <v>44488</v>
       </c>
       <c r="B2467" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2467">
         <v>4</v>
@@ -27553,21 +27553,21 @@
     </row>
     <row r="2468" spans="1:3">
       <c r="A2468" s="2">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="B2468" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2468">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
       <c r="A2469" s="2">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="B2469" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2469">
         <v>4</v>
@@ -27578,10 +27578,10 @@
         <v>44489</v>
       </c>
       <c r="B2470" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2470">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -27589,10 +27589,10 @@
         <v>44489</v>
       </c>
       <c r="B2471" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2471">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -27600,32 +27600,32 @@
         <v>44489</v>
       </c>
       <c r="B2472" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2472">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
       <c r="A2473" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B2473" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2473">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
       <c r="A2474" s="2">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B2474" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2474">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
@@ -27633,10 +27633,10 @@
         <v>44490</v>
       </c>
       <c r="B2475" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2475">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -27644,10 +27644,10 @@
         <v>44490</v>
       </c>
       <c r="B2476" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2476">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
@@ -27655,32 +27655,32 @@
         <v>44490</v>
       </c>
       <c r="B2477" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2477">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
       <c r="A2478" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="B2478" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2478">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
       <c r="A2479" s="2">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="B2479" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2479">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -27688,10 +27688,10 @@
         <v>44491</v>
       </c>
       <c r="B2480" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2480">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -27702,7 +27702,150 @@
         <v>5</v>
       </c>
       <c r="C2481">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:3">
+      <c r="A2482" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:3">
+      <c r="A2483" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:3">
+      <c r="A2484" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2484">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:3">
+      <c r="A2485" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2485">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:3">
+      <c r="A2486" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:3">
+      <c r="A2487" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:3">
+      <c r="A2488" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:3">
+      <c r="A2489" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:3">
+      <c r="A2490" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:3">
+      <c r="A2491" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2491">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:3">
+      <c r="A2492" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2492">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:3">
+      <c r="A2493" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:3">
+      <c r="A2494" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2494">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2494"/>
+  <dimension ref="A1:C2504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23035,7 +23035,7 @@
         <v>44416</v>
       </c>
       <c r="B2057" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2057">
         <v>1</v>
@@ -23046,7 +23046,7 @@
         <v>44416</v>
       </c>
       <c r="B2058" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2058">
         <v>1</v>
@@ -23057,10 +23057,10 @@
         <v>44416</v>
       </c>
       <c r="B2059" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2059">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
@@ -23068,10 +23068,10 @@
         <v>44416</v>
       </c>
       <c r="B2060" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2060">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2061" spans="1:3">
@@ -23079,10 +23079,10 @@
         <v>44416</v>
       </c>
       <c r="B2061" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2061">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
@@ -23090,10 +23090,10 @@
         <v>44416</v>
       </c>
       <c r="B2062" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2062">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2063" spans="1:3">
@@ -23101,18 +23101,18 @@
         <v>44416</v>
       </c>
       <c r="B2063" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2063">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2064" spans="1:3">
       <c r="A2064" s="2">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="B2064" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2064">
         <v>2</v>
@@ -23123,10 +23123,10 @@
         <v>44417</v>
       </c>
       <c r="B2065" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2065">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2066" spans="1:3">
@@ -23134,10 +23134,10 @@
         <v>44417</v>
       </c>
       <c r="B2066" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2066">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2067" spans="1:3">
@@ -23145,21 +23145,21 @@
         <v>44417</v>
       </c>
       <c r="B2067" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2067">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
       <c r="A2068" s="2">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="B2068" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2068">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2069" spans="1:3">
@@ -23167,10 +23167,10 @@
         <v>44418</v>
       </c>
       <c r="B2069" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2069">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2070" spans="1:3">
@@ -23178,10 +23178,10 @@
         <v>44418</v>
       </c>
       <c r="B2070" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2070">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2071" spans="1:3">
@@ -23189,10 +23189,10 @@
         <v>44418</v>
       </c>
       <c r="B2071" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2071">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2072" spans="1:3">
@@ -23200,21 +23200,21 @@
         <v>44418</v>
       </c>
       <c r="B2072" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2072">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2073" spans="1:3">
       <c r="A2073" s="2">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="B2073" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2073">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2074" spans="1:3">
@@ -23222,7 +23222,7 @@
         <v>44419</v>
       </c>
       <c r="B2074" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2074">
         <v>2</v>
@@ -23233,10 +23233,10 @@
         <v>44419</v>
       </c>
       <c r="B2075" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2075">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
@@ -23244,18 +23244,18 @@
         <v>44419</v>
       </c>
       <c r="B2076" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2076">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2077" spans="1:3">
       <c r="A2077" s="2">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="B2077" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2077">
         <v>3</v>
@@ -23266,10 +23266,10 @@
         <v>44420</v>
       </c>
       <c r="B2078" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2078">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
@@ -23277,10 +23277,10 @@
         <v>44420</v>
       </c>
       <c r="B2079" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2079">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2080" spans="1:3">
@@ -23288,7 +23288,7 @@
         <v>44420</v>
       </c>
       <c r="B2080" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2080">
         <v>3</v>
@@ -23296,13 +23296,13 @@
     </row>
     <row r="2081" spans="1:3">
       <c r="A2081" s="2">
-        <v>44421</v>
+        <v>44420</v>
       </c>
       <c r="B2081" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2081">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2082" spans="1:3">
@@ -23310,7 +23310,7 @@
         <v>44421</v>
       </c>
       <c r="B2082" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2082">
         <v>1</v>
@@ -23321,10 +23321,10 @@
         <v>44421</v>
       </c>
       <c r="B2083" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2083">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2084" spans="1:3">
@@ -23332,10 +23332,10 @@
         <v>44421</v>
       </c>
       <c r="B2084" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2084">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
@@ -23343,21 +23343,21 @@
         <v>44421</v>
       </c>
       <c r="B2085" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2085">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2086" spans="1:3">
       <c r="A2086" s="2">
-        <v>44422</v>
+        <v>44421</v>
       </c>
       <c r="B2086" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2086">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2087" spans="1:3">
@@ -23365,10 +23365,10 @@
         <v>44422</v>
       </c>
       <c r="B2087" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2087">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2088" spans="1:3">
@@ -23376,10 +23376,10 @@
         <v>44422</v>
       </c>
       <c r="B2088" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2088">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
@@ -23387,21 +23387,21 @@
         <v>44422</v>
       </c>
       <c r="B2089" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2089">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2090" spans="1:3">
       <c r="A2090" s="2">
-        <v>44423</v>
+        <v>44422</v>
       </c>
       <c r="B2090" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2090">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2091" spans="1:3">
@@ -23409,7 +23409,7 @@
         <v>44423</v>
       </c>
       <c r="B2091" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2091">
         <v>1</v>
@@ -23420,10 +23420,10 @@
         <v>44423</v>
       </c>
       <c r="B2092" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2092">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2093" spans="1:3">
@@ -23431,10 +23431,10 @@
         <v>44423</v>
       </c>
       <c r="B2093" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2093">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2094" spans="1:3">
@@ -23442,10 +23442,10 @@
         <v>44423</v>
       </c>
       <c r="B2094" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2094">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2095" spans="1:3">
@@ -23453,21 +23453,21 @@
         <v>44423</v>
       </c>
       <c r="B2095" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2095">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2096" spans="1:3">
       <c r="A2096" s="2">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B2096" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2096">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2097" spans="1:3">
@@ -23475,10 +23475,10 @@
         <v>44424</v>
       </c>
       <c r="B2097" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2097">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2098" spans="1:3">
@@ -23486,10 +23486,10 @@
         <v>44424</v>
       </c>
       <c r="B2098" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2098">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2099" spans="1:3">
@@ -23497,10 +23497,10 @@
         <v>44424</v>
       </c>
       <c r="B2099" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2099">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2100" spans="1:3">
@@ -23508,10 +23508,10 @@
         <v>44424</v>
       </c>
       <c r="B2100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2100">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2101" spans="1:3">
@@ -23519,21 +23519,21 @@
         <v>44424</v>
       </c>
       <c r="B2101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2101">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2102" spans="1:3">
       <c r="A2102" s="2">
-        <v>44425</v>
+        <v>44424</v>
       </c>
       <c r="B2102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2102">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2103" spans="1:3">
@@ -23541,10 +23541,10 @@
         <v>44425</v>
       </c>
       <c r="B2103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2104" spans="1:3">
@@ -23552,10 +23552,10 @@
         <v>44425</v>
       </c>
       <c r="B2104" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2104">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2105" spans="1:3">
@@ -23563,10 +23563,10 @@
         <v>44425</v>
       </c>
       <c r="B2105" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2105">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2106" spans="1:3">
@@ -23574,21 +23574,21 @@
         <v>44425</v>
       </c>
       <c r="B2106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2106">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2107" spans="1:3">
       <c r="A2107" s="2">
-        <v>44426</v>
+        <v>44425</v>
       </c>
       <c r="B2107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2107">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2108" spans="1:3">
@@ -23596,7 +23596,7 @@
         <v>44426</v>
       </c>
       <c r="B2108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2108">
         <v>1</v>
@@ -23607,10 +23607,10 @@
         <v>44426</v>
       </c>
       <c r="B2109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2110" spans="1:3">
@@ -23618,10 +23618,10 @@
         <v>44426</v>
       </c>
       <c r="B2110" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2110">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2111" spans="1:3">
@@ -23629,10 +23629,10 @@
         <v>44426</v>
       </c>
       <c r="B2111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2112" spans="1:3">
@@ -23640,21 +23640,21 @@
         <v>44426</v>
       </c>
       <c r="B2112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2112">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2113" spans="1:3">
       <c r="A2113" s="2">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B2113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2113">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
@@ -23662,10 +23662,10 @@
         <v>44427</v>
       </c>
       <c r="B2114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2115" spans="1:3">
@@ -23673,10 +23673,10 @@
         <v>44427</v>
       </c>
       <c r="B2115" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2115">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2116" spans="1:3">
@@ -23684,10 +23684,10 @@
         <v>44427</v>
       </c>
       <c r="B2116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2116">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2117" spans="1:3">
@@ -23695,21 +23695,21 @@
         <v>44427</v>
       </c>
       <c r="B2117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2117">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2118" spans="1:3">
       <c r="A2118" s="2">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B2118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2118">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2119" spans="1:3">
@@ -23717,10 +23717,10 @@
         <v>44428</v>
       </c>
       <c r="B2119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2120" spans="1:3">
@@ -23728,10 +23728,10 @@
         <v>44428</v>
       </c>
       <c r="B2120" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2120">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2121" spans="1:3">
@@ -23739,10 +23739,10 @@
         <v>44428</v>
       </c>
       <c r="B2121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2121">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2122" spans="1:3">
@@ -23750,21 +23750,21 @@
         <v>44428</v>
       </c>
       <c r="B2122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2122">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2123" spans="1:3">
       <c r="A2123" s="2">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B2123" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2123">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2124" spans="1:3">
@@ -23772,7 +23772,7 @@
         <v>44429</v>
       </c>
       <c r="B2124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2124">
         <v>1</v>
@@ -23783,10 +23783,10 @@
         <v>44429</v>
       </c>
       <c r="B2125" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2126" spans="1:3">
@@ -23794,7 +23794,7 @@
         <v>44429</v>
       </c>
       <c r="B2126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2126">
         <v>2</v>
@@ -23805,7 +23805,7 @@
         <v>44429</v>
       </c>
       <c r="B2127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2127">
         <v>2</v>
@@ -23816,10 +23816,10 @@
         <v>44429</v>
       </c>
       <c r="B2128" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2128">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2129" spans="1:3">
@@ -23827,10 +23827,10 @@
         <v>44429</v>
       </c>
       <c r="B2129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2129">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2130" spans="1:3">
@@ -23838,21 +23838,21 @@
         <v>44429</v>
       </c>
       <c r="B2130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2130">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2131" spans="1:3">
       <c r="A2131" s="2">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B2131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2131">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2132" spans="1:3">
@@ -23860,10 +23860,10 @@
         <v>44430</v>
       </c>
       <c r="B2132" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2132">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2133" spans="1:3">
@@ -23871,10 +23871,10 @@
         <v>44430</v>
       </c>
       <c r="B2133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2133">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2134" spans="1:3">
@@ -23882,21 +23882,21 @@
         <v>44430</v>
       </c>
       <c r="B2134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2134">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2135" spans="1:3">
       <c r="A2135" s="2">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B2135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2135">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
@@ -23904,10 +23904,10 @@
         <v>44431</v>
       </c>
       <c r="B2136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2137" spans="1:3">
@@ -23915,10 +23915,10 @@
         <v>44431</v>
       </c>
       <c r="B2137" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2137">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2138" spans="1:3">
@@ -23926,10 +23926,10 @@
         <v>44431</v>
       </c>
       <c r="B2138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2138">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2139" spans="1:3">
@@ -23937,21 +23937,21 @@
         <v>44431</v>
       </c>
       <c r="B2139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2139">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2140" spans="1:3">
       <c r="A2140" s="2">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B2140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2140">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2141" spans="1:3">
@@ -23959,7 +23959,7 @@
         <v>44432</v>
       </c>
       <c r="B2141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2141">
         <v>2</v>
@@ -23970,10 +23970,10 @@
         <v>44432</v>
       </c>
       <c r="B2142" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2142">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2143" spans="1:3">
@@ -23981,7 +23981,7 @@
         <v>44432</v>
       </c>
       <c r="B2143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2143">
         <v>5</v>
@@ -23992,21 +23992,21 @@
         <v>44432</v>
       </c>
       <c r="B2144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2144">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2145" spans="1:3">
       <c r="A2145" s="2">
-        <v>44433</v>
+        <v>44432</v>
       </c>
       <c r="B2145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2145">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2146" spans="1:3">
@@ -24014,10 +24014,10 @@
         <v>44433</v>
       </c>
       <c r="B2146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2147" spans="1:3">
@@ -24025,10 +24025,10 @@
         <v>44433</v>
       </c>
       <c r="B2147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2148" spans="1:3">
@@ -24036,10 +24036,10 @@
         <v>44433</v>
       </c>
       <c r="B2148" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2148">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2149" spans="1:3">
@@ -24047,10 +24047,10 @@
         <v>44433</v>
       </c>
       <c r="B2149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2149">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2150" spans="1:3">
@@ -24058,21 +24058,21 @@
         <v>44433</v>
       </c>
       <c r="B2150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2150">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2151" spans="1:3">
       <c r="A2151" s="2">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B2151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2151">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2152" spans="1:3">
@@ -24080,10 +24080,10 @@
         <v>44434</v>
       </c>
       <c r="B2152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2152">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2153" spans="1:3">
@@ -24091,10 +24091,10 @@
         <v>44434</v>
       </c>
       <c r="B2153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2153">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
@@ -24102,10 +24102,10 @@
         <v>44434</v>
       </c>
       <c r="B2154" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2154">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2155" spans="1:3">
@@ -24113,10 +24113,10 @@
         <v>44434</v>
       </c>
       <c r="B2155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2155">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2156" spans="1:3">
@@ -24124,7 +24124,7 @@
         <v>44434</v>
       </c>
       <c r="B2156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2156">
         <v>7</v>
@@ -24132,13 +24132,13 @@
     </row>
     <row r="2157" spans="1:3">
       <c r="A2157" s="2">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B2157" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2157">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2158" spans="1:3">
@@ -24146,10 +24146,10 @@
         <v>44435</v>
       </c>
       <c r="B2158" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2159" spans="1:3">
@@ -24157,7 +24157,7 @@
         <v>44435</v>
       </c>
       <c r="B2159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2159">
         <v>2</v>
@@ -24168,10 +24168,10 @@
         <v>44435</v>
       </c>
       <c r="B2160" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2160">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
@@ -24179,10 +24179,10 @@
         <v>44435</v>
       </c>
       <c r="B2161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2161">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2162" spans="1:3">
@@ -24190,21 +24190,21 @@
         <v>44435</v>
       </c>
       <c r="B2162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2162">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
       <c r="A2163" s="2">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B2163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2163">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2164" spans="1:3">
@@ -24212,7 +24212,7 @@
         <v>44436</v>
       </c>
       <c r="B2164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2164">
         <v>1</v>
@@ -24223,10 +24223,10 @@
         <v>44436</v>
       </c>
       <c r="B2165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2165">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2166" spans="1:3">
@@ -24234,7 +24234,7 @@
         <v>44436</v>
       </c>
       <c r="B2166" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2166">
         <v>4</v>
@@ -24245,10 +24245,10 @@
         <v>44436</v>
       </c>
       <c r="B2167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2167">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2168" spans="1:3">
@@ -24256,21 +24256,21 @@
         <v>44436</v>
       </c>
       <c r="B2168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2168">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2169" spans="1:3">
       <c r="A2169" s="2">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B2169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2169">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2170" spans="1:3">
@@ -24278,10 +24278,10 @@
         <v>44437</v>
       </c>
       <c r="B2170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2171" spans="1:3">
@@ -24289,10 +24289,10 @@
         <v>44437</v>
       </c>
       <c r="B2171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2172" spans="1:3">
@@ -24300,10 +24300,10 @@
         <v>44437</v>
       </c>
       <c r="B2172" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2172">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2173" spans="1:3">
@@ -24311,10 +24311,10 @@
         <v>44437</v>
       </c>
       <c r="B2173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2173">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2174" spans="1:3">
@@ -24322,21 +24322,21 @@
         <v>44437</v>
       </c>
       <c r="B2174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2174">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2175" spans="1:3">
       <c r="A2175" s="2">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B2175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2175">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
@@ -24344,10 +24344,10 @@
         <v>44438</v>
       </c>
       <c r="B2176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2176">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2177" spans="1:3">
@@ -24355,10 +24355,10 @@
         <v>44438</v>
       </c>
       <c r="B2177" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2177">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
@@ -24366,10 +24366,10 @@
         <v>44438</v>
       </c>
       <c r="B2178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2178">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2179" spans="1:3">
@@ -24377,21 +24377,21 @@
         <v>44438</v>
       </c>
       <c r="B2179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2179">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
       <c r="A2180" s="2">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B2180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2180">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2181" spans="1:3">
@@ -24399,7 +24399,7 @@
         <v>44439</v>
       </c>
       <c r="B2181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2181">
         <v>2</v>
@@ -24410,10 +24410,10 @@
         <v>44439</v>
       </c>
       <c r="B2182" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2182">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2183" spans="1:3">
@@ -24421,7 +24421,7 @@
         <v>44439</v>
       </c>
       <c r="B2183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2183">
         <v>6</v>
@@ -24432,21 +24432,21 @@
         <v>44439</v>
       </c>
       <c r="B2184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2184">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
       <c r="A2185" s="2">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="B2185" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2185">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2186" spans="1:3">
@@ -24454,10 +24454,10 @@
         <v>44440</v>
       </c>
       <c r="B2186" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2186">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2187" spans="1:3">
@@ -24465,10 +24465,10 @@
         <v>44440</v>
       </c>
       <c r="B2187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2187">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
@@ -24476,10 +24476,10 @@
         <v>44440</v>
       </c>
       <c r="B2188" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2188">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -24487,10 +24487,10 @@
         <v>44440</v>
       </c>
       <c r="B2189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2189">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2190" spans="1:3">
@@ -24498,21 +24498,21 @@
         <v>44440</v>
       </c>
       <c r="B2190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2190">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2191" spans="1:3">
       <c r="A2191" s="2">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B2191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2191">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2192" spans="1:3">
@@ -24520,10 +24520,10 @@
         <v>44441</v>
       </c>
       <c r="B2192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2192">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2193" spans="1:3">
@@ -24531,7 +24531,7 @@
         <v>44441</v>
       </c>
       <c r="B2193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2193">
         <v>4</v>
@@ -24542,10 +24542,10 @@
         <v>44441</v>
       </c>
       <c r="B2194" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2194">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2195" spans="1:3">
@@ -24553,10 +24553,10 @@
         <v>44441</v>
       </c>
       <c r="B2195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2195">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2196" spans="1:3">
@@ -24564,21 +24564,21 @@
         <v>44441</v>
       </c>
       <c r="B2196" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2196">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2197" spans="1:3">
       <c r="A2197" s="2">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="B2197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2197">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2198" spans="1:3">
@@ -24586,10 +24586,10 @@
         <v>44442</v>
       </c>
       <c r="B2198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2198">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2199" spans="1:3">
@@ -24597,10 +24597,10 @@
         <v>44442</v>
       </c>
       <c r="B2199" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2199">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2200" spans="1:3">
@@ -24608,10 +24608,10 @@
         <v>44442</v>
       </c>
       <c r="B2200" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2200">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2201" spans="1:3">
@@ -24619,21 +24619,21 @@
         <v>44442</v>
       </c>
       <c r="B2201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2201">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2202" spans="1:3">
       <c r="A2202" s="2">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="B2202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2202">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2203" spans="1:3">
@@ -24641,10 +24641,10 @@
         <v>44443</v>
       </c>
       <c r="B2203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2203">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2204" spans="1:3">
@@ -24652,10 +24652,10 @@
         <v>44443</v>
       </c>
       <c r="B2204" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2204">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2205" spans="1:3">
@@ -24663,10 +24663,10 @@
         <v>44443</v>
       </c>
       <c r="B2205" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2205">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
@@ -24674,21 +24674,21 @@
         <v>44443</v>
       </c>
       <c r="B2206" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2206">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2207" spans="1:3">
       <c r="A2207" s="2">
-        <v>44444</v>
+        <v>44443</v>
       </c>
       <c r="B2207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2207">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2208" spans="1:3">
@@ -24696,10 +24696,10 @@
         <v>44444</v>
       </c>
       <c r="B2208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2208">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2209" spans="1:3">
@@ -24707,7 +24707,7 @@
         <v>44444</v>
       </c>
       <c r="B2209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2209">
         <v>3</v>
@@ -24718,10 +24718,10 @@
         <v>44444</v>
       </c>
       <c r="B2210" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2210">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2211" spans="1:3">
@@ -24729,10 +24729,10 @@
         <v>44444</v>
       </c>
       <c r="B2211" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2211">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2212" spans="1:3">
@@ -24740,21 +24740,21 @@
         <v>44444</v>
       </c>
       <c r="B2212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2212">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2213" spans="1:3">
       <c r="A2213" s="2">
-        <v>44445</v>
+        <v>44444</v>
       </c>
       <c r="B2213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2213">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2214" spans="1:3">
@@ -24762,10 +24762,10 @@
         <v>44445</v>
       </c>
       <c r="B2214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2214">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2215" spans="1:3">
@@ -24773,10 +24773,10 @@
         <v>44445</v>
       </c>
       <c r="B2215" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2215">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2216" spans="1:3">
@@ -24784,10 +24784,10 @@
         <v>44445</v>
       </c>
       <c r="B2216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2216">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2217" spans="1:3">
@@ -24795,21 +24795,21 @@
         <v>44445</v>
       </c>
       <c r="B2217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2217">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2218" spans="1:3">
       <c r="A2218" s="2">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B2218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2218">
         <v>6</v>
-      </c>
-      <c r="C2218">
-        <v>1</v>
       </c>
     </row>
     <row r="2219" spans="1:3">
@@ -24817,10 +24817,10 @@
         <v>44446</v>
       </c>
       <c r="B2219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2219">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2220" spans="1:3">
@@ -24828,10 +24828,10 @@
         <v>44446</v>
       </c>
       <c r="B2220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2220">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2221" spans="1:3">
@@ -24839,10 +24839,10 @@
         <v>44446</v>
       </c>
       <c r="B2221" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2221">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2222" spans="1:3">
@@ -24850,10 +24850,10 @@
         <v>44446</v>
       </c>
       <c r="B2222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2222">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2223" spans="1:3">
@@ -24861,21 +24861,21 @@
         <v>44446</v>
       </c>
       <c r="B2223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2223">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2224" spans="1:3">
       <c r="A2224" s="2">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B2224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2224">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2225" spans="1:3">
@@ -24883,10 +24883,10 @@
         <v>44447</v>
       </c>
       <c r="B2225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2225">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2226" spans="1:3">
@@ -24894,10 +24894,10 @@
         <v>44447</v>
       </c>
       <c r="B2226" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2226">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2227" spans="1:3">
@@ -24905,7 +24905,7 @@
         <v>44447</v>
       </c>
       <c r="B2227" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2227">
         <v>9</v>
@@ -24916,21 +24916,21 @@
         <v>44447</v>
       </c>
       <c r="B2228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2228">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2229" spans="1:3">
       <c r="A2229" s="2">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B2229" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2229">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2230" spans="1:3">
@@ -24938,10 +24938,10 @@
         <v>44448</v>
       </c>
       <c r="B2230" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2230">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2231" spans="1:3">
@@ -24949,10 +24949,10 @@
         <v>44448</v>
       </c>
       <c r="B2231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2231">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
@@ -24960,10 +24960,10 @@
         <v>44448</v>
       </c>
       <c r="B2232" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2232">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2233" spans="1:3">
@@ -24971,10 +24971,10 @@
         <v>44448</v>
       </c>
       <c r="B2233" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2233">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
@@ -24982,21 +24982,21 @@
         <v>44448</v>
       </c>
       <c r="B2234" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2234">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2235" spans="1:3">
       <c r="A2235" s="2">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B2235" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2235">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2236" spans="1:3">
@@ -25004,7 +25004,7 @@
         <v>44449</v>
       </c>
       <c r="B2236" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2236">
         <v>1</v>
@@ -25015,10 +25015,10 @@
         <v>44449</v>
       </c>
       <c r="B2237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2238" spans="1:3">
@@ -25026,10 +25026,10 @@
         <v>44449</v>
       </c>
       <c r="B2238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2238">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2239" spans="1:3">
@@ -25037,10 +25037,10 @@
         <v>44449</v>
       </c>
       <c r="B2239" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2239">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2240" spans="1:3">
@@ -25048,10 +25048,10 @@
         <v>44449</v>
       </c>
       <c r="B2240" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2240">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2241" spans="1:3">
@@ -25059,7 +25059,7 @@
         <v>44449</v>
       </c>
       <c r="B2241" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2241">
         <v>14</v>
@@ -25067,13 +25067,13 @@
     </row>
     <row r="2242" spans="1:3">
       <c r="A2242" s="2">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="B2242" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2242">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2243" spans="1:3">
@@ -25081,10 +25081,10 @@
         <v>44450</v>
       </c>
       <c r="B2243" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2243">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2244" spans="1:3">
@@ -25092,10 +25092,10 @@
         <v>44450</v>
       </c>
       <c r="B2244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2244">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2245" spans="1:3">
@@ -25103,10 +25103,10 @@
         <v>44450</v>
       </c>
       <c r="B2245" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2245">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2246" spans="1:3">
@@ -25114,10 +25114,10 @@
         <v>44450</v>
       </c>
       <c r="B2246" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2246">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2247" spans="1:3">
@@ -25125,21 +25125,21 @@
         <v>44450</v>
       </c>
       <c r="B2247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2247">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2248" spans="1:3">
       <c r="A2248" s="2">
-        <v>44451</v>
+        <v>44450</v>
       </c>
       <c r="B2248" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2248">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2249" spans="1:3">
@@ -25147,10 +25147,10 @@
         <v>44451</v>
       </c>
       <c r="B2249" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2249">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2250" spans="1:3">
@@ -25158,10 +25158,10 @@
         <v>44451</v>
       </c>
       <c r="B2250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2250">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2251" spans="1:3">
@@ -25169,10 +25169,10 @@
         <v>44451</v>
       </c>
       <c r="B2251" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2251">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2252" spans="1:3">
@@ -25180,10 +25180,10 @@
         <v>44451</v>
       </c>
       <c r="B2252" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2252">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2253" spans="1:3">
@@ -25191,21 +25191,21 @@
         <v>44451</v>
       </c>
       <c r="B2253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2253">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2254" spans="1:3">
       <c r="A2254" s="2">
-        <v>44452</v>
+        <v>44451</v>
       </c>
       <c r="B2254" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2254">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2255" spans="1:3">
@@ -25213,7 +25213,7 @@
         <v>44452</v>
       </c>
       <c r="B2255" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2255">
         <v>1</v>
@@ -25224,7 +25224,7 @@
         <v>44452</v>
       </c>
       <c r="B2256" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2256">
         <v>1</v>
@@ -25235,10 +25235,10 @@
         <v>44452</v>
       </c>
       <c r="B2257" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2257">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2258" spans="1:3">
@@ -25246,10 +25246,10 @@
         <v>44452</v>
       </c>
       <c r="B2258" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2258">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2259" spans="1:3">
@@ -25257,10 +25257,10 @@
         <v>44452</v>
       </c>
       <c r="B2259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2259">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2260" spans="1:3">
@@ -25268,21 +25268,21 @@
         <v>44452</v>
       </c>
       <c r="B2260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2260">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2261" spans="1:3">
       <c r="A2261" s="2">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B2261" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2261">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2262" spans="1:3">
@@ -25290,10 +25290,10 @@
         <v>44453</v>
       </c>
       <c r="B2262" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2262">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2263" spans="1:3">
@@ -25301,10 +25301,10 @@
         <v>44453</v>
       </c>
       <c r="B2263" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2263">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2264" spans="1:3">
@@ -25312,10 +25312,10 @@
         <v>44453</v>
       </c>
       <c r="B2264" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2264">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2265" spans="1:3">
@@ -25323,10 +25323,10 @@
         <v>44453</v>
       </c>
       <c r="B2265" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2265">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2266" spans="1:3">
@@ -25334,21 +25334,21 @@
         <v>44453</v>
       </c>
       <c r="B2266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2266">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
       <c r="A2267" s="2">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B2267" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2267">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -25356,10 +25356,10 @@
         <v>44454</v>
       </c>
       <c r="B2268" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2268">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2269" spans="1:3">
@@ -25367,10 +25367,10 @@
         <v>44454</v>
       </c>
       <c r="B2269" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2269">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
@@ -25378,10 +25378,10 @@
         <v>44454</v>
       </c>
       <c r="B2270" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2270">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
@@ -25389,10 +25389,10 @@
         <v>44454</v>
       </c>
       <c r="B2271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2271">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
@@ -25400,21 +25400,21 @@
         <v>44454</v>
       </c>
       <c r="B2272" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2272">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
       <c r="A2273" s="2">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B2273" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2273">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
@@ -25422,7 +25422,7 @@
         <v>44455</v>
       </c>
       <c r="B2274" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2274">
         <v>1</v>
@@ -25433,10 +25433,10 @@
         <v>44455</v>
       </c>
       <c r="B2275" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2275">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
@@ -25444,7 +25444,7 @@
         <v>44455</v>
       </c>
       <c r="B2276" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2276">
         <v>7</v>
@@ -25455,10 +25455,10 @@
         <v>44455</v>
       </c>
       <c r="B2277" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2277">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
@@ -25466,21 +25466,21 @@
         <v>44455</v>
       </c>
       <c r="B2278" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2278">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
       <c r="A2279" s="2">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B2279" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2279">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
@@ -25488,10 +25488,10 @@
         <v>44456</v>
       </c>
       <c r="B2280" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2280">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
@@ -25499,10 +25499,10 @@
         <v>44456</v>
       </c>
       <c r="B2281" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2281">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
@@ -25510,10 +25510,10 @@
         <v>44456</v>
       </c>
       <c r="B2282" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2282">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
@@ -25521,21 +25521,21 @@
         <v>44456</v>
       </c>
       <c r="B2283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2283">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
       <c r="A2284" s="2">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B2284" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2284">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
@@ -25543,10 +25543,10 @@
         <v>44457</v>
       </c>
       <c r="B2285" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2285">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
@@ -25554,10 +25554,10 @@
         <v>44457</v>
       </c>
       <c r="B2286" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2286">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
@@ -25565,10 +25565,10 @@
         <v>44457</v>
       </c>
       <c r="B2287" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2287">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -25576,10 +25576,10 @@
         <v>44457</v>
       </c>
       <c r="B2288" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2288">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
@@ -25587,7 +25587,7 @@
         <v>44457</v>
       </c>
       <c r="B2289" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2289">
         <v>7</v>
@@ -25595,13 +25595,13 @@
     </row>
     <row r="2290" spans="1:3">
       <c r="A2290" s="2">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B2290" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2290">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
@@ -25609,10 +25609,10 @@
         <v>44458</v>
       </c>
       <c r="B2291" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2291">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
@@ -25620,10 +25620,10 @@
         <v>44458</v>
       </c>
       <c r="B2292" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2292">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
@@ -25631,10 +25631,10 @@
         <v>44458</v>
       </c>
       <c r="B2293" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2293">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
@@ -25642,10 +25642,10 @@
         <v>44458</v>
       </c>
       <c r="B2294" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2294">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
@@ -25653,21 +25653,21 @@
         <v>44458</v>
       </c>
       <c r="B2295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2295">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
       <c r="A2296" s="2">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B2296" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2296">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
@@ -25675,10 +25675,10 @@
         <v>44459</v>
       </c>
       <c r="B2297" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2297">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
@@ -25686,10 +25686,10 @@
         <v>44459</v>
       </c>
       <c r="B2298" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2298">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
@@ -25697,10 +25697,10 @@
         <v>44459</v>
       </c>
       <c r="B2299" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2299">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
@@ -25708,10 +25708,10 @@
         <v>44459</v>
       </c>
       <c r="B2300" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2300">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
@@ -25719,7 +25719,7 @@
         <v>44459</v>
       </c>
       <c r="B2301" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2301">
         <v>8</v>
@@ -25727,13 +25727,13 @@
     </row>
     <row r="2302" spans="1:3">
       <c r="A2302" s="2">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B2302" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2302">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
@@ -25741,10 +25741,10 @@
         <v>44460</v>
       </c>
       <c r="B2303" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2303">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
@@ -25752,10 +25752,10 @@
         <v>44460</v>
       </c>
       <c r="B2304" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2304">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
@@ -25763,10 +25763,10 @@
         <v>44460</v>
       </c>
       <c r="B2305" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2305">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2306" spans="1:3">
@@ -25774,7 +25774,7 @@
         <v>44460</v>
       </c>
       <c r="B2306" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2306">
         <v>10</v>
@@ -25785,7 +25785,7 @@
         <v>44460</v>
       </c>
       <c r="B2307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2307">
         <v>10</v>
@@ -25793,13 +25793,13 @@
     </row>
     <row r="2308" spans="1:3">
       <c r="A2308" s="2">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B2308" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2308">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
@@ -25807,10 +25807,10 @@
         <v>44461</v>
       </c>
       <c r="B2309" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2309">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
@@ -25818,7 +25818,7 @@
         <v>44461</v>
       </c>
       <c r="B2310" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2310">
         <v>3</v>
@@ -25829,10 +25829,10 @@
         <v>44461</v>
       </c>
       <c r="B2311" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2311">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
@@ -25840,10 +25840,10 @@
         <v>44461</v>
       </c>
       <c r="B2312" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2312">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
@@ -25851,21 +25851,21 @@
         <v>44461</v>
       </c>
       <c r="B2313" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2313">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
       <c r="A2314" s="2">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B2314" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2314">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -25873,10 +25873,10 @@
         <v>44462</v>
       </c>
       <c r="B2315" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2315">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
@@ -25884,10 +25884,10 @@
         <v>44462</v>
       </c>
       <c r="B2316" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2316">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
@@ -25895,10 +25895,10 @@
         <v>44462</v>
       </c>
       <c r="B2317" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2317">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2318" spans="1:3">
@@ -25906,10 +25906,10 @@
         <v>44462</v>
       </c>
       <c r="B2318" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2318">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
@@ -25917,21 +25917,21 @@
         <v>44462</v>
       </c>
       <c r="B2319" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2319">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
       <c r="A2320" s="2">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="B2320" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2320">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2321" spans="1:3">
@@ -25939,7 +25939,7 @@
         <v>44463</v>
       </c>
       <c r="B2321" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2321">
         <v>1</v>
@@ -25950,10 +25950,10 @@
         <v>44463</v>
       </c>
       <c r="B2322" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2322">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
@@ -25961,10 +25961,10 @@
         <v>44463</v>
       </c>
       <c r="B2323" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2323">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
@@ -25972,7 +25972,7 @@
         <v>44463</v>
       </c>
       <c r="B2324" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2324">
         <v>9</v>
@@ -25983,21 +25983,21 @@
         <v>44463</v>
       </c>
       <c r="B2325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2325">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
       <c r="A2326" s="2">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B2326" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2326">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
@@ -26005,7 +26005,7 @@
         <v>44464</v>
       </c>
       <c r="B2327" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2327">
         <v>1</v>
@@ -26016,10 +26016,10 @@
         <v>44464</v>
       </c>
       <c r="B2328" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2328">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
@@ -26027,7 +26027,7 @@
         <v>44464</v>
       </c>
       <c r="B2329" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2329">
         <v>4</v>
@@ -26038,10 +26038,10 @@
         <v>44464</v>
       </c>
       <c r="B2330" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2330">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
@@ -26049,10 +26049,10 @@
         <v>44464</v>
       </c>
       <c r="B2331" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2331">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
@@ -26060,21 +26060,21 @@
         <v>44464</v>
       </c>
       <c r="B2332" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2332">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
       <c r="A2333" s="2">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B2333" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2333">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
@@ -26082,10 +26082,10 @@
         <v>44465</v>
       </c>
       <c r="B2334" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2334">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
@@ -26093,10 +26093,10 @@
         <v>44465</v>
       </c>
       <c r="B2335" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2335">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
@@ -26104,10 +26104,10 @@
         <v>44465</v>
       </c>
       <c r="B2336" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2336">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
@@ -26115,10 +26115,10 @@
         <v>44465</v>
       </c>
       <c r="B2337" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2337">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
@@ -26126,21 +26126,21 @@
         <v>44465</v>
       </c>
       <c r="B2338" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2338">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
       <c r="A2339" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B2339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2339">
         <v>6</v>
-      </c>
-      <c r="C2339">
-        <v>3</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
@@ -26148,10 +26148,10 @@
         <v>44466</v>
       </c>
       <c r="B2340" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2340">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -26159,10 +26159,10 @@
         <v>44466</v>
       </c>
       <c r="B2341" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2341">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -26170,10 +26170,10 @@
         <v>44466</v>
       </c>
       <c r="B2342" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2342">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -26181,10 +26181,10 @@
         <v>44466</v>
       </c>
       <c r="B2343" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2343">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
@@ -26192,21 +26192,21 @@
         <v>44466</v>
       </c>
       <c r="B2344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2344">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
       <c r="A2345" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B2345" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2345">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -26214,10 +26214,10 @@
         <v>44467</v>
       </c>
       <c r="B2346" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2346">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -26225,10 +26225,10 @@
         <v>44467</v>
       </c>
       <c r="B2347" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2347">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -26236,7 +26236,7 @@
         <v>44467</v>
       </c>
       <c r="B2348" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2348">
         <v>6</v>
@@ -26247,10 +26247,10 @@
         <v>44467</v>
       </c>
       <c r="B2349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2349">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -26258,21 +26258,21 @@
         <v>44467</v>
       </c>
       <c r="B2350" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2350">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
       <c r="A2351" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B2351" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2351">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
@@ -26280,10 +26280,10 @@
         <v>44468</v>
       </c>
       <c r="B2352" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2352">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -26291,10 +26291,10 @@
         <v>44468</v>
       </c>
       <c r="B2353" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -26302,10 +26302,10 @@
         <v>44468</v>
       </c>
       <c r="B2354" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2354">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -26313,10 +26313,10 @@
         <v>44468</v>
       </c>
       <c r="B2355" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2355">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
@@ -26324,10 +26324,10 @@
         <v>44468</v>
       </c>
       <c r="B2356" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2356">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
@@ -26335,21 +26335,21 @@
         <v>44468</v>
       </c>
       <c r="B2357" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2357">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
       <c r="A2358" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B2358" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2358">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
@@ -26357,10 +26357,10 @@
         <v>44469</v>
       </c>
       <c r="B2359" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2359">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -26368,10 +26368,10 @@
         <v>44469</v>
       </c>
       <c r="B2360" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2360">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -26379,10 +26379,10 @@
         <v>44469</v>
       </c>
       <c r="B2361" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2361">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -26390,21 +26390,21 @@
         <v>44469</v>
       </c>
       <c r="B2362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2362">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
       <c r="A2363" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B2363" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2363">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
@@ -26412,10 +26412,10 @@
         <v>44470</v>
       </c>
       <c r="B2364" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2364">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
@@ -26423,10 +26423,10 @@
         <v>44470</v>
       </c>
       <c r="B2365" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2365">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -26434,10 +26434,10 @@
         <v>44470</v>
       </c>
       <c r="B2366" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2366">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -26445,21 +26445,21 @@
         <v>44470</v>
       </c>
       <c r="B2367" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2367">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
       <c r="A2368" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B2368" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2368">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
@@ -26467,10 +26467,10 @@
         <v>44471</v>
       </c>
       <c r="B2369" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2369">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -26478,10 +26478,10 @@
         <v>44471</v>
       </c>
       <c r="B2370" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2370">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
@@ -26489,10 +26489,10 @@
         <v>44471</v>
       </c>
       <c r="B2371" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2371">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
@@ -26500,21 +26500,21 @@
         <v>44471</v>
       </c>
       <c r="B2372" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2372">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
       <c r="A2373" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B2373" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2373">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
@@ -26522,10 +26522,10 @@
         <v>44472</v>
       </c>
       <c r="B2374" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2374">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
@@ -26533,10 +26533,10 @@
         <v>44472</v>
       </c>
       <c r="B2375" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2375">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
@@ -26544,10 +26544,10 @@
         <v>44472</v>
       </c>
       <c r="B2376" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2376">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
@@ -26555,21 +26555,21 @@
         <v>44472</v>
       </c>
       <c r="B2377" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2377">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
       <c r="A2378" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B2378" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2378">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -26577,7 +26577,7 @@
         <v>44473</v>
       </c>
       <c r="B2379" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2379">
         <v>1</v>
@@ -26588,10 +26588,10 @@
         <v>44473</v>
       </c>
       <c r="B2380" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2380">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
@@ -26599,10 +26599,10 @@
         <v>44473</v>
       </c>
       <c r="B2381" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2381">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
@@ -26610,10 +26610,10 @@
         <v>44473</v>
       </c>
       <c r="B2382" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2382">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
@@ -26621,21 +26621,21 @@
         <v>44473</v>
       </c>
       <c r="B2383" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2383">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
       <c r="A2384" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B2384" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2384">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
@@ -26643,10 +26643,10 @@
         <v>44474</v>
       </c>
       <c r="B2385" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2385">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
@@ -26654,10 +26654,10 @@
         <v>44474</v>
       </c>
       <c r="B2386" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2386">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -26665,10 +26665,10 @@
         <v>44474</v>
       </c>
       <c r="B2387" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2387">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
@@ -26676,10 +26676,10 @@
         <v>44474</v>
       </c>
       <c r="B2388" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2388">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -26687,21 +26687,21 @@
         <v>44474</v>
       </c>
       <c r="B2389" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2389">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
       <c r="A2390" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B2390" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2390">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -26709,10 +26709,10 @@
         <v>44475</v>
       </c>
       <c r="B2391" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2391">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -26720,10 +26720,10 @@
         <v>44475</v>
       </c>
       <c r="B2392" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2392">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -26731,10 +26731,10 @@
         <v>44475</v>
       </c>
       <c r="B2393" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2393">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -26742,10 +26742,10 @@
         <v>44475</v>
       </c>
       <c r="B2394" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2394">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -26753,10 +26753,10 @@
         <v>44475</v>
       </c>
       <c r="B2395" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2395">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -26764,21 +26764,21 @@
         <v>44475</v>
       </c>
       <c r="B2396" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2396">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
       <c r="A2397" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B2397" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2397">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -26786,10 +26786,10 @@
         <v>44476</v>
       </c>
       <c r="B2398" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2398">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
@@ -26797,10 +26797,10 @@
         <v>44476</v>
       </c>
       <c r="B2399" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2399">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -26808,10 +26808,10 @@
         <v>44476</v>
       </c>
       <c r="B2400" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2400">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -26819,10 +26819,10 @@
         <v>44476</v>
       </c>
       <c r="B2401" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2401">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -26830,21 +26830,21 @@
         <v>44476</v>
       </c>
       <c r="B2402" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2402">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
       <c r="A2403" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B2403" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2403">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
@@ -26852,10 +26852,10 @@
         <v>44477</v>
       </c>
       <c r="B2404" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
@@ -26863,10 +26863,10 @@
         <v>44477</v>
       </c>
       <c r="B2405" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2405">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -26874,10 +26874,10 @@
         <v>44477</v>
       </c>
       <c r="B2406" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2406">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -26885,21 +26885,21 @@
         <v>44477</v>
       </c>
       <c r="B2407" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2407">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
       <c r="A2408" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B2408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2408">
         <v>6</v>
-      </c>
-      <c r="C2408">
-        <v>2</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
@@ -26907,10 +26907,10 @@
         <v>44478</v>
       </c>
       <c r="B2409" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2409">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
@@ -26918,10 +26918,10 @@
         <v>44478</v>
       </c>
       <c r="B2410" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2410">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
@@ -26929,10 +26929,10 @@
         <v>44478</v>
       </c>
       <c r="B2411" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2411">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
@@ -26940,7 +26940,7 @@
         <v>44478</v>
       </c>
       <c r="B2412" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2412">
         <v>6</v>
@@ -26951,21 +26951,21 @@
         <v>44478</v>
       </c>
       <c r="B2413" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2413">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
       <c r="A2414" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B2414" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2414">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
@@ -26973,10 +26973,10 @@
         <v>44479</v>
       </c>
       <c r="B2415" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2415">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -26984,7 +26984,7 @@
         <v>44479</v>
       </c>
       <c r="B2416" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2416">
         <v>2</v>
@@ -26995,10 +26995,10 @@
         <v>44479</v>
       </c>
       <c r="B2417" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2417">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
@@ -27006,10 +27006,10 @@
         <v>44479</v>
       </c>
       <c r="B2418" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2418">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -27017,21 +27017,21 @@
         <v>44479</v>
       </c>
       <c r="B2419" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2419">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
       <c r="A2420" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B2420" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2420">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -27039,10 +27039,10 @@
         <v>44480</v>
       </c>
       <c r="B2421" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2421">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27050,10 +27050,10 @@
         <v>44480</v>
       </c>
       <c r="B2422" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2422">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27061,7 +27061,7 @@
         <v>44480</v>
       </c>
       <c r="B2423" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2423">
         <v>7</v>
@@ -27072,21 +27072,21 @@
         <v>44480</v>
       </c>
       <c r="B2424" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2424">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
       <c r="A2425" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2425">
         <v>9</v>
-      </c>
-      <c r="C2425">
-        <v>1</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -27094,10 +27094,10 @@
         <v>44481</v>
       </c>
       <c r="B2426" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -27105,10 +27105,10 @@
         <v>44481</v>
       </c>
       <c r="B2427" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2427">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -27116,7 +27116,7 @@
         <v>44481</v>
       </c>
       <c r="B2428" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2428">
         <v>5</v>
@@ -27127,10 +27127,10 @@
         <v>44481</v>
       </c>
       <c r="B2429" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2429">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -27138,21 +27138,21 @@
         <v>44481</v>
       </c>
       <c r="B2430" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2430">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
       <c r="A2431" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2431" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2431">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -27160,10 +27160,10 @@
         <v>44482</v>
       </c>
       <c r="B2432" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -27171,10 +27171,10 @@
         <v>44482</v>
       </c>
       <c r="B2433" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2433">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -27182,10 +27182,10 @@
         <v>44482</v>
       </c>
       <c r="B2434" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2434">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -27193,21 +27193,21 @@
         <v>44482</v>
       </c>
       <c r="B2435" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2435">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
       <c r="A2436" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2436" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2436">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -27215,10 +27215,10 @@
         <v>44483</v>
       </c>
       <c r="B2437" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2437">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
@@ -27226,10 +27226,10 @@
         <v>44483</v>
       </c>
       <c r="B2438" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2438">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -27237,10 +27237,10 @@
         <v>44483</v>
       </c>
       <c r="B2439" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2439">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -27248,21 +27248,21 @@
         <v>44483</v>
       </c>
       <c r="B2440" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2440">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
       <c r="A2441" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B2441" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2441">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27270,10 +27270,10 @@
         <v>44484</v>
       </c>
       <c r="B2442" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2442">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -27281,10 +27281,10 @@
         <v>44484</v>
       </c>
       <c r="B2443" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2443">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -27292,21 +27292,21 @@
         <v>44484</v>
       </c>
       <c r="B2444" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2444">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
       <c r="A2445" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2445" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2445">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
@@ -27314,10 +27314,10 @@
         <v>44485</v>
       </c>
       <c r="B2446" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2446">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -27325,10 +27325,10 @@
         <v>44485</v>
       </c>
       <c r="B2447" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2447">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
@@ -27336,10 +27336,10 @@
         <v>44485</v>
       </c>
       <c r="B2448" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2448">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -27347,10 +27347,10 @@
         <v>44485</v>
       </c>
       <c r="B2449" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2449">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -27358,21 +27358,21 @@
         <v>44485</v>
       </c>
       <c r="B2450" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2450">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
       <c r="A2451" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2451" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2451">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -27380,7 +27380,7 @@
         <v>44486</v>
       </c>
       <c r="B2452" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2452">
         <v>2</v>
@@ -27391,10 +27391,10 @@
         <v>44486</v>
       </c>
       <c r="B2453" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2453">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -27402,10 +27402,10 @@
         <v>44486</v>
       </c>
       <c r="B2454" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2454">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -27413,10 +27413,10 @@
         <v>44486</v>
       </c>
       <c r="B2455" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2455">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -27424,7 +27424,7 @@
         <v>44486</v>
       </c>
       <c r="B2456" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2456">
         <v>3</v>
@@ -27432,13 +27432,13 @@
     </row>
     <row r="2457" spans="1:3">
       <c r="A2457" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2457" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2457">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -27446,10 +27446,10 @@
         <v>44487</v>
       </c>
       <c r="B2458" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2458">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -27457,7 +27457,7 @@
         <v>44487</v>
       </c>
       <c r="B2459" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2459">
         <v>5</v>
@@ -27468,10 +27468,10 @@
         <v>44487</v>
       </c>
       <c r="B2460" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2460">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
@@ -27479,21 +27479,21 @@
         <v>44487</v>
       </c>
       <c r="B2461" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2461">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
       <c r="A2462" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B2462" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2462">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
@@ -27501,10 +27501,10 @@
         <v>44488</v>
       </c>
       <c r="B2463" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2463">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -27512,7 +27512,7 @@
         <v>44488</v>
       </c>
       <c r="B2464" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2464">
         <v>3</v>
@@ -27523,7 +27523,7 @@
         <v>44488</v>
       </c>
       <c r="B2465" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2465">
         <v>4</v>
@@ -27534,10 +27534,10 @@
         <v>44488</v>
       </c>
       <c r="B2466" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2466">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -27545,21 +27545,21 @@
         <v>44488</v>
       </c>
       <c r="B2467" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2467">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
       <c r="A2468" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B2468" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2468">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
@@ -27567,10 +27567,10 @@
         <v>44489</v>
       </c>
       <c r="B2469" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2469">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -27578,10 +27578,10 @@
         <v>44489</v>
       </c>
       <c r="B2470" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2470">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -27589,10 +27589,10 @@
         <v>44489</v>
       </c>
       <c r="B2471" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2471">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -27600,7 +27600,7 @@
         <v>44489</v>
       </c>
       <c r="B2472" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2472">
         <v>7</v>
@@ -27608,13 +27608,13 @@
     </row>
     <row r="2473" spans="1:3">
       <c r="A2473" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B2473" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2473">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
@@ -27622,7 +27622,7 @@
         <v>44490</v>
       </c>
       <c r="B2474" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2474">
         <v>1</v>
@@ -27633,10 +27633,10 @@
         <v>44490</v>
       </c>
       <c r="B2475" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2475">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -27644,10 +27644,10 @@
         <v>44490</v>
       </c>
       <c r="B2476" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2476">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
@@ -27655,21 +27655,21 @@
         <v>44490</v>
       </c>
       <c r="B2477" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2477">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
       <c r="A2478" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B2478" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2478">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -27677,10 +27677,10 @@
         <v>44491</v>
       </c>
       <c r="B2479" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2479">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -27688,10 +27688,10 @@
         <v>44491</v>
       </c>
       <c r="B2480" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2480">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -27699,32 +27699,32 @@
         <v>44491</v>
       </c>
       <c r="B2481" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2481">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
       <c r="A2482" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B2482" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2482">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
       <c r="A2483" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B2483" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2483">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
@@ -27732,10 +27732,10 @@
         <v>44492</v>
       </c>
       <c r="B2484" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2484">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
@@ -27743,10 +27743,10 @@
         <v>44492</v>
       </c>
       <c r="B2485" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2485">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -27754,10 +27754,10 @@
         <v>44492</v>
       </c>
       <c r="B2486" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2486">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
@@ -27765,32 +27765,32 @@
         <v>44492</v>
       </c>
       <c r="B2487" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2487">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
       <c r="A2488" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B2488" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2488">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2489" spans="1:3">
       <c r="A2489" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B2489" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2489">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
@@ -27798,10 +27798,10 @@
         <v>44493</v>
       </c>
       <c r="B2490" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -27809,10 +27809,10 @@
         <v>44493</v>
       </c>
       <c r="B2491" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2491">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -27820,31 +27820,141 @@
         <v>44493</v>
       </c>
       <c r="B2492" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2492">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
       <c r="A2493" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B2493" t="s">
         <v>3</v>
       </c>
       <c r="C2493">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
       <c r="A2494" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2494">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:3">
+      <c r="A2495" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2495">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:3">
+      <c r="A2496" s="2">
         <v>44494</v>
       </c>
-      <c r="B2494" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2494">
+      <c r="B2496" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:3">
+      <c r="A2497" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:3">
+      <c r="A2498" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2498">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:3">
+      <c r="A2499" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B2499" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:3">
+      <c r="A2500" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B2500" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2500">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:3">
+      <c r="A2501" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B2501" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:3">
+      <c r="A2502" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B2502" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:3">
+      <c r="A2503" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B2503" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:3">
+      <c r="A2504" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B2504" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2504">
         <v>1</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2504"/>
+  <dimension ref="A1:C2510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24479,7 +24479,7 @@
         <v>7</v>
       </c>
       <c r="C2188">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -24809,7 +24809,7 @@
         <v>5</v>
       </c>
       <c r="C2218">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2219" spans="1:3">
@@ -24853,7 +24853,7 @@
         <v>3</v>
       </c>
       <c r="C2222">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2223" spans="1:3">
@@ -24919,7 +24919,7 @@
         <v>4</v>
       </c>
       <c r="C2228">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2229" spans="1:3">
@@ -25128,7 +25128,7 @@
         <v>4</v>
       </c>
       <c r="C2247">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2248" spans="1:3">
@@ -25348,7 +25348,7 @@
         <v>5</v>
       </c>
       <c r="C2267">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -25854,7 +25854,7 @@
         <v>4</v>
       </c>
       <c r="C2313">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
@@ -25865,7 +25865,7 @@
         <v>5</v>
       </c>
       <c r="C2314">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
@@ -25909,7 +25909,7 @@
         <v>3</v>
       </c>
       <c r="C2318">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
@@ -26250,7 +26250,7 @@
         <v>3</v>
       </c>
       <c r="C2349">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -26382,7 +26382,7 @@
         <v>3</v>
       </c>
       <c r="C2361">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -26701,7 +26701,7 @@
         <v>5</v>
       </c>
       <c r="C2390">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -27039,10 +27039,10 @@
         <v>44480</v>
       </c>
       <c r="B2421" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27050,10 +27050,10 @@
         <v>44480</v>
       </c>
       <c r="B2422" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2422">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27061,10 +27061,10 @@
         <v>44480</v>
       </c>
       <c r="B2423" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2423">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
@@ -27072,7 +27072,7 @@
         <v>44480</v>
       </c>
       <c r="B2424" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2424">
         <v>7</v>
@@ -27083,21 +27083,21 @@
         <v>44480</v>
       </c>
       <c r="B2425" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2425">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
       <c r="A2426" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2426">
         <v>9</v>
-      </c>
-      <c r="C2426">
-        <v>1</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
@@ -27105,10 +27105,10 @@
         <v>44481</v>
       </c>
       <c r="B2427" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -27116,10 +27116,10 @@
         <v>44481</v>
       </c>
       <c r="B2428" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2428">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -27127,7 +27127,7 @@
         <v>44481</v>
       </c>
       <c r="B2429" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2429">
         <v>5</v>
@@ -27138,10 +27138,10 @@
         <v>44481</v>
       </c>
       <c r="B2430" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2430">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
@@ -27149,21 +27149,21 @@
         <v>44481</v>
       </c>
       <c r="B2431" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2431">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
       <c r="A2432" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2432" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2432">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -27171,10 +27171,10 @@
         <v>44482</v>
       </c>
       <c r="B2433" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2433">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -27182,10 +27182,10 @@
         <v>44482</v>
       </c>
       <c r="B2434" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2434">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -27193,10 +27193,10 @@
         <v>44482</v>
       </c>
       <c r="B2435" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2435">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
@@ -27204,21 +27204,21 @@
         <v>44482</v>
       </c>
       <c r="B2436" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2436">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
       <c r="A2437" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2437" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2437">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
@@ -27226,10 +27226,10 @@
         <v>44483</v>
       </c>
       <c r="B2438" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -27237,10 +27237,10 @@
         <v>44483</v>
       </c>
       <c r="B2439" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2439">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -27248,10 +27248,10 @@
         <v>44483</v>
       </c>
       <c r="B2440" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2440">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
@@ -27259,21 +27259,21 @@
         <v>44483</v>
       </c>
       <c r="B2441" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2441">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
       <c r="A2442" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B2442" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2442">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -27281,10 +27281,10 @@
         <v>44484</v>
       </c>
       <c r="B2443" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2443">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -27292,10 +27292,10 @@
         <v>44484</v>
       </c>
       <c r="B2444" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2444">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
@@ -27303,32 +27303,32 @@
         <v>44484</v>
       </c>
       <c r="B2445" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2445">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
       <c r="A2446" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2446" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2446">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
       <c r="A2447" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2447" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2447">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
@@ -27336,10 +27336,10 @@
         <v>44485</v>
       </c>
       <c r="B2448" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2448">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -27347,10 +27347,10 @@
         <v>44485</v>
       </c>
       <c r="B2449" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2449">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -27358,7 +27358,7 @@
         <v>44485</v>
       </c>
       <c r="B2450" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2450">
         <v>2</v>
@@ -27369,18 +27369,18 @@
         <v>44485</v>
       </c>
       <c r="B2451" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2451">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
       <c r="A2452" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2452" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2452">
         <v>2</v>
@@ -27388,13 +27388,13 @@
     </row>
     <row r="2453" spans="1:3">
       <c r="A2453" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2453" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2453">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -27402,10 +27402,10 @@
         <v>44486</v>
       </c>
       <c r="B2454" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2454">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -27413,10 +27413,10 @@
         <v>44486</v>
       </c>
       <c r="B2455" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2455">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -27424,10 +27424,10 @@
         <v>44486</v>
       </c>
       <c r="B2456" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2456">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
@@ -27435,29 +27435,29 @@
         <v>44486</v>
       </c>
       <c r="B2457" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2457">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
       <c r="A2458" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2458" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2458">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
       <c r="A2459" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2459" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2459">
         <v>5</v>
@@ -27468,10 +27468,10 @@
         <v>44487</v>
       </c>
       <c r="B2460" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2460">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
@@ -27479,10 +27479,10 @@
         <v>44487</v>
       </c>
       <c r="B2461" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2461">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -27490,7 +27490,7 @@
         <v>44487</v>
       </c>
       <c r="B2462" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2462">
         <v>5</v>
@@ -27498,24 +27498,24 @@
     </row>
     <row r="2463" spans="1:3">
       <c r="A2463" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B2463" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2463">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
       <c r="A2464" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B2464" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2464">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
@@ -27523,10 +27523,10 @@
         <v>44488</v>
       </c>
       <c r="B2465" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2465">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
@@ -27534,10 +27534,10 @@
         <v>44488</v>
       </c>
       <c r="B2466" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2466">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -27545,10 +27545,10 @@
         <v>44488</v>
       </c>
       <c r="B2467" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2467">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
@@ -27556,32 +27556,32 @@
         <v>44488</v>
       </c>
       <c r="B2468" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2468">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
       <c r="A2469" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B2469" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2469">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
       <c r="A2470" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B2470" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2470">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -27589,10 +27589,10 @@
         <v>44489</v>
       </c>
       <c r="B2471" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2471">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -27600,10 +27600,10 @@
         <v>44489</v>
       </c>
       <c r="B2472" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2472">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
@@ -27611,32 +27611,32 @@
         <v>44489</v>
       </c>
       <c r="B2473" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2473">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
       <c r="A2474" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B2474" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2474">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
       <c r="A2475" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B2475" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2475">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -27644,10 +27644,10 @@
         <v>44490</v>
       </c>
       <c r="B2476" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2476">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
@@ -27655,10 +27655,10 @@
         <v>44490</v>
       </c>
       <c r="B2477" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2477">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
@@ -27666,32 +27666,32 @@
         <v>44490</v>
       </c>
       <c r="B2478" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2478">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
       <c r="A2479" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B2479" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2479">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
       <c r="A2480" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B2480" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2480">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -27699,10 +27699,10 @@
         <v>44491</v>
       </c>
       <c r="B2481" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2481">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
@@ -27710,10 +27710,10 @@
         <v>44491</v>
       </c>
       <c r="B2482" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2482">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -27721,32 +27721,32 @@
         <v>44491</v>
       </c>
       <c r="B2483" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2483">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
       <c r="A2484" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B2484" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2484">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
       <c r="A2485" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B2485" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2485">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -27754,10 +27754,10 @@
         <v>44492</v>
       </c>
       <c r="B2486" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2486">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
@@ -27765,10 +27765,10 @@
         <v>44492</v>
       </c>
       <c r="B2487" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2487">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
@@ -27776,7 +27776,7 @@
         <v>44492</v>
       </c>
       <c r="B2488" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2488">
         <v>5</v>
@@ -27787,32 +27787,32 @@
         <v>44492</v>
       </c>
       <c r="B2489" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2489">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
       <c r="A2490" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B2490" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2490">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
       <c r="A2491" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B2491" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2491">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -27820,7 +27820,7 @@
         <v>44493</v>
       </c>
       <c r="B2492" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2492">
         <v>2</v>
@@ -27831,7 +27831,7 @@
         <v>44493</v>
       </c>
       <c r="B2493" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2493">
         <v>1</v>
@@ -27842,10 +27842,10 @@
         <v>44493</v>
       </c>
       <c r="B2494" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2494">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
@@ -27853,32 +27853,32 @@
         <v>44493</v>
       </c>
       <c r="B2495" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2495">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
       <c r="A2496" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B2496" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2496">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
       <c r="A2497" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B2497" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2497">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
@@ -27886,10 +27886,10 @@
         <v>44494</v>
       </c>
       <c r="B2498" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2498">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
@@ -27897,7 +27897,7 @@
         <v>44494</v>
       </c>
       <c r="B2499" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2499">
         <v>2</v>
@@ -27908,7 +27908,7 @@
         <v>44494</v>
       </c>
       <c r="B2500" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2500">
         <v>5</v>
@@ -27916,10 +27916,10 @@
     </row>
     <row r="2501" spans="1:3">
       <c r="A2501" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B2501" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2501">
         <v>2</v>
@@ -27927,13 +27927,13 @@
     </row>
     <row r="2502" spans="1:3">
       <c r="A2502" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B2502" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2502">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
@@ -27941,10 +27941,10 @@
         <v>44495</v>
       </c>
       <c r="B2503" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
@@ -27952,9 +27952,75 @@
         <v>44495</v>
       </c>
       <c r="B2504" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:3">
+      <c r="A2505" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B2505" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2505">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:3">
+      <c r="A2506" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B2506" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2506">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:3">
+      <c r="A2507" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B2507" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:3">
+      <c r="A2508" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B2508" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:3">
+      <c r="A2509" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B2509" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:3">
+      <c r="A2510" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B2510" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2510">
         <v>1</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2510"/>
+  <dimension ref="A1:C2513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26965,7 +26965,7 @@
         <v>5</v>
       </c>
       <c r="C2414">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
@@ -27383,7 +27383,7 @@
         <v>4</v>
       </c>
       <c r="C2452">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -27724,7 +27724,7 @@
         <v>3</v>
       </c>
       <c r="C2483">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
@@ -27754,7 +27754,7 @@
         <v>44492</v>
       </c>
       <c r="B2486" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2486">
         <v>1</v>
@@ -27765,7 +27765,7 @@
         <v>44492</v>
       </c>
       <c r="B2487" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2487">
         <v>1</v>
@@ -27776,10 +27776,10 @@
         <v>44492</v>
       </c>
       <c r="B2488" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2488">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2489" spans="1:3">
@@ -27787,10 +27787,10 @@
         <v>44492</v>
       </c>
       <c r="B2489" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2489">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
@@ -27798,10 +27798,10 @@
         <v>44492</v>
       </c>
       <c r="B2490" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2490">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -27809,21 +27809,21 @@
         <v>44492</v>
       </c>
       <c r="B2491" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2491">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
       <c r="A2492" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B2492" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2492">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
@@ -27831,10 +27831,10 @@
         <v>44493</v>
       </c>
       <c r="B2493" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
@@ -27842,10 +27842,10 @@
         <v>44493</v>
       </c>
       <c r="B2494" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2494">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
@@ -27853,10 +27853,10 @@
         <v>44493</v>
       </c>
       <c r="B2495" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2495">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
@@ -27864,10 +27864,10 @@
         <v>44493</v>
       </c>
       <c r="B2496" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2496">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
@@ -27875,21 +27875,21 @@
         <v>44493</v>
       </c>
       <c r="B2497" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2497">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
       <c r="A2498" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B2498" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2498">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
@@ -27897,10 +27897,10 @@
         <v>44494</v>
       </c>
       <c r="B2499" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2499">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
@@ -27908,10 +27908,10 @@
         <v>44494</v>
       </c>
       <c r="B2500" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2500">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
@@ -27919,10 +27919,10 @@
         <v>44494</v>
       </c>
       <c r="B2501" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2501">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
@@ -27930,21 +27930,21 @@
         <v>44494</v>
       </c>
       <c r="B2502" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2502">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
       <c r="A2503" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B2503" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2503">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
@@ -27952,7 +27952,7 @@
         <v>44495</v>
       </c>
       <c r="B2504" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2504">
         <v>2</v>
@@ -27963,10 +27963,10 @@
         <v>44495</v>
       </c>
       <c r="B2505" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2505">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2506" spans="1:3">
@@ -27974,10 +27974,10 @@
         <v>44495</v>
       </c>
       <c r="B2506" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2506">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2507" spans="1:3">
@@ -27985,21 +27985,21 @@
         <v>44495</v>
       </c>
       <c r="B2507" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2507">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2508" spans="1:3">
       <c r="A2508" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B2508" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2508">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2509" spans="1:3">
@@ -28007,10 +28007,10 @@
         <v>44496</v>
       </c>
       <c r="B2509" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2509">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
@@ -28018,9 +28018,42 @@
         <v>44496</v>
       </c>
       <c r="B2510" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2510">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:3">
+      <c r="A2511" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B2511" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:3">
+      <c r="A2512" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B2512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2512">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:3">
+      <c r="A2513" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2513">
         <v>1</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2513"/>
+  <dimension ref="A1:C2522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25447,7 +25447,7 @@
         <v>7</v>
       </c>
       <c r="C2276">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
@@ -25634,7 +25634,7 @@
         <v>7</v>
       </c>
       <c r="C2293">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
@@ -26943,7 +26943,7 @@
         <v>3</v>
       </c>
       <c r="C2412">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
@@ -27262,7 +27262,7 @@
         <v>4</v>
       </c>
       <c r="C2441">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27438,7 +27438,7 @@
         <v>3</v>
       </c>
       <c r="C2457">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -27493,7 +27493,7 @@
         <v>3</v>
       </c>
       <c r="C2462">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
@@ -27504,7 +27504,7 @@
         <v>4</v>
       </c>
       <c r="C2463">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -27581,7 +27581,7 @@
         <v>5</v>
       </c>
       <c r="C2470">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -27636,7 +27636,7 @@
         <v>5</v>
       </c>
       <c r="C2475">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -27669,7 +27669,7 @@
         <v>3</v>
       </c>
       <c r="C2478">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -27680,7 +27680,7 @@
         <v>4</v>
       </c>
       <c r="C2479">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -27691,7 +27691,7 @@
         <v>5</v>
       </c>
       <c r="C2480">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -27713,7 +27713,7 @@
         <v>7</v>
       </c>
       <c r="C2482">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -27735,7 +27735,7 @@
         <v>4</v>
       </c>
       <c r="C2484">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
@@ -27746,7 +27746,7 @@
         <v>5</v>
       </c>
       <c r="C2485">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -27790,7 +27790,7 @@
         <v>7</v>
       </c>
       <c r="C2489">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
@@ -27831,10 +27831,10 @@
         <v>44493</v>
       </c>
       <c r="B2493" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2493">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
@@ -27842,10 +27842,10 @@
         <v>44493</v>
       </c>
       <c r="B2494" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2494">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
@@ -27853,10 +27853,10 @@
         <v>44493</v>
       </c>
       <c r="B2495" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2495">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
@@ -27864,7 +27864,7 @@
         <v>44493</v>
       </c>
       <c r="B2496" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2496">
         <v>3</v>
@@ -27875,10 +27875,10 @@
         <v>44493</v>
       </c>
       <c r="B2497" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2497">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
@@ -27886,21 +27886,21 @@
         <v>44493</v>
       </c>
       <c r="B2498" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2498">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
       <c r="A2499" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B2499" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2499">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
@@ -27908,10 +27908,10 @@
         <v>44494</v>
       </c>
       <c r="B2500" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
@@ -27919,10 +27919,10 @@
         <v>44494</v>
       </c>
       <c r="B2501" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2501">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
@@ -27930,10 +27930,10 @@
         <v>44494</v>
       </c>
       <c r="B2502" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2502">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
@@ -27941,21 +27941,21 @@
         <v>44494</v>
       </c>
       <c r="B2503" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2503">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
       <c r="A2504" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B2504" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2504">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2505" spans="1:3">
@@ -27963,7 +27963,7 @@
         <v>44495</v>
       </c>
       <c r="B2505" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2505">
         <v>2</v>
@@ -27974,10 +27974,10 @@
         <v>44495</v>
       </c>
       <c r="B2506" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2506">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2507" spans="1:3">
@@ -27985,10 +27985,10 @@
         <v>44495</v>
       </c>
       <c r="B2507" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2507">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2508" spans="1:3">
@@ -27996,21 +27996,21 @@
         <v>44495</v>
       </c>
       <c r="B2508" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2508">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2509" spans="1:3">
       <c r="A2509" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B2509" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2509">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
@@ -28018,10 +28018,10 @@
         <v>44496</v>
       </c>
       <c r="B2510" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2510">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2511" spans="1:3">
@@ -28029,10 +28029,10 @@
         <v>44496</v>
       </c>
       <c r="B2511" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2511">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
@@ -28040,20 +28040,119 @@
         <v>44496</v>
       </c>
       <c r="B2512" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2512">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2513" spans="1:3">
       <c r="A2513" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B2513" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:3">
+      <c r="A2514" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B2514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:3">
+      <c r="A2515" s="2">
         <v>44497</v>
       </c>
-      <c r="B2513" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2513">
+      <c r="B2515" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B2516" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2516">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2517">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2521">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2522">
         <v>1</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2522"/>
+  <dimension ref="A1:C2536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14876,7 +14876,7 @@
         <v>3</v>
       </c>
       <c r="C1315">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -26943,7 +26943,7 @@
         <v>3</v>
       </c>
       <c r="C2412">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
@@ -27812,7 +27812,7 @@
         <v>4</v>
       </c>
       <c r="C2491">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -28054,7 +28054,7 @@
         <v>4</v>
       </c>
       <c r="C2513">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2514" spans="1:3">
@@ -28073,7 +28073,7 @@
         <v>44497</v>
       </c>
       <c r="B2515" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2515">
         <v>1</v>
@@ -28084,10 +28084,10 @@
         <v>44497</v>
       </c>
       <c r="B2516" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2516">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2517" spans="1:3">
@@ -28095,7 +28095,7 @@
         <v>44497</v>
       </c>
       <c r="B2517" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2517">
         <v>4</v>
@@ -28106,21 +28106,21 @@
         <v>44497</v>
       </c>
       <c r="B2518" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2518">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2519" spans="1:3">
       <c r="A2519" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B2519" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2519">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2520" spans="1:3">
@@ -28128,10 +28128,10 @@
         <v>44498</v>
       </c>
       <c r="B2520" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
@@ -28139,7 +28139,7 @@
         <v>44498</v>
       </c>
       <c r="B2521" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2521">
         <v>3</v>
@@ -28150,9 +28150,163 @@
         <v>44498</v>
       </c>
       <c r="B2522" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2522">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2523">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2526">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2528">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2529">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3">
+      <c r="A2533" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2533">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3">
+      <c r="A2534" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3">
+      <c r="A2535" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3">
+      <c r="A2536" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2536">
         <v>1</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2536"/>
+  <dimension ref="A1:C2543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24061,7 +24061,7 @@
         <v>4</v>
       </c>
       <c r="C2150">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2151" spans="1:3">
@@ -26082,10 +26082,10 @@
         <v>44465</v>
       </c>
       <c r="B2334" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2334">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
@@ -26093,10 +26093,10 @@
         <v>44465</v>
       </c>
       <c r="B2335" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2335">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
@@ -26104,10 +26104,10 @@
         <v>44465</v>
       </c>
       <c r="B2336" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2336">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
@@ -26115,10 +26115,10 @@
         <v>44465</v>
       </c>
       <c r="B2337" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2337">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
@@ -26126,10 +26126,10 @@
         <v>44465</v>
       </c>
       <c r="B2338" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2338">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
@@ -26137,21 +26137,21 @@
         <v>44465</v>
       </c>
       <c r="B2339" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2339">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
       <c r="A2340" s="2">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B2340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2340">
         <v>6</v>
-      </c>
-      <c r="C2340">
-        <v>3</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
@@ -26159,10 +26159,10 @@
         <v>44466</v>
       </c>
       <c r="B2341" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2341">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -26170,10 +26170,10 @@
         <v>44466</v>
       </c>
       <c r="B2342" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2342">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
@@ -26181,10 +26181,10 @@
         <v>44466</v>
       </c>
       <c r="B2343" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2343">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
@@ -26192,10 +26192,10 @@
         <v>44466</v>
       </c>
       <c r="B2344" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2344">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -26203,21 +26203,21 @@
         <v>44466</v>
       </c>
       <c r="B2345" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2345">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
       <c r="A2346" s="2">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B2346" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2346">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
@@ -26225,10 +26225,10 @@
         <v>44467</v>
       </c>
       <c r="B2347" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2347">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
@@ -26236,10 +26236,10 @@
         <v>44467</v>
       </c>
       <c r="B2348" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2348">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -26247,10 +26247,10 @@
         <v>44467</v>
       </c>
       <c r="B2349" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2349">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
@@ -26258,10 +26258,10 @@
         <v>44467</v>
       </c>
       <c r="B2350" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2350">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
@@ -26269,21 +26269,21 @@
         <v>44467</v>
       </c>
       <c r="B2351" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2351">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
       <c r="A2352" s="2">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B2352" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2352">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -26291,10 +26291,10 @@
         <v>44468</v>
       </c>
       <c r="B2353" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
@@ -26302,10 +26302,10 @@
         <v>44468</v>
       </c>
       <c r="B2354" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2354">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
@@ -26313,10 +26313,10 @@
         <v>44468</v>
       </c>
       <c r="B2355" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2355">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
@@ -26324,10 +26324,10 @@
         <v>44468</v>
       </c>
       <c r="B2356" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2356">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
@@ -26335,10 +26335,10 @@
         <v>44468</v>
       </c>
       <c r="B2357" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2357">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -26346,21 +26346,21 @@
         <v>44468</v>
       </c>
       <c r="B2358" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2358">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
       <c r="A2359" s="2">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B2359" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2359">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -26368,10 +26368,10 @@
         <v>44469</v>
       </c>
       <c r="B2360" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2360">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
@@ -26379,10 +26379,10 @@
         <v>44469</v>
       </c>
       <c r="B2361" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2361">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
@@ -26390,10 +26390,10 @@
         <v>44469</v>
       </c>
       <c r="B2362" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2362">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
@@ -26401,21 +26401,21 @@
         <v>44469</v>
       </c>
       <c r="B2363" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2363">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
       <c r="A2364" s="2">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B2364" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2364">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
@@ -26423,10 +26423,10 @@
         <v>44470</v>
       </c>
       <c r="B2365" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2365">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
@@ -26434,10 +26434,10 @@
         <v>44470</v>
       </c>
       <c r="B2366" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2366">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
@@ -26445,10 +26445,10 @@
         <v>44470</v>
       </c>
       <c r="B2367" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2367">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -26456,21 +26456,21 @@
         <v>44470</v>
       </c>
       <c r="B2368" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2368">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
       <c r="A2369" s="2">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B2369" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2369">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
@@ -26478,10 +26478,10 @@
         <v>44471</v>
       </c>
       <c r="B2370" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2370">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
@@ -26489,10 +26489,10 @@
         <v>44471</v>
       </c>
       <c r="B2371" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2371">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
@@ -26500,10 +26500,10 @@
         <v>44471</v>
       </c>
       <c r="B2372" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2372">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
@@ -26511,21 +26511,21 @@
         <v>44471</v>
       </c>
       <c r="B2373" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2373">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
       <c r="A2374" s="2">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B2374" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2374">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
@@ -26533,10 +26533,10 @@
         <v>44472</v>
       </c>
       <c r="B2375" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2375">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
@@ -26544,10 +26544,10 @@
         <v>44472</v>
       </c>
       <c r="B2376" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2376">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
@@ -26555,10 +26555,10 @@
         <v>44472</v>
       </c>
       <c r="B2377" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2377">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -26566,21 +26566,21 @@
         <v>44472</v>
       </c>
       <c r="B2378" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2378">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
       <c r="A2379" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B2379" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2379">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
@@ -26588,7 +26588,7 @@
         <v>44473</v>
       </c>
       <c r="B2380" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2380">
         <v>1</v>
@@ -26599,10 +26599,10 @@
         <v>44473</v>
       </c>
       <c r="B2381" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2381">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
@@ -26610,10 +26610,10 @@
         <v>44473</v>
       </c>
       <c r="B2382" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2382">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
@@ -26621,7 +26621,7 @@
         <v>44473</v>
       </c>
       <c r="B2383" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2383">
         <v>11</v>
@@ -26632,21 +26632,21 @@
         <v>44473</v>
       </c>
       <c r="B2384" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2384">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
       <c r="A2385" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B2385" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2385">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
@@ -26654,10 +26654,10 @@
         <v>44474</v>
       </c>
       <c r="B2386" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2386">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -26665,10 +26665,10 @@
         <v>44474</v>
       </c>
       <c r="B2387" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2387">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
@@ -26676,10 +26676,10 @@
         <v>44474</v>
       </c>
       <c r="B2388" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2388">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -26687,10 +26687,10 @@
         <v>44474</v>
       </c>
       <c r="B2389" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2389">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -26698,21 +26698,21 @@
         <v>44474</v>
       </c>
       <c r="B2390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2390">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
       <c r="A2391" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B2391" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2391">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -26720,10 +26720,10 @@
         <v>44475</v>
       </c>
       <c r="B2392" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2392">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -26731,10 +26731,10 @@
         <v>44475</v>
       </c>
       <c r="B2393" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2393">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -26742,10 +26742,10 @@
         <v>44475</v>
       </c>
       <c r="B2394" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2394">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -26753,10 +26753,10 @@
         <v>44475</v>
       </c>
       <c r="B2395" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2395">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -26764,10 +26764,10 @@
         <v>44475</v>
       </c>
       <c r="B2396" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2396">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -26775,21 +26775,21 @@
         <v>44475</v>
       </c>
       <c r="B2397" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2397">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
       <c r="A2398" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B2398" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2398">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
@@ -26797,10 +26797,10 @@
         <v>44476</v>
       </c>
       <c r="B2399" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -26808,10 +26808,10 @@
         <v>44476</v>
       </c>
       <c r="B2400" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2400">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -26819,10 +26819,10 @@
         <v>44476</v>
       </c>
       <c r="B2401" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2401">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -26830,10 +26830,10 @@
         <v>44476</v>
       </c>
       <c r="B2402" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2402">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -26841,21 +26841,21 @@
         <v>44476</v>
       </c>
       <c r="B2403" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2403">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
       <c r="A2404" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B2404" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2404">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
@@ -26863,10 +26863,10 @@
         <v>44477</v>
       </c>
       <c r="B2405" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2405">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -26874,10 +26874,10 @@
         <v>44477</v>
       </c>
       <c r="B2406" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2406">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -26885,10 +26885,10 @@
         <v>44477</v>
       </c>
       <c r="B2407" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2407">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
@@ -26896,21 +26896,21 @@
         <v>44477</v>
       </c>
       <c r="B2408" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2408">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
       <c r="A2409" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B2409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2409">
         <v>6</v>
-      </c>
-      <c r="C2409">
-        <v>2</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
@@ -26918,10 +26918,10 @@
         <v>44478</v>
       </c>
       <c r="B2410" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2410">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
@@ -26929,10 +26929,10 @@
         <v>44478</v>
       </c>
       <c r="B2411" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2411">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
@@ -26940,10 +26940,10 @@
         <v>44478</v>
       </c>
       <c r="B2412" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2412">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
@@ -26951,7 +26951,7 @@
         <v>44478</v>
       </c>
       <c r="B2413" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2413">
         <v>6</v>
@@ -26962,7 +26962,7 @@
         <v>44478</v>
       </c>
       <c r="B2414" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2414">
         <v>6</v>
@@ -26970,13 +26970,13 @@
     </row>
     <row r="2415" spans="1:3">
       <c r="A2415" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B2415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2415">
         <v>6</v>
-      </c>
-      <c r="C2415">
-        <v>1</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
@@ -26984,10 +26984,10 @@
         <v>44479</v>
       </c>
       <c r="B2416" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
@@ -26995,7 +26995,7 @@
         <v>44479</v>
       </c>
       <c r="B2417" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2417">
         <v>2</v>
@@ -27006,10 +27006,10 @@
         <v>44479</v>
       </c>
       <c r="B2418" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2418">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
@@ -27017,10 +27017,10 @@
         <v>44479</v>
       </c>
       <c r="B2419" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2419">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -27028,21 +27028,21 @@
         <v>44479</v>
       </c>
       <c r="B2420" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2420">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
       <c r="A2421" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B2421" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2421">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
@@ -27050,10 +27050,10 @@
         <v>44480</v>
       </c>
       <c r="B2422" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2422">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27061,10 +27061,10 @@
         <v>44480</v>
       </c>
       <c r="B2423" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2423">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
@@ -27072,10 +27072,10 @@
         <v>44480</v>
       </c>
       <c r="B2424" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2424">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
@@ -27083,7 +27083,7 @@
         <v>44480</v>
       </c>
       <c r="B2425" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2425">
         <v>7</v>
@@ -27094,21 +27094,21 @@
         <v>44480</v>
       </c>
       <c r="B2426" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2426">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
       <c r="A2427" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2427">
         <v>9</v>
-      </c>
-      <c r="C2427">
-        <v>1</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
@@ -27116,10 +27116,10 @@
         <v>44481</v>
       </c>
       <c r="B2428" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -27127,10 +27127,10 @@
         <v>44481</v>
       </c>
       <c r="B2429" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2429">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -27138,7 +27138,7 @@
         <v>44481</v>
       </c>
       <c r="B2430" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2430">
         <v>5</v>
@@ -27149,10 +27149,10 @@
         <v>44481</v>
       </c>
       <c r="B2431" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2431">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
@@ -27160,21 +27160,21 @@
         <v>44481</v>
       </c>
       <c r="B2432" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2432">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
       <c r="A2433" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2433" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2433">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
@@ -27182,10 +27182,10 @@
         <v>44482</v>
       </c>
       <c r="B2434" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -27193,10 +27193,10 @@
         <v>44482</v>
       </c>
       <c r="B2435" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2435">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
@@ -27204,10 +27204,10 @@
         <v>44482</v>
       </c>
       <c r="B2436" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2436">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -27215,7 +27215,7 @@
         <v>44482</v>
       </c>
       <c r="B2437" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2437">
         <v>7</v>
@@ -27223,13 +27223,13 @@
     </row>
     <row r="2438" spans="1:3">
       <c r="A2438" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2438" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2438">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
@@ -27237,10 +27237,10 @@
         <v>44483</v>
       </c>
       <c r="B2439" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2439">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -27248,10 +27248,10 @@
         <v>44483</v>
       </c>
       <c r="B2440" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2440">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
@@ -27259,10 +27259,10 @@
         <v>44483</v>
       </c>
       <c r="B2441" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2441">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27270,21 +27270,21 @@
         <v>44483</v>
       </c>
       <c r="B2442" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2442">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
       <c r="A2443" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B2443" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2443">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
@@ -27292,10 +27292,10 @@
         <v>44484</v>
       </c>
       <c r="B2444" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2444">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
@@ -27303,10 +27303,10 @@
         <v>44484</v>
       </c>
       <c r="B2445" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2445">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
@@ -27314,10 +27314,10 @@
         <v>44484</v>
       </c>
       <c r="B2446" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2446">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -27325,21 +27325,21 @@
         <v>44484</v>
       </c>
       <c r="B2447" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2447">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
       <c r="A2448" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2448" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2448">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
@@ -27347,10 +27347,10 @@
         <v>44485</v>
       </c>
       <c r="B2449" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2449">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -27358,10 +27358,10 @@
         <v>44485</v>
       </c>
       <c r="B2450" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2450">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
@@ -27369,10 +27369,10 @@
         <v>44485</v>
       </c>
       <c r="B2451" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2451">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -27380,10 +27380,10 @@
         <v>44485</v>
       </c>
       <c r="B2452" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2452">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -27391,21 +27391,21 @@
         <v>44485</v>
       </c>
       <c r="B2453" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2453">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
       <c r="A2454" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2454" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2454">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -27413,7 +27413,7 @@
         <v>44486</v>
       </c>
       <c r="B2455" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2455">
         <v>2</v>
@@ -27424,10 +27424,10 @@
         <v>44486</v>
       </c>
       <c r="B2456" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2456">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
@@ -27435,10 +27435,10 @@
         <v>44486</v>
       </c>
       <c r="B2457" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2457">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -27446,10 +27446,10 @@
         <v>44486</v>
       </c>
       <c r="B2458" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2458">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -27457,21 +27457,21 @@
         <v>44486</v>
       </c>
       <c r="B2459" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2459">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
       <c r="A2460" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2460" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2460">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
@@ -27479,10 +27479,10 @@
         <v>44487</v>
       </c>
       <c r="B2461" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2461">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -27490,10 +27490,10 @@
         <v>44487</v>
       </c>
       <c r="B2462" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2462">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
@@ -27501,10 +27501,10 @@
         <v>44487</v>
       </c>
       <c r="B2463" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2463">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -27512,21 +27512,21 @@
         <v>44487</v>
       </c>
       <c r="B2464" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2464">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
       <c r="A2465" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B2465" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2465">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
@@ -27534,10 +27534,10 @@
         <v>44488</v>
       </c>
       <c r="B2466" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2466">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -27545,10 +27545,10 @@
         <v>44488</v>
       </c>
       <c r="B2467" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2467">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
@@ -27556,7 +27556,7 @@
         <v>44488</v>
       </c>
       <c r="B2468" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2468">
         <v>4</v>
@@ -27567,10 +27567,10 @@
         <v>44488</v>
       </c>
       <c r="B2469" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2469">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
@@ -27578,7 +27578,7 @@
         <v>44488</v>
       </c>
       <c r="B2470" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2470">
         <v>9</v>
@@ -27586,13 +27586,13 @@
     </row>
     <row r="2471" spans="1:3">
       <c r="A2471" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B2471" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2471">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
@@ -27600,10 +27600,10 @@
         <v>44489</v>
       </c>
       <c r="B2472" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2472">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
@@ -27611,10 +27611,10 @@
         <v>44489</v>
       </c>
       <c r="B2473" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2473">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
@@ -27622,7 +27622,7 @@
         <v>44489</v>
       </c>
       <c r="B2474" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2474">
         <v>7</v>
@@ -27633,7 +27633,7 @@
         <v>44489</v>
       </c>
       <c r="B2475" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2475">
         <v>9</v>
@@ -27641,13 +27641,13 @@
     </row>
     <row r="2476" spans="1:3">
       <c r="A2476" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B2476" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2476">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
@@ -27655,10 +27655,10 @@
         <v>44490</v>
       </c>
       <c r="B2477" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2477">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
@@ -27666,10 +27666,10 @@
         <v>44490</v>
       </c>
       <c r="B2478" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2478">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -27677,10 +27677,10 @@
         <v>44490</v>
       </c>
       <c r="B2479" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2479">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -27688,7 +27688,7 @@
         <v>44490</v>
       </c>
       <c r="B2480" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2480">
         <v>6</v>
@@ -27696,13 +27696,13 @@
     </row>
     <row r="2481" spans="1:3">
       <c r="A2481" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B2481" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2481">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
@@ -27710,10 +27710,10 @@
         <v>44491</v>
       </c>
       <c r="B2482" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2482">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -27721,10 +27721,10 @@
         <v>44491</v>
       </c>
       <c r="B2483" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2483">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
@@ -27732,10 +27732,10 @@
         <v>44491</v>
       </c>
       <c r="B2484" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2484">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
@@ -27743,21 +27743,21 @@
         <v>44491</v>
       </c>
       <c r="B2485" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2485">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
       <c r="A2486" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B2486" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2486">
         <v>9</v>
-      </c>
-      <c r="C2486">
-        <v>1</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
@@ -27765,7 +27765,7 @@
         <v>44492</v>
       </c>
       <c r="B2487" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2487">
         <v>1</v>
@@ -27776,7 +27776,7 @@
         <v>44492</v>
       </c>
       <c r="B2488" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2488">
         <v>1</v>
@@ -27787,10 +27787,10 @@
         <v>44492</v>
       </c>
       <c r="B2489" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2489">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
@@ -27798,10 +27798,10 @@
         <v>44492</v>
       </c>
       <c r="B2490" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2490">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -27809,10 +27809,10 @@
         <v>44492</v>
       </c>
       <c r="B2491" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2491">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -27820,21 +27820,21 @@
         <v>44492</v>
       </c>
       <c r="B2492" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2492">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
       <c r="A2493" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B2493" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2493">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
@@ -27842,10 +27842,10 @@
         <v>44493</v>
       </c>
       <c r="B2494" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2494">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
@@ -27853,10 +27853,10 @@
         <v>44493</v>
       </c>
       <c r="B2495" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2495">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
@@ -27864,10 +27864,10 @@
         <v>44493</v>
       </c>
       <c r="B2496" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2496">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
@@ -27875,7 +27875,7 @@
         <v>44493</v>
       </c>
       <c r="B2497" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2497">
         <v>3</v>
@@ -27886,10 +27886,10 @@
         <v>44493</v>
       </c>
       <c r="B2498" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2498">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
@@ -27897,7 +27897,7 @@
         <v>44493</v>
       </c>
       <c r="B2499" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2499">
         <v>7</v>
@@ -27905,13 +27905,13 @@
     </row>
     <row r="2500" spans="1:3">
       <c r="A2500" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B2500" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2500">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
@@ -27919,10 +27919,10 @@
         <v>44494</v>
       </c>
       <c r="B2501" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2501">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
@@ -27930,10 +27930,10 @@
         <v>44494</v>
       </c>
       <c r="B2502" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2502">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
@@ -27941,10 +27941,10 @@
         <v>44494</v>
       </c>
       <c r="B2503" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2503">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
@@ -27952,21 +27952,21 @@
         <v>44494</v>
       </c>
       <c r="B2504" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2504">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2505" spans="1:3">
       <c r="A2505" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B2505" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2505">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2506" spans="1:3">
@@ -27974,10 +27974,10 @@
         <v>44495</v>
       </c>
       <c r="B2506" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2506">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2507" spans="1:3">
@@ -27985,10 +27985,10 @@
         <v>44495</v>
       </c>
       <c r="B2507" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2507">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2508" spans="1:3">
@@ -27996,7 +27996,7 @@
         <v>44495</v>
       </c>
       <c r="B2508" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2508">
         <v>5</v>
@@ -28007,21 +28007,21 @@
         <v>44495</v>
       </c>
       <c r="B2509" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2509">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
       <c r="A2510" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B2510" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2510">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2511" spans="1:3">
@@ -28029,10 +28029,10 @@
         <v>44496</v>
       </c>
       <c r="B2511" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2511">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
@@ -28040,10 +28040,10 @@
         <v>44496</v>
       </c>
       <c r="B2512" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2512">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2513" spans="1:3">
@@ -28051,10 +28051,10 @@
         <v>44496</v>
       </c>
       <c r="B2513" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2513">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2514" spans="1:3">
@@ -28062,21 +28062,21 @@
         <v>44496</v>
       </c>
       <c r="B2514" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2514">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2515" spans="1:3">
       <c r="A2515" s="2">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B2515" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2515">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2516" spans="1:3">
@@ -28084,7 +28084,7 @@
         <v>44497</v>
       </c>
       <c r="B2516" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2516">
         <v>1</v>
@@ -28095,10 +28095,10 @@
         <v>44497</v>
       </c>
       <c r="B2517" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2517">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2518" spans="1:3">
@@ -28106,10 +28106,10 @@
         <v>44497</v>
       </c>
       <c r="B2518" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2518">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2519" spans="1:3">
@@ -28117,21 +28117,21 @@
         <v>44497</v>
       </c>
       <c r="B2519" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2519">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2520" spans="1:3">
       <c r="A2520" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B2520" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2520">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
@@ -28139,10 +28139,10 @@
         <v>44498</v>
       </c>
       <c r="B2521" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2521">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2522" spans="1:3">
@@ -28150,10 +28150,10 @@
         <v>44498</v>
       </c>
       <c r="B2522" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2522">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2523" spans="1:3">
@@ -28161,7 +28161,7 @@
         <v>44498</v>
       </c>
       <c r="B2523" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2523">
         <v>4</v>
@@ -28172,21 +28172,21 @@
         <v>44498</v>
       </c>
       <c r="B2524" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2524">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2525" spans="1:3">
       <c r="A2525" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B2525" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2525">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2526" spans="1:3">
@@ -28194,10 +28194,10 @@
         <v>44499</v>
       </c>
       <c r="B2526" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2526">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2527" spans="1:3">
@@ -28205,7 +28205,7 @@
         <v>44499</v>
       </c>
       <c r="B2527" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2527">
         <v>2</v>
@@ -28216,10 +28216,10 @@
         <v>44499</v>
       </c>
       <c r="B2528" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2528">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2529" spans="1:3">
@@ -28227,21 +28227,21 @@
         <v>44499</v>
       </c>
       <c r="B2529" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2529">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2530" spans="1:3">
       <c r="A2530" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B2530" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2530">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2531" spans="1:3">
@@ -28249,7 +28249,7 @@
         <v>44500</v>
       </c>
       <c r="B2531" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2531">
         <v>1</v>
@@ -28260,10 +28260,10 @@
         <v>44500</v>
       </c>
       <c r="B2532" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2532">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2533" spans="1:3">
@@ -28271,7 +28271,7 @@
         <v>44500</v>
       </c>
       <c r="B2533" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2533">
         <v>3</v>
@@ -28282,10 +28282,10 @@
         <v>44500</v>
       </c>
       <c r="B2534" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2534">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2535" spans="1:3">
@@ -28293,20 +28293,97 @@
         <v>44500</v>
       </c>
       <c r="B2535" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2535">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2536" spans="1:3">
       <c r="A2536" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2536">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3">
+      <c r="A2537" s="2">
         <v>44501</v>
       </c>
-      <c r="B2536" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2536">
+      <c r="B2537" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3">
+      <c r="A2538" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2538">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3">
+      <c r="A2539" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3">
+      <c r="A2540" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3">
+      <c r="A2541" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2541">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3">
+      <c r="A2542" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3">
+      <c r="A2543" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2543">
         <v>1</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2543"/>
+  <dimension ref="A1:C2550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11719,7 +11719,7 @@
         <v>5</v>
       </c>
       <c r="C1028">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
@@ -13644,7 +13644,7 @@
         <v>4</v>
       </c>
       <c r="C1203">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
@@ -14271,7 +14271,7 @@
         <v>4</v>
       </c>
       <c r="C1260">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
@@ -26283,7 +26283,7 @@
         <v>5</v>
       </c>
       <c r="C2352">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
@@ -27405,7 +27405,7 @@
         <v>5</v>
       </c>
       <c r="C2454">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
@@ -27581,7 +27581,7 @@
         <v>4</v>
       </c>
       <c r="C2470">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -28230,7 +28230,7 @@
         <v>4</v>
       </c>
       <c r="C2529">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2530" spans="1:3">
@@ -28340,7 +28340,7 @@
         <v>3</v>
       </c>
       <c r="C2539">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2540" spans="1:3">
@@ -28362,7 +28362,7 @@
         <v>5</v>
       </c>
       <c r="C2541">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2542" spans="1:3">
@@ -28370,7 +28370,7 @@
         <v>44502</v>
       </c>
       <c r="B2542" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2542">
         <v>1</v>
@@ -28381,9 +28381,86 @@
         <v>44502</v>
       </c>
       <c r="B2543" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3">
+      <c r="A2544" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2544">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3">
+      <c r="A2545" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3">
+      <c r="A2546" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3">
+      <c r="A2547" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2547">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3">
+      <c r="A2548" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3">
+      <c r="A2549" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3">
+      <c r="A2550" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2550">
         <v>1</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2550"/>
+  <dimension ref="A1:C2556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26206,7 +26206,7 @@
         <v>4</v>
       </c>
       <c r="C2345">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
@@ -26338,7 +26338,7 @@
         <v>3</v>
       </c>
       <c r="C2357">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
@@ -26514,7 +26514,7 @@
         <v>4</v>
       </c>
       <c r="C2373">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
@@ -26533,10 +26533,10 @@
         <v>44472</v>
       </c>
       <c r="B2375" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
@@ -26544,10 +26544,10 @@
         <v>44472</v>
       </c>
       <c r="B2376" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2376">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
@@ -26555,10 +26555,10 @@
         <v>44472</v>
       </c>
       <c r="B2377" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2377">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -26566,10 +26566,10 @@
         <v>44472</v>
       </c>
       <c r="B2378" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2378">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
@@ -26577,21 +26577,21 @@
         <v>44472</v>
       </c>
       <c r="B2379" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2379">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
       <c r="A2380" s="2">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B2380" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2380">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
@@ -26599,7 +26599,7 @@
         <v>44473</v>
       </c>
       <c r="B2381" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2381">
         <v>1</v>
@@ -26610,10 +26610,10 @@
         <v>44473</v>
       </c>
       <c r="B2382" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2382">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
@@ -26621,10 +26621,10 @@
         <v>44473</v>
       </c>
       <c r="B2383" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2383">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
@@ -26632,7 +26632,7 @@
         <v>44473</v>
       </c>
       <c r="B2384" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2384">
         <v>11</v>
@@ -26643,21 +26643,21 @@
         <v>44473</v>
       </c>
       <c r="B2385" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2385">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
       <c r="A2386" s="2">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B2386" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2386">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
@@ -26665,10 +26665,10 @@
         <v>44474</v>
       </c>
       <c r="B2387" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2387">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
@@ -26676,10 +26676,10 @@
         <v>44474</v>
       </c>
       <c r="B2388" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2388">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
@@ -26687,10 +26687,10 @@
         <v>44474</v>
       </c>
       <c r="B2389" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2389">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
@@ -26698,10 +26698,10 @@
         <v>44474</v>
       </c>
       <c r="B2390" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2390">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
@@ -26709,21 +26709,21 @@
         <v>44474</v>
       </c>
       <c r="B2391" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2391">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
       <c r="A2392" s="2">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B2392" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2392">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -26731,10 +26731,10 @@
         <v>44475</v>
       </c>
       <c r="B2393" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2393">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
@@ -26742,10 +26742,10 @@
         <v>44475</v>
       </c>
       <c r="B2394" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2394">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
@@ -26753,10 +26753,10 @@
         <v>44475</v>
       </c>
       <c r="B2395" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2395">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
@@ -26764,10 +26764,10 @@
         <v>44475</v>
       </c>
       <c r="B2396" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2396">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
@@ -26775,10 +26775,10 @@
         <v>44475</v>
       </c>
       <c r="B2397" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2397">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
@@ -26786,21 +26786,21 @@
         <v>44475</v>
       </c>
       <c r="B2398" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2398">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
       <c r="A2399" s="2">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B2399" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2399">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
@@ -26808,10 +26808,10 @@
         <v>44476</v>
       </c>
       <c r="B2400" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2400">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
@@ -26819,10 +26819,10 @@
         <v>44476</v>
       </c>
       <c r="B2401" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2401">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
@@ -26830,10 +26830,10 @@
         <v>44476</v>
       </c>
       <c r="B2402" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2402">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
@@ -26841,10 +26841,10 @@
         <v>44476</v>
       </c>
       <c r="B2403" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2403">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
@@ -26852,21 +26852,21 @@
         <v>44476</v>
       </c>
       <c r="B2404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2404">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
       <c r="A2405" s="2">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B2405" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2405">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
@@ -26874,10 +26874,10 @@
         <v>44477</v>
       </c>
       <c r="B2406" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2406">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
@@ -26885,10 +26885,10 @@
         <v>44477</v>
       </c>
       <c r="B2407" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2407">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
@@ -26896,10 +26896,10 @@
         <v>44477</v>
       </c>
       <c r="B2408" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2408">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
@@ -26907,21 +26907,21 @@
         <v>44477</v>
       </c>
       <c r="B2409" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2409">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
       <c r="A2410" s="2">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B2410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2410">
         <v>6</v>
-      </c>
-      <c r="C2410">
-        <v>2</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
@@ -26929,10 +26929,10 @@
         <v>44478</v>
       </c>
       <c r="B2411" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
@@ -26940,10 +26940,10 @@
         <v>44478</v>
       </c>
       <c r="B2412" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2412">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
@@ -26951,10 +26951,10 @@
         <v>44478</v>
       </c>
       <c r="B2413" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2413">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
@@ -26962,7 +26962,7 @@
         <v>44478</v>
       </c>
       <c r="B2414" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2414">
         <v>6</v>
@@ -26973,7 +26973,7 @@
         <v>44478</v>
       </c>
       <c r="B2415" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2415">
         <v>6</v>
@@ -26981,13 +26981,13 @@
     </row>
     <row r="2416" spans="1:3">
       <c r="A2416" s="2">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B2416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2416">
         <v>6</v>
-      </c>
-      <c r="C2416">
-        <v>1</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
@@ -26995,10 +26995,10 @@
         <v>44479</v>
       </c>
       <c r="B2417" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
@@ -27006,7 +27006,7 @@
         <v>44479</v>
       </c>
       <c r="B2418" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2418">
         <v>2</v>
@@ -27017,10 +27017,10 @@
         <v>44479</v>
       </c>
       <c r="B2419" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2419">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
@@ -27028,10 +27028,10 @@
         <v>44479</v>
       </c>
       <c r="B2420" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2420">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
@@ -27039,21 +27039,21 @@
         <v>44479</v>
       </c>
       <c r="B2421" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2421">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
       <c r="A2422" s="2">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B2422" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2422">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
@@ -27061,10 +27061,10 @@
         <v>44480</v>
       </c>
       <c r="B2423" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
@@ -27072,10 +27072,10 @@
         <v>44480</v>
       </c>
       <c r="B2424" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2424">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
@@ -27083,10 +27083,10 @@
         <v>44480</v>
       </c>
       <c r="B2425" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2425">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
@@ -27094,7 +27094,7 @@
         <v>44480</v>
       </c>
       <c r="B2426" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2426">
         <v>7</v>
@@ -27105,21 +27105,21 @@
         <v>44480</v>
       </c>
       <c r="B2427" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2427">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
       <c r="A2428" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B2428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2428">
         <v>9</v>
-      </c>
-      <c r="C2428">
-        <v>1</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
@@ -27127,10 +27127,10 @@
         <v>44481</v>
       </c>
       <c r="B2429" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2429">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
@@ -27138,10 +27138,10 @@
         <v>44481</v>
       </c>
       <c r="B2430" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2430">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
@@ -27149,7 +27149,7 @@
         <v>44481</v>
       </c>
       <c r="B2431" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2431">
         <v>5</v>
@@ -27160,10 +27160,10 @@
         <v>44481</v>
       </c>
       <c r="B2432" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2432">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
@@ -27171,21 +27171,21 @@
         <v>44481</v>
       </c>
       <c r="B2433" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2433">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
       <c r="A2434" s="2">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B2434" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2434">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
@@ -27193,10 +27193,10 @@
         <v>44482</v>
       </c>
       <c r="B2435" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2435">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
@@ -27204,10 +27204,10 @@
         <v>44482</v>
       </c>
       <c r="B2436" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2436">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
@@ -27215,7 +27215,7 @@
         <v>44482</v>
       </c>
       <c r="B2437" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2437">
         <v>7</v>
@@ -27226,7 +27226,7 @@
         <v>44482</v>
       </c>
       <c r="B2438" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2438">
         <v>7</v>
@@ -27234,13 +27234,13 @@
     </row>
     <row r="2439" spans="1:3">
       <c r="A2439" s="2">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B2439" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2439">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
@@ -27248,10 +27248,10 @@
         <v>44483</v>
       </c>
       <c r="B2440" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2440">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
@@ -27259,10 +27259,10 @@
         <v>44483</v>
       </c>
       <c r="B2441" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2441">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
@@ -27270,10 +27270,10 @@
         <v>44483</v>
       </c>
       <c r="B2442" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2442">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
@@ -27281,21 +27281,21 @@
         <v>44483</v>
       </c>
       <c r="B2443" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2443">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
       <c r="A2444" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B2444" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2444">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
@@ -27303,10 +27303,10 @@
         <v>44484</v>
       </c>
       <c r="B2445" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2445">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
@@ -27314,10 +27314,10 @@
         <v>44484</v>
       </c>
       <c r="B2446" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2446">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
@@ -27325,10 +27325,10 @@
         <v>44484</v>
       </c>
       <c r="B2447" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2447">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
@@ -27336,21 +27336,21 @@
         <v>44484</v>
       </c>
       <c r="B2448" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2448">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
       <c r="A2449" s="2">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B2449" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2449">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -27358,10 +27358,10 @@
         <v>44485</v>
       </c>
       <c r="B2450" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2450">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
@@ -27369,10 +27369,10 @@
         <v>44485</v>
       </c>
       <c r="B2451" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2451">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
@@ -27380,10 +27380,10 @@
         <v>44485</v>
       </c>
       <c r="B2452" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2452">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
@@ -27391,10 +27391,10 @@
         <v>44485</v>
       </c>
       <c r="B2453" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2453">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
@@ -27402,21 +27402,21 @@
         <v>44485</v>
       </c>
       <c r="B2454" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2454">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
       <c r="A2455" s="2">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B2455" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2455">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
@@ -27424,7 +27424,7 @@
         <v>44486</v>
       </c>
       <c r="B2456" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2456">
         <v>2</v>
@@ -27435,10 +27435,10 @@
         <v>44486</v>
       </c>
       <c r="B2457" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2457">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
@@ -27446,10 +27446,10 @@
         <v>44486</v>
       </c>
       <c r="B2458" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2458">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
@@ -27457,10 +27457,10 @@
         <v>44486</v>
       </c>
       <c r="B2459" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2459">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
@@ -27468,21 +27468,21 @@
         <v>44486</v>
       </c>
       <c r="B2460" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2460">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
       <c r="A2461" s="2">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B2461" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2461">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
@@ -27490,10 +27490,10 @@
         <v>44487</v>
       </c>
       <c r="B2462" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2462">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
@@ -27501,10 +27501,10 @@
         <v>44487</v>
       </c>
       <c r="B2463" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2463">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
@@ -27512,10 +27512,10 @@
         <v>44487</v>
       </c>
       <c r="B2464" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2464">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
@@ -27523,21 +27523,21 @@
         <v>44487</v>
       </c>
       <c r="B2465" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2465">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
       <c r="A2466" s="2">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B2466" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2466">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
@@ -27545,10 +27545,10 @@
         <v>44488</v>
       </c>
       <c r="B2467" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2467">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
@@ -27556,10 +27556,10 @@
         <v>44488</v>
       </c>
       <c r="B2468" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2468">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
@@ -27567,7 +27567,7 @@
         <v>44488</v>
       </c>
       <c r="B2469" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2469">
         <v>4</v>
@@ -27578,10 +27578,10 @@
         <v>44488</v>
       </c>
       <c r="B2470" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2470">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -27589,21 +27589,21 @@
         <v>44488</v>
       </c>
       <c r="B2471" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2471">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
       <c r="A2472" s="2">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B2472" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2472">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
@@ -27611,10 +27611,10 @@
         <v>44489</v>
       </c>
       <c r="B2473" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2473">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
@@ -27622,10 +27622,10 @@
         <v>44489</v>
       </c>
       <c r="B2474" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2474">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
@@ -27633,10 +27633,10 @@
         <v>44489</v>
       </c>
       <c r="B2475" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2475">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
@@ -27644,7 +27644,7 @@
         <v>44489</v>
       </c>
       <c r="B2476" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2476">
         <v>9</v>
@@ -27652,13 +27652,13 @@
     </row>
     <row r="2477" spans="1:3">
       <c r="A2477" s="2">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B2477" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2477">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
@@ -27666,10 +27666,10 @@
         <v>44490</v>
       </c>
       <c r="B2478" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2478">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
@@ -27677,10 +27677,10 @@
         <v>44490</v>
       </c>
       <c r="B2479" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2479">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
@@ -27688,10 +27688,10 @@
         <v>44490</v>
       </c>
       <c r="B2480" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2480">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -27699,21 +27699,21 @@
         <v>44490</v>
       </c>
       <c r="B2481" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2481">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
       <c r="A2482" s="2">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B2482" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2482">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
@@ -27721,10 +27721,10 @@
         <v>44491</v>
       </c>
       <c r="B2483" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2483">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
@@ -27732,10 +27732,10 @@
         <v>44491</v>
       </c>
       <c r="B2484" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2484">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
@@ -27743,10 +27743,10 @@
         <v>44491</v>
       </c>
       <c r="B2485" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2485">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
@@ -27754,21 +27754,21 @@
         <v>44491</v>
       </c>
       <c r="B2486" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2486">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
       <c r="A2487" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B2487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2487">
         <v>9</v>
-      </c>
-      <c r="C2487">
-        <v>1</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
@@ -27776,7 +27776,7 @@
         <v>44492</v>
       </c>
       <c r="B2488" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2488">
         <v>1</v>
@@ -27787,7 +27787,7 @@
         <v>44492</v>
       </c>
       <c r="B2489" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2489">
         <v>1</v>
@@ -27798,10 +27798,10 @@
         <v>44492</v>
       </c>
       <c r="B2490" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2490">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
@@ -27809,10 +27809,10 @@
         <v>44492</v>
       </c>
       <c r="B2491" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2491">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
@@ -27820,10 +27820,10 @@
         <v>44492</v>
       </c>
       <c r="B2492" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2492">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
@@ -27831,7 +27831,7 @@
         <v>44492</v>
       </c>
       <c r="B2493" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2493">
         <v>5</v>
@@ -27839,13 +27839,13 @@
     </row>
     <row r="2494" spans="1:3">
       <c r="A2494" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B2494" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2494">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
@@ -27853,10 +27853,10 @@
         <v>44493</v>
       </c>
       <c r="B2495" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2495">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
@@ -27864,10 +27864,10 @@
         <v>44493</v>
       </c>
       <c r="B2496" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
@@ -27875,10 +27875,10 @@
         <v>44493</v>
       </c>
       <c r="B2497" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2497">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
@@ -27886,10 +27886,10 @@
         <v>44493</v>
       </c>
       <c r="B2498" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2498">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
@@ -27897,10 +27897,10 @@
         <v>44493</v>
       </c>
       <c r="B2499" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2499">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
@@ -27908,21 +27908,21 @@
         <v>44493</v>
       </c>
       <c r="B2500" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2500">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
       <c r="A2501" s="2">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B2501" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2501">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
@@ -27930,10 +27930,10 @@
         <v>44494</v>
       </c>
       <c r="B2502" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2502">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
@@ -27941,10 +27941,10 @@
         <v>44494</v>
       </c>
       <c r="B2503" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2503">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
@@ -27952,7 +27952,7 @@
         <v>44494</v>
       </c>
       <c r="B2504" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2504">
         <v>3</v>
@@ -27963,32 +27963,32 @@
         <v>44494</v>
       </c>
       <c r="B2505" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2505">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2506" spans="1:3">
       <c r="A2506" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B2506" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2506">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2507" spans="1:3">
       <c r="A2507" s="2">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B2507" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2507">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2508" spans="1:3">
@@ -27996,10 +27996,10 @@
         <v>44495</v>
       </c>
       <c r="B2508" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2508">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2509" spans="1:3">
@@ -28007,10 +28007,10 @@
         <v>44495</v>
       </c>
       <c r="B2509" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2509">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
@@ -28018,32 +28018,32 @@
         <v>44495</v>
       </c>
       <c r="B2510" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2510">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2511" spans="1:3">
       <c r="A2511" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B2511" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2511">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
       <c r="A2512" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B2512" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2512">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2513" spans="1:3">
@@ -28051,10 +28051,10 @@
         <v>44496</v>
       </c>
       <c r="B2513" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2513">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2514" spans="1:3">
@@ -28062,10 +28062,10 @@
         <v>44496</v>
       </c>
       <c r="B2514" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2514">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2515" spans="1:3">
@@ -28073,32 +28073,32 @@
         <v>44496</v>
       </c>
       <c r="B2515" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2515">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2516" spans="1:3">
       <c r="A2516" s="2">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B2516" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2516">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2517" spans="1:3">
       <c r="A2517" s="2">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B2517" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2517">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2518" spans="1:3">
@@ -28106,10 +28106,10 @@
         <v>44497</v>
       </c>
       <c r="B2518" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2518">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2519" spans="1:3">
@@ -28117,10 +28117,10 @@
         <v>44497</v>
       </c>
       <c r="B2519" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2519">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2520" spans="1:3">
@@ -28128,32 +28128,32 @@
         <v>44497</v>
       </c>
       <c r="B2520" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2520">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
       <c r="A2521" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B2521" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2521">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2522" spans="1:3">
       <c r="A2522" s="2">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B2522" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2522">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2523" spans="1:3">
@@ -28161,10 +28161,10 @@
         <v>44498</v>
       </c>
       <c r="B2523" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2523">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2524" spans="1:3">
@@ -28172,10 +28172,10 @@
         <v>44498</v>
       </c>
       <c r="B2524" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2524">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2525" spans="1:3">
@@ -28183,32 +28183,32 @@
         <v>44498</v>
       </c>
       <c r="B2525" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2525">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2526" spans="1:3">
       <c r="A2526" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B2526" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2526">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2527" spans="1:3">
       <c r="A2527" s="2">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B2527" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2527">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2528" spans="1:3">
@@ -28216,10 +28216,10 @@
         <v>44499</v>
       </c>
       <c r="B2528" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2529" spans="1:3">
@@ -28227,10 +28227,10 @@
         <v>44499</v>
       </c>
       <c r="B2529" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2529">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2530" spans="1:3">
@@ -28238,32 +28238,32 @@
         <v>44499</v>
       </c>
       <c r="B2530" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2530">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2531" spans="1:3">
       <c r="A2531" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B2531" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2531">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2532" spans="1:3">
       <c r="A2532" s="2">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B2532" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2532">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2533" spans="1:3">
@@ -28271,10 +28271,10 @@
         <v>44500</v>
       </c>
       <c r="B2533" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2533">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2534" spans="1:3">
@@ -28282,10 +28282,10 @@
         <v>44500</v>
       </c>
       <c r="B2534" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2534">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2535" spans="1:3">
@@ -28293,10 +28293,10 @@
         <v>44500</v>
       </c>
       <c r="B2535" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2535">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2536" spans="1:3">
@@ -28304,7 +28304,7 @@
         <v>44500</v>
       </c>
       <c r="B2536" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2536">
         <v>5</v>
@@ -28312,24 +28312,24 @@
     </row>
     <row r="2537" spans="1:3">
       <c r="A2537" s="2">
-        <v>44501</v>
+        <v>44500</v>
       </c>
       <c r="B2537" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2537">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2538" spans="1:3">
       <c r="A2538" s="2">
-        <v>44501</v>
+        <v>44500</v>
       </c>
       <c r="B2538" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2538">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2539" spans="1:3">
@@ -28337,10 +28337,10 @@
         <v>44501</v>
       </c>
       <c r="B2539" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2539">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2540" spans="1:3">
@@ -28348,10 +28348,10 @@
         <v>44501</v>
       </c>
       <c r="B2540" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2540">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2541" spans="1:3">
@@ -28359,32 +28359,32 @@
         <v>44501</v>
       </c>
       <c r="B2541" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2541">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2542" spans="1:3">
       <c r="A2542" s="2">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="B2542" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2543" spans="1:3">
       <c r="A2543" s="2">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="B2543" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2543">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2544" spans="1:3">
@@ -28392,10 +28392,10 @@
         <v>44502</v>
       </c>
       <c r="B2544" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2544">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2545" spans="1:3">
@@ -28403,10 +28403,10 @@
         <v>44502</v>
       </c>
       <c r="B2545" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2545">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2546" spans="1:3">
@@ -28414,10 +28414,10 @@
         <v>44502</v>
       </c>
       <c r="B2546" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2547" spans="1:3">
@@ -28425,32 +28425,32 @@
         <v>44502</v>
       </c>
       <c r="B2547" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2547">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2548" spans="1:3">
       <c r="A2548" s="2">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B2548" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2548">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2549" spans="1:3">
       <c r="A2549" s="2">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B2549" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2549">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2550" spans="1:3">
@@ -28458,9 +28458,75 @@
         <v>44503</v>
       </c>
       <c r="B2550" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3">
+      <c r="A2551" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3">
+      <c r="A2552" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3">
+      <c r="A2553" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:3">
+      <c r="A2554" s="2">
+        <v>44504</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:3">
+      <c r="A2555" s="2">
+        <v>44504</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:3">
+      <c r="A2556" s="2">
+        <v>44504</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2556">
         <v>1</v>
       </c>
     </row>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2556"/>
+  <dimension ref="A1:C2559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27702,7 +27702,7 @@
         <v>4</v>
       </c>
       <c r="C2481">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
@@ -28472,7 +28472,7 @@
         <v>3</v>
       </c>
       <c r="C2551">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2552" spans="1:3">
@@ -28483,7 +28483,7 @@
         <v>4</v>
       </c>
       <c r="C2552">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2553" spans="1:3">
@@ -28516,7 +28516,7 @@
         <v>3</v>
       </c>
       <c r="C2555">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2556" spans="1:3">
@@ -28527,7 +28527,40 @@
         <v>4</v>
       </c>
       <c r="C2556">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:3">
+      <c r="A2557" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:3">
+      <c r="A2558" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2558">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:3">
+      <c r="A2559" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2559">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2559"/>
+  <dimension ref="A1:C2572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26360,7 +26360,7 @@
         <v>5</v>
       </c>
       <c r="C2359">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
@@ -28153,7 +28153,7 @@
         <v>5</v>
       </c>
       <c r="C2522">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2523" spans="1:3">
@@ -28483,7 +28483,7 @@
         <v>4</v>
       </c>
       <c r="C2552">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2553" spans="1:3">
@@ -28494,7 +28494,7 @@
         <v>5</v>
       </c>
       <c r="C2553">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2554" spans="1:3">
@@ -28516,7 +28516,7 @@
         <v>3</v>
       </c>
       <c r="C2555">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2556" spans="1:3">
@@ -28535,7 +28535,7 @@
         <v>44505</v>
       </c>
       <c r="B2557" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2557">
         <v>3</v>
@@ -28546,7 +28546,7 @@
         <v>44505</v>
       </c>
       <c r="B2558" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2558">
         <v>3</v>
@@ -28557,10 +28557,153 @@
         <v>44505</v>
       </c>
       <c r="B2559" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2559">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:3">
+      <c r="A2560" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2560">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3">
+      <c r="A2561" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2561">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3">
+      <c r="A2562" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:3">
+      <c r="A2563" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2563">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:3">
+      <c r="A2564" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2564">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:3">
+      <c r="A2565" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2565">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:3">
+      <c r="A2566" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2566">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:3">
+      <c r="A2567" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:3">
+      <c r="A2568" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:3">
+      <c r="A2569" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2569">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:3">
+      <c r="A2570" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2570">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:3">
+      <c r="A2571" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2571">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:3">
+      <c r="A2572" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2572">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2572"/>
+  <dimension ref="A1:C2579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28472,7 +28472,7 @@
         <v>3</v>
       </c>
       <c r="C2551">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2552" spans="1:3">
@@ -28593,7 +28593,7 @@
         <v>8</v>
       </c>
       <c r="C2562">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2563" spans="1:3">
@@ -28670,7 +28670,7 @@
         <v>3</v>
       </c>
       <c r="C2569">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2570" spans="1:3">
@@ -28692,7 +28692,7 @@
         <v>5</v>
       </c>
       <c r="C2571">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2572" spans="1:3">
@@ -28700,10 +28700,87 @@
         <v>44508</v>
       </c>
       <c r="B2572" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2572">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:3">
+      <c r="A2573" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:3">
+      <c r="A2574" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:3">
+      <c r="A2575" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2575" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:3">
+      <c r="A2576" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B2576" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2576">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:3">
+      <c r="A2577" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B2577" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:3">
+      <c r="A2578" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B2578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:3">
+      <c r="A2579" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B2579" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2579">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2579"/>
+  <dimension ref="A1:C2584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27691,7 +27691,7 @@
         <v>3</v>
       </c>
       <c r="C2480">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
@@ -28263,7 +28263,7 @@
         <v>5</v>
       </c>
       <c r="C2532">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2533" spans="1:3">
@@ -28362,7 +28362,7 @@
         <v>3</v>
       </c>
       <c r="C2541">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2542" spans="1:3">
@@ -28615,7 +28615,7 @@
         <v>3</v>
       </c>
       <c r="C2564">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2565" spans="1:3">
@@ -28626,7 +28626,7 @@
         <v>4</v>
       </c>
       <c r="C2565">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2566" spans="1:3">
@@ -28725,7 +28725,7 @@
         <v>3</v>
       </c>
       <c r="C2574">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2575" spans="1:3">
@@ -28736,7 +28736,7 @@
         <v>4</v>
       </c>
       <c r="C2575">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2576" spans="1:3">
@@ -28758,7 +28758,7 @@
         <v>7</v>
       </c>
       <c r="C2577">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2578" spans="1:3">
@@ -28769,7 +28769,7 @@
         <v>3</v>
       </c>
       <c r="C2578">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2579" spans="1:3">
@@ -28777,10 +28777,65 @@
         <v>44509</v>
       </c>
       <c r="B2579" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2579">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:3">
+      <c r="A2580" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2580">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:3">
+      <c r="A2581" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B2581" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:3">
+      <c r="A2582" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B2582" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:3">
+      <c r="A2583" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B2583" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:3">
+      <c r="A2584" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B2584" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2584">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2584"/>
+  <dimension ref="A1:C2590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25568,7 +25568,7 @@
         <v>7</v>
       </c>
       <c r="C2287">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
@@ -26195,7 +26195,7 @@
         <v>3</v>
       </c>
       <c r="C2344">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
@@ -26239,7 +26239,7 @@
         <v>8</v>
       </c>
       <c r="C2348">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
@@ -26448,7 +26448,7 @@
         <v>3</v>
       </c>
       <c r="C2367">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
@@ -26712,7 +26712,7 @@
         <v>4</v>
       </c>
       <c r="C2391">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
@@ -26899,7 +26899,7 @@
         <v>3</v>
       </c>
       <c r="C2408">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
@@ -27350,7 +27350,7 @@
         <v>5</v>
       </c>
       <c r="C2449">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
@@ -28010,7 +28010,7 @@
         <v>7</v>
       </c>
       <c r="C2509">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
@@ -28032,7 +28032,7 @@
         <v>4</v>
       </c>
       <c r="C2511">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
@@ -28065,7 +28065,7 @@
         <v>7</v>
       </c>
       <c r="C2514">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2515" spans="1:3">
@@ -28098,7 +28098,7 @@
         <v>5</v>
       </c>
       <c r="C2517">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2518" spans="1:3">
@@ -28131,7 +28131,7 @@
         <v>3</v>
       </c>
       <c r="C2520">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
@@ -28208,7 +28208,7 @@
         <v>5</v>
       </c>
       <c r="C2527">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2528" spans="1:3">
@@ -28252,7 +28252,7 @@
         <v>4</v>
       </c>
       <c r="C2531">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2532" spans="1:3">
@@ -28263,7 +28263,7 @@
         <v>5</v>
       </c>
       <c r="C2532">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2533" spans="1:3">
@@ -28307,7 +28307,7 @@
         <v>3</v>
       </c>
       <c r="C2536">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2537" spans="1:3">
@@ -28329,7 +28329,7 @@
         <v>5</v>
       </c>
       <c r="C2538">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2539" spans="1:3">
@@ -28373,7 +28373,7 @@
         <v>4</v>
       </c>
       <c r="C2542">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2543" spans="1:3">
@@ -28384,7 +28384,7 @@
         <v>5</v>
       </c>
       <c r="C2543">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2544" spans="1:3">
@@ -28406,7 +28406,7 @@
         <v>8</v>
       </c>
       <c r="C2545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2546" spans="1:3">
@@ -28428,7 +28428,7 @@
         <v>3</v>
       </c>
       <c r="C2547">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2548" spans="1:3">
@@ -28450,7 +28450,7 @@
         <v>5</v>
       </c>
       <c r="C2549">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2550" spans="1:3">
@@ -28483,7 +28483,7 @@
         <v>4</v>
       </c>
       <c r="C2552">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2553" spans="1:3">
@@ -28494,7 +28494,7 @@
         <v>5</v>
       </c>
       <c r="C2553">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2554" spans="1:3">
@@ -28513,10 +28513,10 @@
         <v>44504</v>
       </c>
       <c r="B2555" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2555">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2556" spans="1:3">
@@ -28524,32 +28524,32 @@
         <v>44504</v>
       </c>
       <c r="B2556" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2556">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2557" spans="1:3">
       <c r="A2557" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B2557" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2557">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2558" spans="1:3">
       <c r="A2558" s="2">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B2558" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2558">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2559" spans="1:3">
@@ -28557,10 +28557,10 @@
         <v>44505</v>
       </c>
       <c r="B2559" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2559">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2560" spans="1:3">
@@ -28568,10 +28568,10 @@
         <v>44505</v>
       </c>
       <c r="B2560" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2560">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2561" spans="1:3">
@@ -28579,32 +28579,32 @@
         <v>44505</v>
       </c>
       <c r="B2561" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2561">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2562" spans="1:3">
       <c r="A2562" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B2562" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2562">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2563" spans="1:3">
       <c r="A2563" s="2">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B2563" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2563">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2564" spans="1:3">
@@ -28612,10 +28612,10 @@
         <v>44506</v>
       </c>
       <c r="B2564" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2564">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2565" spans="1:3">
@@ -28623,10 +28623,10 @@
         <v>44506</v>
       </c>
       <c r="B2565" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2565">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2566" spans="1:3">
@@ -28634,32 +28634,32 @@
         <v>44506</v>
       </c>
       <c r="B2566" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2566">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2567" spans="1:3">
       <c r="A2567" s="2">
-        <v>44507</v>
+        <v>44506</v>
       </c>
       <c r="B2567" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2567">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2568" spans="1:3">
       <c r="A2568" s="2">
-        <v>44507</v>
+        <v>44506</v>
       </c>
       <c r="B2568" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2568">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2569" spans="1:3">
@@ -28667,10 +28667,10 @@
         <v>44507</v>
       </c>
       <c r="B2569" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2569">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2570" spans="1:3">
@@ -28678,10 +28678,10 @@
         <v>44507</v>
       </c>
       <c r="B2570" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2570">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2571" spans="1:3">
@@ -28689,32 +28689,32 @@
         <v>44507</v>
       </c>
       <c r="B2571" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2571">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2572" spans="1:3">
       <c r="A2572" s="2">
-        <v>44508</v>
+        <v>44507</v>
       </c>
       <c r="B2572" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2572">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2573" spans="1:3">
       <c r="A2573" s="2">
-        <v>44508</v>
+        <v>44507</v>
       </c>
       <c r="B2573" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2573">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2574" spans="1:3">
@@ -28722,10 +28722,10 @@
         <v>44508</v>
       </c>
       <c r="B2574" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2574">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2575" spans="1:3">
@@ -28733,10 +28733,10 @@
         <v>44508</v>
       </c>
       <c r="B2575" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2575">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2576" spans="1:3">
@@ -28744,18 +28744,18 @@
         <v>44508</v>
       </c>
       <c r="B2576" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2576">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2577" spans="1:3">
       <c r="A2577" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B2577" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2577">
         <v>2</v>
@@ -28763,13 +28763,13 @@
     </row>
     <row r="2578" spans="1:3">
       <c r="A2578" s="2">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B2578" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2578">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2579" spans="1:3">
@@ -28777,10 +28777,10 @@
         <v>44509</v>
       </c>
       <c r="B2579" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2579">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2580" spans="1:3">
@@ -28788,32 +28788,32 @@
         <v>44509</v>
       </c>
       <c r="B2580" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2580">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2581" spans="1:3">
       <c r="A2581" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B2581" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2581">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2582" spans="1:3">
       <c r="A2582" s="2">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B2582" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2582">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2583" spans="1:3">
@@ -28821,10 +28821,10 @@
         <v>44510</v>
       </c>
       <c r="B2583" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2583">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2584" spans="1:3">
@@ -28832,10 +28832,76 @@
         <v>44510</v>
       </c>
       <c r="B2584" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2584">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:3">
+      <c r="A2585" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B2585" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:3">
+      <c r="A2586" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B2586" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2586">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:3">
+      <c r="A2587" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B2587" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2587">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:3">
+      <c r="A2588" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B2588" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:3">
+      <c r="A2589" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B2589" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:3">
+      <c r="A2590" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B2590" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2590">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2590"/>
+  <dimension ref="A1:C2593"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28868,7 +28868,7 @@
         <v>5</v>
       </c>
       <c r="C2587">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2588" spans="1:3">
@@ -28876,10 +28876,10 @@
         <v>44511</v>
       </c>
       <c r="B2588" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2588">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2589" spans="1:3">
@@ -28887,10 +28887,10 @@
         <v>44511</v>
       </c>
       <c r="B2589" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2589">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2590" spans="1:3">
@@ -28898,10 +28898,43 @@
         <v>44511</v>
       </c>
       <c r="B2590" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2590">
-        <v>4</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:3">
+      <c r="A2591" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B2591" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2591">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:3">
+      <c r="A2592" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B2592" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:3">
+      <c r="A2593" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B2593" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2593">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/age-deaths-historic.xlsx
+++ b/data/age-deaths-historic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2593"/>
+  <dimension ref="A1:C2606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28659,7 +28659,7 @@
         <v>5</v>
       </c>
       <c r="C2568">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2569" spans="1:3">
@@ -28868,7 +28868,7 @@
         <v>5</v>
       </c>
       <c r="C2587">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2588" spans="1:3">
@@ -28879,7 +28879,7 @@
         <v>7</v>
       </c>
       <c r="C2588">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2589" spans="1:3">
@@ -28912,7 +28912,7 @@
         <v>5</v>
       </c>
       <c r="C2591">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2592" spans="1:3">
@@ -28920,10 +28920,10 @@
         <v>44512</v>
       </c>
       <c r="B2592" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2592">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2593" spans="1:3">
@@ -28931,10 +28931,153 @@
         <v>44512</v>
       </c>
       <c r="B2593" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2593">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:3">
+      <c r="A2594" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B2594" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2594">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:3">
+      <c r="A2595" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B2595" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2595">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:3">
+      <c r="A2596" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B2596" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:3">
+      <c r="A2597" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B2597" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:3">
+      <c r="A2598" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B2598" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2598">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:3">
+      <c r="A2599" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B2599" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2599">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:3">
+      <c r="A2600" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B2600" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:3">
+      <c r="A2601" s="2">
+        <v>44514</v>
+      </c>
+      <c r="B2601" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2601">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:3">
+      <c r="A2602" s="2">
+        <v>44514</v>
+      </c>
+      <c r="B2602" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:3">
+      <c r="A2603" s="2">
+        <v>44514</v>
+      </c>
+      <c r="B2603" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2603">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:3">
+      <c r="A2604" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B2604" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:3">
+      <c r="A2605" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B2605" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:3">
+      <c r="A2606" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B2606" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2606">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
